--- a/BackTest/2019-10-26 BackTest ELF.xlsx
+++ b/BackTest/2019-10-26 BackTest ELF.xlsx
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1466,17 +1466,13 @@
         <v>95.89999999999992</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="K31" t="n">
-        <v>95.3</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
@@ -1505,22 +1501,14 @@
         <v>95.51999999999992</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1548,108 +1536,96 @@
         <v>95.31999999999994</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1018.0643</v>
+      </c>
+      <c r="G34" t="n">
+        <v>95.77999999999993</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>95</v>
+      </c>
+      <c r="K34" t="n">
+        <v>95</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>95</v>
+      </c>
+      <c r="C35" t="n">
         <v>95.3</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="D35" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>95</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1061.6289</v>
+      </c>
+      <c r="G35" t="n">
+        <v>95.73999999999992</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="K35" t="n">
+        <v>95</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="C34" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="D34" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="E34" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1018.0643</v>
-      </c>
-      <c r="G34" t="n">
-        <v>95.77999999999993</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K34" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>95</v>
-      </c>
-      <c r="C35" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="D35" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="E35" t="n">
-        <v>95</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1061.6289</v>
-      </c>
-      <c r="G35" t="n">
-        <v>95.73999999999992</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>95</v>
-      </c>
-      <c r="K35" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1677,16 +1653,14 @@
         <v>95.81999999999992</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>95.7</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1720,16 +1694,14 @@
         <v>96.01999999999992</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>96.3</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1763,16 +1735,14 @@
         <v>96.59999999999994</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>97.90000000000001</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1806,16 +1776,14 @@
         <v>96.73999999999992</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>98.2</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1849,16 +1817,14 @@
         <v>97.37999999999991</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>98.5</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1892,16 +1858,14 @@
         <v>97.93999999999993</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>98.5</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1942,7 +1906,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -1983,7 +1947,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2024,7 +1988,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2065,7 +2029,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2106,7 +2070,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2147,7 +2111,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2188,7 +2152,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2229,7 +2193,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2270,7 +2234,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2311,7 +2275,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2352,7 +2316,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2393,7 +2357,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2434,7 +2398,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2475,7 +2439,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2516,7 +2480,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2557,7 +2521,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2598,7 +2562,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2639,7 +2603,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2680,7 +2644,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2721,7 +2685,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2762,7 +2726,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2803,7 +2767,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2844,7 +2808,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2852,7 +2816,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1.075797481636936</v>
+        <v>1.07921052631579</v>
       </c>
     </row>
     <row r="65">
@@ -2881,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2951,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -3266,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3406,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>

--- a/BackTest/2019-10-26 BackTest ELF.xlsx
+++ b/BackTest/2019-10-26 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,16 +445,16 @@
         <v>99.8</v>
       </c>
       <c r="F2" t="n">
-        <v>10850</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="n">
-        <v>99.81999999999996</v>
+        <v>96.95499999999997</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -480,10 +480,10 @@
         <v>99.8</v>
       </c>
       <c r="F3" t="n">
-        <v>2145.4408</v>
+        <v>10850</v>
       </c>
       <c r="G3" t="n">
-        <v>99.81999999999995</v>
+        <v>96.99999999999997</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,16 +515,16 @@
         <v>99.8</v>
       </c>
       <c r="F4" t="n">
-        <v>1049.8249</v>
+        <v>2145.4408</v>
       </c>
       <c r="G4" t="n">
-        <v>99.79999999999995</v>
+        <v>97.09833333333331</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E5" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="F5" t="n">
-        <v>24241.1278</v>
+        <v>1049.8249</v>
       </c>
       <c r="G5" t="n">
-        <v>99.83999999999995</v>
+        <v>97.16666666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C6" t="n">
         <v>100</v>
-      </c>
-      <c r="C6" t="n">
-        <v>99</v>
       </c>
       <c r="D6" t="n">
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>9142.77</v>
+        <v>24241.1278</v>
       </c>
       <c r="G6" t="n">
-        <v>99.67999999999996</v>
+        <v>97.23833333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>98.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="D7" t="n">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
-        <v>2057</v>
+        <v>9142.77</v>
       </c>
       <c r="G7" t="n">
-        <v>99.33999999999995</v>
+        <v>97.29499999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>101</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>99.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
-        <v>9435.2479</v>
+        <v>2057</v>
       </c>
       <c r="G8" t="n">
-        <v>99.57999999999996</v>
+        <v>97.33666666666664</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>601</v>
+        <v>9435.2479</v>
       </c>
       <c r="G9" t="n">
-        <v>99.61999999999998</v>
+        <v>97.40333333333332</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>10584.4583</v>
+        <v>601</v>
       </c>
       <c r="G10" t="n">
-        <v>99.45999999999997</v>
+        <v>97.46166666666664</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E11" t="n">
         <v>98.2</v>
       </c>
-      <c r="C11" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>98.09999999999999</v>
-      </c>
       <c r="F11" t="n">
-        <v>750</v>
+        <v>10584.4583</v>
       </c>
       <c r="G11" t="n">
-        <v>99.27999999999997</v>
+        <v>97.52166666666663</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="C12" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="E12" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>991.7303000000001</v>
+        <v>750</v>
       </c>
       <c r="G12" t="n">
-        <v>99.25999999999996</v>
+        <v>97.58666666666664</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" t="n">
-        <v>1500</v>
+        <v>991.7303000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>98.85999999999997</v>
+        <v>97.63499999999998</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98.3</v>
+        <v>99</v>
       </c>
       <c r="C14" t="n">
-        <v>98.3</v>
+        <v>99</v>
       </c>
       <c r="D14" t="n">
-        <v>98.3</v>
+        <v>99</v>
       </c>
       <c r="E14" t="n">
-        <v>98.3</v>
+        <v>99</v>
       </c>
       <c r="F14" t="n">
-        <v>56.3913</v>
+        <v>1500</v>
       </c>
       <c r="G14" t="n">
-        <v>98.51999999999995</v>
+        <v>97.69833333333331</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>98.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C15" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="D15" t="n">
-        <v>98.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="E15" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="F15" t="n">
-        <v>3661.9174</v>
+        <v>56.3913</v>
       </c>
       <c r="G15" t="n">
-        <v>98.29999999999997</v>
+        <v>97.76166666666664</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>98.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>98.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E16" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>4602.639</v>
+        <v>3661.9174</v>
       </c>
       <c r="G16" t="n">
-        <v>98.29999999999995</v>
+        <v>97.81999999999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>98.09999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>489.7294</v>
+        <v>4602.639</v>
       </c>
       <c r="G17" t="n">
-        <v>98.31999999999996</v>
+        <v>97.87833333333332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C18" t="n">
         <v>98.09999999999999</v>
@@ -1002,13 +1002,13 @@
         <v>98.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>3612.6388</v>
+        <v>489.7294</v>
       </c>
       <c r="G18" t="n">
-        <v>98.13999999999996</v>
+        <v>97.93666666666665</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="C19" t="n">
         <v>98.09999999999999</v>
@@ -1037,13 +1037,13 @@
         <v>98.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="F19" t="n">
-        <v>2683.8675</v>
+        <v>3612.6388</v>
       </c>
       <c r="G19" t="n">
-        <v>98.09999999999997</v>
+        <v>97.99499999999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>98.09999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>97.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D20" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>97.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>2682.858</v>
+        <v>2683.8675</v>
       </c>
       <c r="G20" t="n">
-        <v>97.95999999999997</v>
+        <v>98.05333333333331</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>99.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>99.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>98.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>3050</v>
+        <v>2682.858</v>
       </c>
       <c r="G21" t="n">
-        <v>98.19999999999996</v>
+        <v>98.09499999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>97.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="C22" t="n">
-        <v>97.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="D22" t="n">
-        <v>97.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="E22" t="n">
-        <v>97.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="F22" t="n">
-        <v>260.676</v>
+        <v>3050</v>
       </c>
       <c r="G22" t="n">
-        <v>97.99999999999996</v>
+        <v>98.16333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>97.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>97.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>97.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>97.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>1639</v>
+        <v>260.676</v>
       </c>
       <c r="G23" t="n">
-        <v>97.87999999999995</v>
+        <v>98.18333333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="C24" t="n">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="D24" t="n">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="E24" t="n">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="F24" t="n">
-        <v>2140.0772</v>
+        <v>1639</v>
       </c>
       <c r="G24" t="n">
-        <v>97.65999999999994</v>
+        <v>98.20833333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>98.3</v>
+        <v>97.2</v>
       </c>
       <c r="C25" t="n">
-        <v>98.3</v>
+        <v>97</v>
       </c>
       <c r="D25" t="n">
-        <v>98.3</v>
+        <v>97.2</v>
       </c>
       <c r="E25" t="n">
-        <v>98.3</v>
+        <v>97</v>
       </c>
       <c r="F25" t="n">
-        <v>541</v>
+        <v>2140.0772</v>
       </c>
       <c r="G25" t="n">
-        <v>97.83999999999995</v>
+        <v>98.22499999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>97.3</v>
+        <v>98.3</v>
       </c>
       <c r="C26" t="n">
-        <v>97.3</v>
+        <v>98.3</v>
       </c>
       <c r="D26" t="n">
-        <v>97.3</v>
+        <v>98.3</v>
       </c>
       <c r="E26" t="n">
-        <v>97.3</v>
+        <v>98.3</v>
       </c>
       <c r="F26" t="n">
-        <v>294.807</v>
+        <v>541</v>
       </c>
       <c r="G26" t="n">
-        <v>97.43999999999993</v>
+        <v>98.27500000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="C27" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D27" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="E27" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="F27" t="n">
-        <v>4028.672</v>
+        <v>294.807</v>
       </c>
       <c r="G27" t="n">
-        <v>97.45999999999992</v>
+        <v>98.295</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>97.2</v>
       </c>
       <c r="C28" t="n">
-        <v>96</v>
+        <v>97.2</v>
       </c>
       <c r="D28" t="n">
         <v>97.2</v>
       </c>
       <c r="E28" t="n">
-        <v>96</v>
+        <v>97.2</v>
       </c>
       <c r="F28" t="n">
-        <v>12566.4512</v>
+        <v>4028.672</v>
       </c>
       <c r="G28" t="n">
-        <v>97.15999999999993</v>
+        <v>98.31166666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>95.8</v>
+        <v>97.2</v>
       </c>
       <c r="C29" t="n">
-        <v>95.5</v>
+        <v>96</v>
       </c>
       <c r="D29" t="n">
-        <v>95.8</v>
+        <v>97.2</v>
       </c>
       <c r="E29" t="n">
-        <v>95.5</v>
+        <v>96</v>
       </c>
       <c r="F29" t="n">
-        <v>1312.0298</v>
+        <v>12566.4512</v>
       </c>
       <c r="G29" t="n">
-        <v>96.85999999999993</v>
+        <v>98.31166666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>95.5</v>
+        <v>95.8</v>
       </c>
       <c r="C30" t="n">
         <v>95.5</v>
       </c>
       <c r="D30" t="n">
-        <v>95.5</v>
+        <v>95.8</v>
       </c>
       <c r="E30" t="n">
         <v>95.5</v>
       </c>
       <c r="F30" t="n">
-        <v>4131.6634</v>
+        <v>1312.0298</v>
       </c>
       <c r="G30" t="n">
-        <v>96.29999999999993</v>
+        <v>98.30333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="C31" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="D31" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="E31" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="F31" t="n">
-        <v>4345.6932</v>
+        <v>4131.6634</v>
       </c>
       <c r="G31" t="n">
-        <v>95.89999999999992</v>
+        <v>98.295</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>95.3</v>
       </c>
       <c r="F32" t="n">
-        <v>2069.693</v>
+        <v>4345.6932</v>
       </c>
       <c r="G32" t="n">
-        <v>95.51999999999992</v>
+        <v>98.295</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="C33" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="D33" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="E33" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="F33" t="n">
-        <v>864.121</v>
+        <v>2069.693</v>
       </c>
       <c r="G33" t="n">
-        <v>95.31999999999994</v>
+        <v>98.27333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,35 +1553,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>97.8</v>
+        <v>95.2</v>
       </c>
       <c r="C34" t="n">
-        <v>97.8</v>
+        <v>95</v>
       </c>
       <c r="D34" t="n">
-        <v>97.8</v>
+        <v>95.2</v>
       </c>
       <c r="E34" t="n">
-        <v>97.8</v>
+        <v>95</v>
       </c>
       <c r="F34" t="n">
-        <v>1018.0643</v>
+        <v>864.121</v>
       </c>
       <c r="G34" t="n">
-        <v>95.77999999999993</v>
+        <v>98.21333333333332</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>95</v>
-      </c>
-      <c r="K34" t="n">
-        <v>95</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
@@ -1592,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>95</v>
+        <v>97.8</v>
       </c>
       <c r="C35" t="n">
-        <v>95.3</v>
+        <v>97.8</v>
       </c>
       <c r="D35" t="n">
-        <v>95.3</v>
+        <v>97.8</v>
       </c>
       <c r="E35" t="n">
-        <v>95</v>
+        <v>97.8</v>
       </c>
       <c r="F35" t="n">
-        <v>1061.6289</v>
+        <v>1018.0643</v>
       </c>
       <c r="G35" t="n">
-        <v>95.73999999999992</v>
+        <v>98.20333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1616,16 +1612,12 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>97.8</v>
+        <v>95</v>
       </c>
       <c r="K35" t="n">
         <v>95</v>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1635,22 +1627,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>95.7</v>
+        <v>95</v>
       </c>
       <c r="C36" t="n">
-        <v>95.7</v>
+        <v>95.3</v>
       </c>
       <c r="D36" t="n">
-        <v>95.7</v>
+        <v>95.3</v>
       </c>
       <c r="E36" t="n">
-        <v>95.7</v>
+        <v>95</v>
       </c>
       <c r="F36" t="n">
-        <v>475.768</v>
+        <v>1061.6289</v>
       </c>
       <c r="G36" t="n">
-        <v>95.81999999999992</v>
+        <v>98.16333333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1664,7 +1656,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M36" t="n">
@@ -1676,22 +1668,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>96.3</v>
+        <v>95.7</v>
       </c>
       <c r="C37" t="n">
-        <v>96.3</v>
+        <v>95.7</v>
       </c>
       <c r="D37" t="n">
-        <v>96.3</v>
+        <v>95.7</v>
       </c>
       <c r="E37" t="n">
-        <v>96.3</v>
+        <v>95.7</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>475.768</v>
       </c>
       <c r="G37" t="n">
-        <v>96.01999999999992</v>
+        <v>98.14833333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1717,22 +1709,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>97.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="C38" t="n">
-        <v>97.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="D38" t="n">
-        <v>97.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="E38" t="n">
-        <v>97.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="F38" t="n">
-        <v>4231.811</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>96.59999999999994</v>
+        <v>98.14333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,22 +1750,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>98.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>98.5</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>98.5</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>98.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>3000</v>
+        <v>4231.811</v>
       </c>
       <c r="G39" t="n">
-        <v>96.73999999999992</v>
+        <v>98.18333333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1799,7 +1791,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="C40" t="n">
         <v>98.5</v>
@@ -1808,13 +1800,13 @@
         <v>98.5</v>
       </c>
       <c r="E40" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="F40" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="G40" t="n">
-        <v>97.37999999999991</v>
+        <v>98.24666666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1852,10 +1844,10 @@
         <v>98.5</v>
       </c>
       <c r="F41" t="n">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="G41" t="n">
-        <v>97.93999999999993</v>
+        <v>98.285</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1881,22 +1873,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>98.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="C42" t="n">
-        <v>98.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="D42" t="n">
-        <v>98.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="E42" t="n">
-        <v>98.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="F42" t="n">
-        <v>54.3642</v>
+        <v>2900</v>
       </c>
       <c r="G42" t="n">
-        <v>98.29999999999993</v>
+        <v>98.32499999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1922,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>99</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>99.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>99.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>99</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>5695.3993</v>
+        <v>54.3642</v>
       </c>
       <c r="G43" t="n">
-        <v>98.61999999999992</v>
+        <v>98.34833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1963,22 +1955,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>99.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="C44" t="n">
         <v>99.5</v>
       </c>
       <c r="D44" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="E44" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="F44" t="n">
-        <v>1948.2769</v>
+        <v>5695.3993</v>
       </c>
       <c r="G44" t="n">
-        <v>98.81999999999991</v>
+        <v>98.395</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2004,22 +1996,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="D45" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="F45" t="n">
-        <v>1228</v>
+        <v>1948.2769</v>
       </c>
       <c r="G45" t="n">
-        <v>99.0799999999999</v>
+        <v>98.42333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2045,22 +2037,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C46" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D46" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="E46" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="F46" t="n">
-        <v>8500.320299999999</v>
+        <v>1228</v>
       </c>
       <c r="G46" t="n">
-        <v>99.3599999999999</v>
+        <v>98.44833333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2086,22 +2078,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>4577.05</v>
+        <v>8500.320299999999</v>
       </c>
       <c r="G47" t="n">
-        <v>99.7399999999999</v>
+        <v>98.45666666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2130,19 +2122,19 @@
         <v>100</v>
       </c>
       <c r="C48" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E48" t="n">
         <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>4577.05</v>
       </c>
       <c r="G48" t="n">
-        <v>100.0399999999999</v>
+        <v>98.46333333333332</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2171,19 +2163,19 @@
         <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D49" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E49" t="n">
         <v>100</v>
       </c>
       <c r="F49" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="n">
-        <v>100.1399999999999</v>
+        <v>98.48499999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2212,19 +2204,19 @@
         <v>100</v>
       </c>
       <c r="C50" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D50" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" t="n">
         <v>100</v>
       </c>
       <c r="F50" t="n">
-        <v>1008.6738</v>
+        <v>3000</v>
       </c>
       <c r="G50" t="n">
-        <v>100.3799999999999</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2253,19 +2245,19 @@
         <v>100</v>
       </c>
       <c r="C51" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D51" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E51" t="n">
         <v>100</v>
       </c>
       <c r="F51" t="n">
-        <v>10600</v>
+        <v>1008.6738</v>
       </c>
       <c r="G51" t="n">
-        <v>100.3999999999999</v>
+        <v>98.50666666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2303,10 +2295,10 @@
         <v>100</v>
       </c>
       <c r="F52" t="n">
-        <v>5000</v>
+        <v>10600</v>
       </c>
       <c r="G52" t="n">
-        <v>100.3999999999999</v>
+        <v>98.50999999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2332,22 +2324,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="C53" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D53" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="E53" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F53" t="n">
-        <v>8479.0695</v>
+        <v>5000</v>
       </c>
       <c r="G53" t="n">
-        <v>99.99999999999989</v>
+        <v>98.50999999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2373,22 +2365,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="C54" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D54" t="n">
-        <v>101</v>
+        <v>99.2</v>
       </c>
       <c r="E54" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F54" t="n">
-        <v>1692.7501</v>
+        <v>8479.0695</v>
       </c>
       <c r="G54" t="n">
-        <v>100.1999999999999</v>
+        <v>98.49499999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2414,7 +2406,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55" t="n">
         <v>101</v>
@@ -2423,13 +2415,13 @@
         <v>101</v>
       </c>
       <c r="E55" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F55" t="n">
-        <v>2200</v>
+        <v>1692.7501</v>
       </c>
       <c r="G55" t="n">
-        <v>100.1999999999999</v>
+        <v>98.51333333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2467,10 +2459,10 @@
         <v>101</v>
       </c>
       <c r="F56" t="n">
-        <v>4650</v>
+        <v>2200</v>
       </c>
       <c r="G56" t="n">
-        <v>100.3999999999999</v>
+        <v>98.53</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2508,10 +2500,10 @@
         <v>101</v>
       </c>
       <c r="F57" t="n">
-        <v>1027.1346</v>
+        <v>4650</v>
       </c>
       <c r="G57" t="n">
-        <v>100.5999999999999</v>
+        <v>98.54666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2549,10 +2541,10 @@
         <v>101</v>
       </c>
       <c r="F58" t="n">
-        <v>800</v>
+        <v>1027.1346</v>
       </c>
       <c r="G58" t="n">
-        <v>100.9999999999999</v>
+        <v>98.56500000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2581,19 +2573,19 @@
         <v>101</v>
       </c>
       <c r="C59" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D59" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E59" t="n">
         <v>101</v>
       </c>
       <c r="F59" t="n">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="G59" t="n">
-        <v>101.1999999999999</v>
+        <v>98.58500000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2622,7 +2614,7 @@
         <v>101</v>
       </c>
       <c r="C60" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D60" t="n">
         <v>102</v>
@@ -2631,10 +2623,10 @@
         <v>101</v>
       </c>
       <c r="F60" t="n">
-        <v>6355.9542</v>
+        <v>786</v>
       </c>
       <c r="G60" t="n">
-        <v>101.1999999999999</v>
+        <v>98.62000000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2660,22 +2652,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C61" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D61" t="n">
         <v>102</v>
       </c>
       <c r="E61" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F61" t="n">
-        <v>600</v>
+        <v>6355.9542</v>
       </c>
       <c r="G61" t="n">
-        <v>101.3999999999999</v>
+        <v>98.64000000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2713,10 +2705,10 @@
         <v>102</v>
       </c>
       <c r="F62" t="n">
-        <v>16350</v>
+        <v>600</v>
       </c>
       <c r="G62" t="n">
-        <v>101.5999999999999</v>
+        <v>98.67666666666668</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2754,10 +2746,10 @@
         <v>102</v>
       </c>
       <c r="F63" t="n">
-        <v>2278</v>
+        <v>16350</v>
       </c>
       <c r="G63" t="n">
-        <v>101.7999999999999</v>
+        <v>98.71333333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2786,25 +2778,25 @@
         <v>102</v>
       </c>
       <c r="C64" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D64" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E64" t="n">
         <v>102</v>
       </c>
       <c r="F64" t="n">
-        <v>41961.7025</v>
+        <v>2278</v>
       </c>
       <c r="G64" t="n">
-        <v>101.9999999999999</v>
+        <v>98.75</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
@@ -2812,11 +2804,11 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1.07921052631579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2827,19 +2819,19 @@
         <v>102</v>
       </c>
       <c r="C65" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D65" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E65" t="n">
         <v>102</v>
       </c>
       <c r="F65" t="n">
-        <v>21.945</v>
+        <v>41961.7025</v>
       </c>
       <c r="G65" t="n">
-        <v>102.1999999999999</v>
+        <v>98.80333333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2848,8 +2840,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>95</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2871,20 +2869,26 @@
         <v>102</v>
       </c>
       <c r="F66" t="n">
-        <v>8378.2983</v>
+        <v>21.945</v>
       </c>
       <c r="G66" t="n">
-        <v>102.1999999999999</v>
+        <v>98.83666666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>95</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2906,10 +2910,10 @@
         <v>102</v>
       </c>
       <c r="F67" t="n">
-        <v>1418.9557</v>
+        <v>8378.2983</v>
       </c>
       <c r="G67" t="n">
-        <v>102.1999999999999</v>
+        <v>98.88666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2918,8 +2922,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>95</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2932,19 +2942,19 @@
         <v>102</v>
       </c>
       <c r="C68" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D68" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E68" t="n">
         <v>102</v>
       </c>
       <c r="F68" t="n">
-        <v>1750</v>
+        <v>1418.9557</v>
       </c>
       <c r="G68" t="n">
-        <v>102.3999999999999</v>
+        <v>98.95166666666665</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2953,8 +2963,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>95</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2964,7 +2980,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69" t="n">
         <v>103</v>
@@ -2973,13 +2989,13 @@
         <v>103</v>
       </c>
       <c r="E69" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F69" t="n">
-        <v>4700</v>
+        <v>1750</v>
       </c>
       <c r="G69" t="n">
-        <v>102.3999999999999</v>
+        <v>98.98499999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2988,8 +3004,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>95</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3011,10 +3033,10 @@
         <v>103</v>
       </c>
       <c r="F70" t="n">
-        <v>18359.9999</v>
+        <v>4700</v>
       </c>
       <c r="G70" t="n">
-        <v>102.5999999999999</v>
+        <v>99.035</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3023,8 +3045,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>95</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3037,19 +3065,19 @@
         <v>103</v>
       </c>
       <c r="C71" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D71" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E71" t="n">
         <v>103</v>
       </c>
       <c r="F71" t="n">
-        <v>10547</v>
+        <v>18359.9999</v>
       </c>
       <c r="G71" t="n">
-        <v>102.9999999999999</v>
+        <v>99.09833333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3058,8 +3086,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>95</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3081,10 +3115,10 @@
         <v>103</v>
       </c>
       <c r="F72" t="n">
-        <v>28661.45835576923</v>
+        <v>10547</v>
       </c>
       <c r="G72" t="n">
-        <v>103.3999999999999</v>
+        <v>99.19666666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3093,8 +3127,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>95</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3104,7 +3144,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" t="n">
         <v>104</v>
@@ -3113,23 +3153,29 @@
         <v>104</v>
       </c>
       <c r="E73" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>28661.45835576923</v>
       </c>
       <c r="G73" t="n">
-        <v>103.5999999999999</v>
+        <v>99.29666666666665</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>95</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3151,20 +3197,26 @@
         <v>104</v>
       </c>
       <c r="F74" t="n">
-        <v>11156.2492</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>103.7999999999999</v>
+        <v>99.37999999999998</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>95</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3186,20 +3238,26 @@
         <v>104</v>
       </c>
       <c r="F75" t="n">
-        <v>2107.084244230769</v>
+        <v>11156.2492</v>
       </c>
       <c r="G75" t="n">
-        <v>103.9999999999999</v>
+        <v>99.47499999999998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>95</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3221,20 +3279,26 @@
         <v>104</v>
       </c>
       <c r="F76" t="n">
-        <v>3348.3612</v>
+        <v>2107.084244230769</v>
       </c>
       <c r="G76" t="n">
-        <v>103.9999999999999</v>
+        <v>99.57333333333331</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>95</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3256,22 +3320,28 @@
         <v>104</v>
       </c>
       <c r="F77" t="n">
-        <v>3660.763155769231</v>
+        <v>3348.3612</v>
       </c>
       <c r="G77" t="n">
-        <v>103.9999999999999</v>
+        <v>99.67166666666664</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>95</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>1.089736842105263</v>
       </c>
     </row>
     <row r="78">
@@ -3279,28 +3349,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C78" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D78" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E78" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>3660.763155769231</v>
       </c>
       <c r="G78" t="n">
-        <v>104.1999999999999</v>
+        <v>99.76999999999997</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3314,22 +3384,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C79" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D79" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E79" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F79" t="n">
-        <v>1201</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>104.1999999999999</v>
+        <v>99.88499999999996</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3361,16 +3431,16 @@
         <v>104</v>
       </c>
       <c r="F80" t="n">
-        <v>1473</v>
+        <v>1201</v>
       </c>
       <c r="G80" t="n">
-        <v>104.1999999999999</v>
+        <v>99.98333333333329</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3393,13 +3463,13 @@
         <v>104</v>
       </c>
       <c r="E81" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F81" t="n">
-        <v>5701.5679</v>
+        <v>1473</v>
       </c>
       <c r="G81" t="n">
-        <v>104.1999999999999</v>
+        <v>100.0933333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3431,10 +3501,10 @@
         <v>103</v>
       </c>
       <c r="F82" t="n">
-        <v>7186.76923076923</v>
+        <v>5701.5679</v>
       </c>
       <c r="G82" t="n">
-        <v>104.1999999999999</v>
+        <v>100.1716666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3454,22 +3524,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C83" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D83" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E83" t="n">
         <v>103</v>
       </c>
       <c r="F83" t="n">
-        <v>8350</v>
+        <v>7186.76923076923</v>
       </c>
       <c r="G83" t="n">
-        <v>103.7999999999999</v>
+        <v>100.2866666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3501,10 +3571,10 @@
         <v>103</v>
       </c>
       <c r="F84" t="n">
-        <v>8550.3078</v>
+        <v>8350</v>
       </c>
       <c r="G84" t="n">
-        <v>103.5999999999999</v>
+        <v>100.3783333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3524,22 +3594,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C85" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D85" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E85" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F85" t="n">
-        <v>10711</v>
+        <v>8550.3078</v>
       </c>
       <c r="G85" t="n">
-        <v>102.9999999999999</v>
+        <v>100.4783333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3559,22 +3629,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C86" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D86" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E86" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F86" t="n">
-        <v>10911.466</v>
+        <v>10711</v>
       </c>
       <c r="G86" t="n">
-        <v>102.1999999999999</v>
+        <v>100.5233333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3594,22 +3664,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C87" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D87" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E87" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F87" t="n">
-        <v>11487.5097</v>
+        <v>10911.466</v>
       </c>
       <c r="G87" t="n">
-        <v>101.5999999999999</v>
+        <v>100.5683333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3641,10 +3711,10 @@
         <v>101</v>
       </c>
       <c r="F88" t="n">
-        <v>7276</v>
+        <v>11487.5097</v>
       </c>
       <c r="G88" t="n">
-        <v>101.1999999999999</v>
+        <v>100.6316666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3676,10 +3746,10 @@
         <v>101</v>
       </c>
       <c r="F89" t="n">
-        <v>8913.7001</v>
+        <v>7276</v>
       </c>
       <c r="G89" t="n">
-        <v>100.7999999999999</v>
+        <v>100.7149999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3711,10 +3781,10 @@
         <v>101</v>
       </c>
       <c r="F90" t="n">
-        <v>964.9047</v>
+        <v>8913.7001</v>
       </c>
       <c r="G90" t="n">
-        <v>100.7999999999999</v>
+        <v>100.8066666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3746,10 +3816,10 @@
         <v>101</v>
       </c>
       <c r="F91" t="n">
-        <v>192.3077</v>
+        <v>964.9047</v>
       </c>
       <c r="G91" t="n">
-        <v>100.9999999999999</v>
+        <v>100.8983333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3781,10 +3851,10 @@
         <v>101</v>
       </c>
       <c r="F92" t="n">
-        <v>1000</v>
+        <v>192.3077</v>
       </c>
       <c r="G92" t="n">
-        <v>100.9999999999999</v>
+        <v>100.9933333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3816,10 +3886,10 @@
         <v>101</v>
       </c>
       <c r="F93" t="n">
-        <v>7201.6923</v>
+        <v>1000</v>
       </c>
       <c r="G93" t="n">
-        <v>100.9999999999999</v>
+        <v>101.0883333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3839,22 +3909,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C94" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D94" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E94" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F94" t="n">
-        <v>20553.9323</v>
+        <v>7201.6923</v>
       </c>
       <c r="G94" t="n">
-        <v>101.1999999999999</v>
+        <v>101.1883333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3877,19 +3947,19 @@
         <v>100</v>
       </c>
       <c r="C95" t="n">
-        <v>99.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="D95" t="n">
+        <v>102</v>
+      </c>
+      <c r="E95" t="n">
         <v>100</v>
       </c>
-      <c r="E95" t="n">
-        <v>99.09999999999999</v>
-      </c>
       <c r="F95" t="n">
-        <v>322</v>
+        <v>20553.9323</v>
       </c>
       <c r="G95" t="n">
-        <v>100.8199999999999</v>
+        <v>101.2583333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3909,22 +3979,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>100</v>
+      </c>
+      <c r="C96" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="C96" t="n">
-        <v>99</v>
-      </c>
       <c r="D96" t="n">
+        <v>100</v>
+      </c>
+      <c r="E96" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="E96" t="n">
-        <v>99</v>
-      </c>
       <c r="F96" t="n">
-        <v>5132.9819</v>
+        <v>322</v>
       </c>
       <c r="G96" t="n">
-        <v>100.4199999999999</v>
+        <v>101.3216666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3944,22 +4014,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C97" t="n">
         <v>99</v>
       </c>
       <c r="D97" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E97" t="n">
         <v>99</v>
       </c>
       <c r="F97" t="n">
-        <v>3000</v>
+        <v>5132.9819</v>
       </c>
       <c r="G97" t="n">
-        <v>100.0199999999999</v>
+        <v>101.3766666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3979,22 +4049,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="C98" t="n">
         <v>99</v>
       </c>
       <c r="D98" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="E98" t="n">
         <v>99</v>
       </c>
       <c r="F98" t="n">
-        <v>1140.4981</v>
+        <v>3000</v>
       </c>
       <c r="G98" t="n">
-        <v>99.61999999999989</v>
+        <v>101.4216666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4014,22 +4084,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D99" t="n">
-        <v>103</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F99" t="n">
-        <v>7528.215273786408</v>
+        <v>1140.4981</v>
       </c>
       <c r="G99" t="n">
-        <v>99.81999999999989</v>
+        <v>101.44</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4052,19 +4122,19 @@
         <v>101</v>
       </c>
       <c r="C100" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D100" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E100" t="n">
         <v>101</v>
       </c>
       <c r="F100" t="n">
-        <v>400.7287</v>
+        <v>7528.215273786408</v>
       </c>
       <c r="G100" t="n">
-        <v>100.1999999999999</v>
+        <v>101.5149999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4096,10 +4166,10 @@
         <v>101</v>
       </c>
       <c r="F101" t="n">
-        <v>108.2713</v>
+        <v>400.7287</v>
       </c>
       <c r="G101" t="n">
-        <v>100.5999999999999</v>
+        <v>101.5566666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4119,22 +4189,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C102" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D102" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E102" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F102" t="n">
-        <v>12060.2221</v>
+        <v>108.2713</v>
       </c>
       <c r="G102" t="n">
-        <v>100.7999999999999</v>
+        <v>101.5983333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4149,6 +4219,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>100</v>
+      </c>
+      <c r="C103" t="n">
+        <v>100</v>
+      </c>
+      <c r="D103" t="n">
+        <v>100</v>
+      </c>
+      <c r="E103" t="n">
+        <v>100</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12060.2221</v>
+      </c>
+      <c r="G103" t="n">
+        <v>101.6299999999999</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-26 BackTest ELF.xlsx
+++ b/BackTest/2019-10-26 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>10000</v>
       </c>
       <c r="G2" t="n">
+        <v>99.85333333333338</v>
+      </c>
+      <c r="H2" t="n">
         <v>96.95499999999997</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>10850</v>
       </c>
       <c r="G3" t="n">
+        <v>99.86666666666672</v>
+      </c>
+      <c r="H3" t="n">
         <v>96.99999999999997</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>2145.4408</v>
       </c>
       <c r="G4" t="n">
+        <v>99.87333333333338</v>
+      </c>
+      <c r="H4" t="n">
         <v>97.09833333333331</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1049.8249</v>
       </c>
       <c r="G5" t="n">
+        <v>99.88000000000004</v>
+      </c>
+      <c r="H5" t="n">
         <v>97.16666666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>24241.1278</v>
       </c>
       <c r="G6" t="n">
+        <v>99.88000000000004</v>
+      </c>
+      <c r="H6" t="n">
         <v>97.23833333333332</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>9142.77</v>
       </c>
       <c r="G7" t="n">
+        <v>99.8266666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>97.29499999999999</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>2057</v>
       </c>
       <c r="G8" t="n">
+        <v>99.70000000000003</v>
+      </c>
+      <c r="H8" t="n">
         <v>97.33666666666664</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>9435.2479</v>
       </c>
       <c r="G9" t="n">
+        <v>99.77333333333335</v>
+      </c>
+      <c r="H9" t="n">
         <v>97.40333333333332</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>601</v>
       </c>
       <c r="G10" t="n">
+        <v>99.78000000000002</v>
+      </c>
+      <c r="H10" t="n">
         <v>97.46166666666664</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>10584.4583</v>
       </c>
       <c r="G11" t="n">
+        <v>99.72666666666669</v>
+      </c>
+      <c r="H11" t="n">
         <v>97.52166666666663</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>750</v>
       </c>
       <c r="G12" t="n">
+        <v>99.60000000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>97.58666666666664</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>991.7303000000001</v>
       </c>
       <c r="G13" t="n">
+        <v>99.47333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>97.63499999999998</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1500</v>
       </c>
       <c r="G14" t="n">
+        <v>99.42000000000002</v>
+      </c>
+      <c r="H14" t="n">
         <v>97.69833333333331</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>56.3913</v>
       </c>
       <c r="G15" t="n">
+        <v>99.31333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>97.76166666666664</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>3661.9174</v>
       </c>
       <c r="G16" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="H16" t="n">
         <v>97.81999999999998</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>4602.639</v>
       </c>
       <c r="G17" t="n">
+        <v>99.08666666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>97.87833333333332</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>489.7294</v>
       </c>
       <c r="G18" t="n">
+        <v>98.97333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>97.93666666666665</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>3612.6388</v>
       </c>
       <c r="G19" t="n">
+        <v>98.85999999999999</v>
+      </c>
+      <c r="H19" t="n">
         <v>97.99499999999998</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2683.8675</v>
       </c>
       <c r="G20" t="n">
+        <v>98.74666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>98.05333333333331</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>2682.858</v>
       </c>
       <c r="G21" t="n">
+        <v>98.57333333333332</v>
+      </c>
+      <c r="H21" t="n">
         <v>98.09499999999998</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>3050</v>
       </c>
       <c r="G22" t="n">
+        <v>98.59333333333332</v>
+      </c>
+      <c r="H22" t="n">
         <v>98.16333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>260.676</v>
       </c>
       <c r="G23" t="n">
+        <v>98.52666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>98.18333333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1639</v>
       </c>
       <c r="G24" t="n">
+        <v>98.29333333333332</v>
+      </c>
+      <c r="H24" t="n">
         <v>98.20833333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>2140.0772</v>
       </c>
       <c r="G25" t="n">
+        <v>98.09333333333332</v>
+      </c>
+      <c r="H25" t="n">
         <v>98.22499999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>541</v>
       </c>
       <c r="G26" t="n">
+        <v>98.03333333333332</v>
+      </c>
+      <c r="H26" t="n">
         <v>98.27500000000001</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>294.807</v>
       </c>
       <c r="G27" t="n">
+        <v>97.97999999999999</v>
+      </c>
+      <c r="H27" t="n">
         <v>98.295</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>4028.672</v>
       </c>
       <c r="G28" t="n">
+        <v>97.92666666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>98.31166666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>12566.4512</v>
       </c>
       <c r="G29" t="n">
+        <v>97.72666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>98.31166666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>1312.0298</v>
       </c>
       <c r="G30" t="n">
+        <v>97.53999999999999</v>
+      </c>
+      <c r="H30" t="n">
         <v>98.30333333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>4131.6634</v>
       </c>
       <c r="G31" t="n">
+        <v>97.36666666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>98.295</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,25 @@
         <v>4345.6932</v>
       </c>
       <c r="G32" t="n">
+        <v>97.18000000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>98.295</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1635,29 @@
         <v>2069.693</v>
       </c>
       <c r="G33" t="n">
+        <v>96.99333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>98.27333333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1681,29 @@
         <v>864.121</v>
       </c>
       <c r="G34" t="n">
+        <v>96.78666666666668</v>
+      </c>
+      <c r="H34" t="n">
         <v>98.21333333333332</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,22 +1727,29 @@
         <v>1018.0643</v>
       </c>
       <c r="G35" t="n">
+        <v>96.76666666666668</v>
+      </c>
+      <c r="H35" t="n">
         <v>98.20333333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>95</v>
       </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1642,24 +1773,27 @@
         <v>1061.6289</v>
       </c>
       <c r="G36" t="n">
+        <v>96.62666666666668</v>
+      </c>
+      <c r="H36" t="n">
         <v>98.16333333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>95</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1683,24 +1817,27 @@
         <v>475.768</v>
       </c>
       <c r="G37" t="n">
+        <v>96.38666666666668</v>
+      </c>
+      <c r="H37" t="n">
         <v>98.14833333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>95</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,24 +1861,27 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
+        <v>96.33333333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>98.14333333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>95</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1765,24 +1905,27 @@
         <v>4231.811</v>
       </c>
       <c r="G39" t="n">
+        <v>96.36000000000003</v>
+      </c>
+      <c r="H39" t="n">
         <v>98.18333333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>95</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,24 +1949,27 @@
         <v>3000</v>
       </c>
       <c r="G40" t="n">
+        <v>96.46000000000002</v>
+      </c>
+      <c r="H40" t="n">
         <v>98.24666666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>95</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1847,24 +1993,27 @@
         <v>2100</v>
       </c>
       <c r="G41" t="n">
+        <v>96.47333333333336</v>
+      </c>
+      <c r="H41" t="n">
         <v>98.285</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>95</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1888,24 +2037,27 @@
         <v>2900</v>
       </c>
       <c r="G42" t="n">
+        <v>96.55333333333336</v>
+      </c>
+      <c r="H42" t="n">
         <v>98.32499999999999</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>95</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1929,24 +2081,27 @@
         <v>54.3642</v>
       </c>
       <c r="G43" t="n">
+        <v>96.61333333333336</v>
+      </c>
+      <c r="H43" t="n">
         <v>98.34833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>95</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1970,24 +2125,27 @@
         <v>5695.3993</v>
       </c>
       <c r="G44" t="n">
+        <v>96.84666666666668</v>
+      </c>
+      <c r="H44" t="n">
         <v>98.395</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>95</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2011,24 +2169,27 @@
         <v>1948.2769</v>
       </c>
       <c r="G45" t="n">
+        <v>97.11333333333336</v>
+      </c>
+      <c r="H45" t="n">
         <v>98.42333333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>95</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2052,24 +2213,27 @@
         <v>1228</v>
       </c>
       <c r="G46" t="n">
+        <v>97.40000000000002</v>
+      </c>
+      <c r="H46" t="n">
         <v>98.44833333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>95</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,24 +2257,27 @@
         <v>8500.320299999999</v>
       </c>
       <c r="G47" t="n">
+        <v>97.70666666666669</v>
+      </c>
+      <c r="H47" t="n">
         <v>98.45666666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>95</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2134,24 +2301,27 @@
         <v>4577.05</v>
       </c>
       <c r="G48" t="n">
+        <v>98.02000000000002</v>
+      </c>
+      <c r="H48" t="n">
         <v>98.46333333333332</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>95</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2175,24 +2345,27 @@
         <v>1500</v>
       </c>
       <c r="G49" t="n">
+        <v>98.42000000000003</v>
+      </c>
+      <c r="H49" t="n">
         <v>98.48499999999999</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>95</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,24 +2389,27 @@
         <v>3000</v>
       </c>
       <c r="G50" t="n">
+        <v>98.56666666666669</v>
+      </c>
+      <c r="H50" t="n">
         <v>98.48999999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>95</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2257,24 +2433,27 @@
         <v>1008.6738</v>
       </c>
       <c r="G51" t="n">
+        <v>98.9466666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>98.50666666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>95</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2298,24 +2477,27 @@
         <v>10600</v>
       </c>
       <c r="G52" t="n">
+        <v>99.23333333333336</v>
+      </c>
+      <c r="H52" t="n">
         <v>98.50999999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>95</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2339,24 +2521,27 @@
         <v>5000</v>
       </c>
       <c r="G53" t="n">
+        <v>99.48000000000003</v>
+      </c>
+      <c r="H53" t="n">
         <v>98.50999999999999</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>95</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2380,24 +2565,27 @@
         <v>8479.0695</v>
       </c>
       <c r="G54" t="n">
+        <v>99.55333333333336</v>
+      </c>
+      <c r="H54" t="n">
         <v>98.49499999999999</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>95</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2421,24 +2609,27 @@
         <v>1692.7501</v>
       </c>
       <c r="G55" t="n">
+        <v>99.72000000000003</v>
+      </c>
+      <c r="H55" t="n">
         <v>98.51333333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>95</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2462,24 +2653,27 @@
         <v>2200</v>
       </c>
       <c r="G56" t="n">
+        <v>99.8866666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>98.53</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>95</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2503,24 +2697,27 @@
         <v>4650</v>
       </c>
       <c r="G57" t="n">
+        <v>100.0533333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>98.54666666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>95</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2544,24 +2741,27 @@
         <v>1027.1346</v>
       </c>
       <c r="G58" t="n">
+        <v>100.2466666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>98.56500000000001</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>95</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2585,24 +2785,27 @@
         <v>800</v>
       </c>
       <c r="G59" t="n">
+        <v>100.3466666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>98.58500000000001</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>95</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2626,24 +2829,27 @@
         <v>786</v>
       </c>
       <c r="G60" t="n">
+        <v>100.5133333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>98.62000000000002</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>95</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2667,24 +2873,27 @@
         <v>6355.9542</v>
       </c>
       <c r="G61" t="n">
+        <v>100.5933333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>98.64000000000001</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>95</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2708,24 +2917,27 @@
         <v>600</v>
       </c>
       <c r="G62" t="n">
+        <v>100.7333333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>98.67666666666668</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>95</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2749,24 +2961,27 @@
         <v>16350</v>
       </c>
       <c r="G63" t="n">
+        <v>100.8666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>98.71333333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>95</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2790,24 +3005,27 @@
         <v>2278</v>
       </c>
       <c r="G64" t="n">
+        <v>100.9333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>98.75</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>95</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2831,24 +3049,27 @@
         <v>41961.7025</v>
       </c>
       <c r="G65" t="n">
+        <v>101.1333333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>98.80333333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>95</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2872,24 +3093,27 @@
         <v>21.945</v>
       </c>
       <c r="G66" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="H66" t="n">
         <v>98.83666666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>95</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2913,24 +3137,27 @@
         <v>8378.2983</v>
       </c>
       <c r="G67" t="n">
+        <v>101.3333333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>98.88666666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>95</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2954,24 +3181,27 @@
         <v>1418.9557</v>
       </c>
       <c r="G68" t="n">
+        <v>101.4666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>98.95166666666665</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>95</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2995,24 +3225,27 @@
         <v>1750</v>
       </c>
       <c r="G69" t="n">
+        <v>101.7333333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>98.98499999999999</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>95</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3036,24 +3269,27 @@
         <v>4700</v>
       </c>
       <c r="G70" t="n">
+        <v>101.8666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>99.035</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>95</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3077,24 +3313,27 @@
         <v>18359.9999</v>
       </c>
       <c r="G71" t="n">
+        <v>102</v>
+      </c>
+      <c r="H71" t="n">
         <v>99.09833333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>95</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3118,24 +3357,27 @@
         <v>10547</v>
       </c>
       <c r="G72" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="H72" t="n">
         <v>99.19666666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>95</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,25 +3401,28 @@
         <v>28661.45835576923</v>
       </c>
       <c r="G73" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="H73" t="n">
         <v>99.29666666666665</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>95</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>1.084005235602094</v>
       </c>
     </row>
     <row r="74">
@@ -3200,24 +3445,21 @@
         <v>10</v>
       </c>
       <c r="G74" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="H74" t="n">
         <v>99.37999999999998</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>95</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3241,24 +3483,21 @@
         <v>11156.2492</v>
       </c>
       <c r="G75" t="n">
+        <v>102.7333333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>99.47499999999998</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>95</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3282,24 +3521,21 @@
         <v>2107.084244230769</v>
       </c>
       <c r="G76" t="n">
+        <v>102.9333333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>99.57333333333331</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>95</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3323,25 +3559,22 @@
         <v>3348.3612</v>
       </c>
       <c r="G77" t="n">
+        <v>103.0666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>99.67166666666664</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>95</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1.089736842105263</v>
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3364,18 +3597,21 @@
         <v>3660.763155769231</v>
       </c>
       <c r="G78" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="H78" t="n">
         <v>99.76999999999997</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3399,18 +3635,21 @@
         <v>10</v>
       </c>
       <c r="G79" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="H79" t="n">
         <v>99.88499999999996</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,18 +3673,21 @@
         <v>1201</v>
       </c>
       <c r="G80" t="n">
+        <v>103.4666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>99.98333333333329</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3469,18 +3711,21 @@
         <v>1473</v>
       </c>
       <c r="G81" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="H81" t="n">
         <v>100.0933333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3504,18 +3749,21 @@
         <v>5701.5679</v>
       </c>
       <c r="G82" t="n">
+        <v>103.7333333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>100.1716666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3539,18 +3787,21 @@
         <v>7186.76923076923</v>
       </c>
       <c r="G83" t="n">
+        <v>103.8666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>100.2866666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3574,18 +3825,21 @@
         <v>8350</v>
       </c>
       <c r="G84" t="n">
+        <v>103.8666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>100.3783333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3609,18 +3863,21 @@
         <v>8550.3078</v>
       </c>
       <c r="G85" t="n">
+        <v>103.8666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>100.4783333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,18 +3901,21 @@
         <v>10711</v>
       </c>
       <c r="G86" t="n">
+        <v>103.7333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>100.5233333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3679,18 +3939,21 @@
         <v>10911.466</v>
       </c>
       <c r="G87" t="n">
+        <v>103.4666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>100.5683333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,18 +3977,21 @@
         <v>11487.5097</v>
       </c>
       <c r="G88" t="n">
+        <v>103.2666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>100.6316666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3749,18 +4015,21 @@
         <v>7276</v>
       </c>
       <c r="G89" t="n">
+        <v>103.0666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>100.7149999999999</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3784,18 +4053,21 @@
         <v>8913.7001</v>
       </c>
       <c r="G90" t="n">
+        <v>102.8666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>100.8066666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3819,18 +4091,21 @@
         <v>964.9047</v>
       </c>
       <c r="G91" t="n">
+        <v>102.6666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>100.8983333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,18 +4129,21 @@
         <v>192.3077</v>
       </c>
       <c r="G92" t="n">
+        <v>102.4666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>100.9933333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3889,18 +4167,21 @@
         <v>1000</v>
       </c>
       <c r="G93" t="n">
+        <v>102.2666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>101.0883333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3924,18 +4205,21 @@
         <v>7201.6923</v>
       </c>
       <c r="G94" t="n">
+        <v>102</v>
+      </c>
+      <c r="H94" t="n">
         <v>101.1883333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3959,18 +4243,21 @@
         <v>20553.9323</v>
       </c>
       <c r="G95" t="n">
+        <v>101.8666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>101.2583333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3994,18 +4281,21 @@
         <v>322</v>
       </c>
       <c r="G96" t="n">
+        <v>101.54</v>
+      </c>
+      <c r="H96" t="n">
         <v>101.3216666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4029,18 +4319,21 @@
         <v>5132.9819</v>
       </c>
       <c r="G97" t="n">
+        <v>101.2066666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>101.3766666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4064,18 +4357,21 @@
         <v>3000</v>
       </c>
       <c r="G98" t="n">
+        <v>100.8733333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>101.4216666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4099,18 +4395,21 @@
         <v>1140.4981</v>
       </c>
       <c r="G99" t="n">
+        <v>100.6066666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>101.44</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4134,18 +4433,21 @@
         <v>7528.215273786408</v>
       </c>
       <c r="G100" t="n">
+        <v>100.6066666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>101.5149999999999</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4169,18 +4471,21 @@
         <v>400.7287</v>
       </c>
       <c r="G101" t="n">
+        <v>100.6066666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>101.5566666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4204,18 +4509,21 @@
         <v>108.2713</v>
       </c>
       <c r="G102" t="n">
+        <v>100.6733333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>101.5983333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4239,18 +4547,401 @@
         <v>12060.2221</v>
       </c>
       <c r="G103" t="n">
+        <v>100.6066666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>101.6299999999999</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>100</v>
+      </c>
+      <c r="C104" t="n">
+        <v>100</v>
+      </c>
+      <c r="D104" t="n">
+        <v>100</v>
+      </c>
+      <c r="E104" t="n">
+        <v>100</v>
+      </c>
+      <c r="F104" t="n">
+        <v>608</v>
+      </c>
+      <c r="G104" t="n">
+        <v>100.54</v>
+      </c>
+      <c r="H104" t="n">
+        <v>101.6383333333333</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>100</v>
+      </c>
+      <c r="C105" t="n">
+        <v>99</v>
+      </c>
+      <c r="D105" t="n">
+        <v>100</v>
+      </c>
+      <c r="E105" t="n">
+        <v>99</v>
+      </c>
+      <c r="F105" t="n">
+        <v>8425.974899999999</v>
+      </c>
+      <c r="G105" t="n">
+        <v>100.4066666666667</v>
+      </c>
+      <c r="H105" t="n">
+        <v>101.6299999999999</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C106" t="n">
+        <v>99</v>
+      </c>
+      <c r="D106" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E106" t="n">
+        <v>99</v>
+      </c>
+      <c r="F106" t="n">
+        <v>750</v>
+      </c>
+      <c r="G106" t="n">
+        <v>100.2733333333334</v>
+      </c>
+      <c r="H106" t="n">
+        <v>101.6166666666666</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C107" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D107" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E107" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1995</v>
+      </c>
+      <c r="G107" t="n">
+        <v>100.1466666666667</v>
+      </c>
+      <c r="H107" t="n">
+        <v>101.6033333333333</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C108" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E108" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="F108" t="n">
+        <v>21643.5413</v>
+      </c>
+      <c r="G108" t="n">
+        <v>99.90000000000002</v>
+      </c>
+      <c r="H108" t="n">
+        <v>101.5583333333333</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="C109" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="D109" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="E109" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F109" t="n">
+        <v>12910.7505</v>
+      </c>
+      <c r="G109" t="n">
+        <v>99.57333333333334</v>
+      </c>
+      <c r="H109" t="n">
+        <v>101.4766666666666</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>96</v>
+      </c>
+      <c r="C110" t="n">
+        <v>96</v>
+      </c>
+      <c r="D110" t="n">
+        <v>96</v>
+      </c>
+      <c r="E110" t="n">
+        <v>96</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1894.642</v>
+      </c>
+      <c r="G110" t="n">
+        <v>99.17333333333335</v>
+      </c>
+      <c r="H110" t="n">
+        <v>101.41</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="E111" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>31353.7593</v>
+      </c>
+      <c r="G111" t="n">
+        <v>98.84666666666668</v>
+      </c>
+      <c r="H111" t="n">
+        <v>101.2966666666666</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="D112" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>19514.4583</v>
+      </c>
+      <c r="G112" t="n">
+        <v>98.62666666666669</v>
+      </c>
+      <c r="H112" t="n">
+        <v>101.225</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="C113" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="D113" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="E113" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1008</v>
+      </c>
+      <c r="G113" t="n">
+        <v>98.34666666666668</v>
+      </c>
+      <c r="H113" t="n">
+        <v>101.1383333333333</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest ELF.xlsx
+++ b/BackTest/2019-10-26 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99.8</v>
+        <v>96.7</v>
       </c>
       <c r="C2" t="n">
-        <v>99.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>99.8</v>
+        <v>96.8</v>
       </c>
       <c r="E2" t="n">
-        <v>99.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>12556.2809</v>
       </c>
       <c r="G2" t="n">
-        <v>99.85333333333338</v>
+        <v>109556.568</v>
       </c>
       <c r="H2" t="n">
-        <v>96.95499999999997</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99.8</v>
+        <v>97</v>
       </c>
       <c r="C3" t="n">
-        <v>99.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>99.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>99.8</v>
+        <v>97</v>
       </c>
       <c r="F3" t="n">
-        <v>10850</v>
+        <v>228</v>
       </c>
       <c r="G3" t="n">
-        <v>99.86666666666672</v>
+        <v>109784.568</v>
       </c>
       <c r="H3" t="n">
-        <v>96.99999999999997</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>99.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>99.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>99.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>2145.4408</v>
+        <v>1604.9725</v>
       </c>
       <c r="G4" t="n">
-        <v>99.87333333333338</v>
+        <v>108179.5955</v>
       </c>
       <c r="H4" t="n">
-        <v>97.09833333333331</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>99.8</v>
+        <v>97.7</v>
       </c>
       <c r="D5" t="n">
-        <v>99.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>99.8</v>
+        <v>97.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1049.8249</v>
+        <v>366.457</v>
       </c>
       <c r="G5" t="n">
-        <v>99.88000000000004</v>
+        <v>107813.1385</v>
       </c>
       <c r="H5" t="n">
-        <v>97.16666666666666</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="E6" t="n">
-        <v>99.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>24241.1278</v>
+        <v>1647.9947</v>
       </c>
       <c r="G6" t="n">
-        <v>99.88000000000004</v>
+        <v>106165.1438</v>
       </c>
       <c r="H6" t="n">
-        <v>97.23833333333332</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>99</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>9142.77</v>
+        <v>2033.9999</v>
       </c>
       <c r="G7" t="n">
-        <v>99.8266666666667</v>
+        <v>106165.1438</v>
       </c>
       <c r="H7" t="n">
-        <v>97.29499999999999</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>98.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="D8" t="n">
-        <v>99.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>95.5</v>
       </c>
       <c r="F8" t="n">
-        <v>2057</v>
+        <v>2259.0377</v>
       </c>
       <c r="G8" t="n">
-        <v>99.70000000000003</v>
+        <v>103906.1061</v>
       </c>
       <c r="H8" t="n">
-        <v>97.33666666666664</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="C9" t="n">
-        <v>101</v>
+        <v>94.7</v>
       </c>
       <c r="D9" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E9" t="n">
-        <v>99.90000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="F9" t="n">
-        <v>9435.2479</v>
+        <v>750</v>
       </c>
       <c r="G9" t="n">
-        <v>99.77333333333335</v>
+        <v>103156.1061</v>
       </c>
       <c r="H9" t="n">
-        <v>97.40333333333332</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>96.2</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>96.2</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>96.2</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>96.2</v>
       </c>
       <c r="F10" t="n">
-        <v>601</v>
+        <v>150</v>
       </c>
       <c r="G10" t="n">
-        <v>99.78000000000002</v>
+        <v>103306.1061</v>
       </c>
       <c r="H10" t="n">
-        <v>97.46166666666664</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>99.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>99.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>98.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>10584.4583</v>
+        <v>955</v>
       </c>
       <c r="G11" t="n">
-        <v>99.72666666666669</v>
+        <v>102351.1061</v>
       </c>
       <c r="H11" t="n">
-        <v>97.52166666666663</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98.2</v>
+        <v>96.7</v>
       </c>
       <c r="C12" t="n">
-        <v>98.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="D12" t="n">
-        <v>98.2</v>
+        <v>96.7</v>
       </c>
       <c r="E12" t="n">
-        <v>98.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="F12" t="n">
-        <v>750</v>
+        <v>564.0952</v>
       </c>
       <c r="G12" t="n">
-        <v>99.60000000000001</v>
+        <v>102915.2013</v>
       </c>
       <c r="H12" t="n">
-        <v>97.58666666666664</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98</v>
+        <v>96.7</v>
       </c>
       <c r="C13" t="n">
-        <v>98</v>
+        <v>96.7</v>
       </c>
       <c r="D13" t="n">
-        <v>98</v>
+        <v>96.7</v>
       </c>
       <c r="E13" t="n">
-        <v>98</v>
+        <v>96.7</v>
       </c>
       <c r="F13" t="n">
-        <v>991.7303000000001</v>
+        <v>522.7718</v>
       </c>
       <c r="G13" t="n">
-        <v>99.47333333333334</v>
+        <v>102915.2013</v>
       </c>
       <c r="H13" t="n">
-        <v>97.63499999999998</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99</v>
+        <v>97.7</v>
       </c>
       <c r="C14" t="n">
-        <v>99</v>
+        <v>97.8</v>
       </c>
       <c r="D14" t="n">
-        <v>99</v>
+        <v>97.8</v>
       </c>
       <c r="E14" t="n">
-        <v>99</v>
+        <v>97.7</v>
       </c>
       <c r="F14" t="n">
-        <v>1500</v>
+        <v>9385.9193</v>
       </c>
       <c r="G14" t="n">
-        <v>99.42000000000002</v>
+        <v>112301.1206</v>
       </c>
       <c r="H14" t="n">
-        <v>97.69833333333331</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -944,24 +900,21 @@
         <v>98.3</v>
       </c>
       <c r="F15" t="n">
-        <v>56.3913</v>
+        <v>1200</v>
       </c>
       <c r="G15" t="n">
-        <v>99.31333333333333</v>
+        <v>113501.1206</v>
       </c>
       <c r="H15" t="n">
-        <v>97.76166666666664</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>98.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>98.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>98.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>98.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>3661.9174</v>
+        <v>44</v>
       </c>
       <c r="G16" t="n">
-        <v>99.2</v>
+        <v>113545.1206</v>
       </c>
       <c r="H16" t="n">
-        <v>97.81999999999998</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>98.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>98.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>4602.639</v>
+        <v>3669.6398</v>
       </c>
       <c r="G17" t="n">
-        <v>99.08666666666666</v>
+        <v>117214.7604</v>
       </c>
       <c r="H17" t="n">
-        <v>97.87833333333332</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="C18" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="D18" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="E18" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="F18" t="n">
-        <v>489.7294</v>
+        <v>23026.8717</v>
       </c>
       <c r="G18" t="n">
-        <v>98.97333333333333</v>
+        <v>140241.6321</v>
       </c>
       <c r="H18" t="n">
-        <v>97.93666666666665</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98</v>
+        <v>99.7</v>
       </c>
       <c r="C19" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="D19" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="E19" t="n">
-        <v>98</v>
+        <v>99.7</v>
       </c>
       <c r="F19" t="n">
-        <v>3612.6388</v>
+        <v>72297.3826</v>
       </c>
       <c r="G19" t="n">
-        <v>98.85999999999999</v>
+        <v>140241.6321</v>
       </c>
       <c r="H19" t="n">
-        <v>97.99499999999998</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="C20" t="n">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="F20" t="n">
-        <v>2683.8675</v>
+        <v>58708.2353</v>
       </c>
       <c r="G20" t="n">
-        <v>98.74666666666666</v>
+        <v>198949.8674</v>
       </c>
       <c r="H20" t="n">
-        <v>98.05333333333331</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>97.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D21" t="n">
-        <v>98.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>97.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="F21" t="n">
-        <v>2682.858</v>
+        <v>79302.9371</v>
       </c>
       <c r="G21" t="n">
-        <v>98.57333333333332</v>
+        <v>119646.9303</v>
       </c>
       <c r="H21" t="n">
-        <v>98.09499999999998</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>98.7</v>
+        <v>99.8</v>
       </c>
       <c r="C22" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="E22" t="n">
-        <v>98.7</v>
+        <v>99.8</v>
       </c>
       <c r="F22" t="n">
-        <v>3050</v>
+        <v>12658.6015</v>
       </c>
       <c r="G22" t="n">
-        <v>98.59333333333332</v>
+        <v>132305.5318</v>
       </c>
       <c r="H22" t="n">
-        <v>98.16333333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>97.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>97.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>97.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="E23" t="n">
-        <v>97.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>260.676</v>
+        <v>13086.9966</v>
       </c>
       <c r="G23" t="n">
-        <v>98.52666666666666</v>
+        <v>119218.5352</v>
       </c>
       <c r="H23" t="n">
-        <v>98.18333333333334</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>97.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>97.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>97.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>1639</v>
+        <v>2083.1828</v>
       </c>
       <c r="G24" t="n">
-        <v>98.29333333333332</v>
+        <v>119218.5352</v>
       </c>
       <c r="H24" t="n">
-        <v>98.20833333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>97.2</v>
+        <v>99</v>
       </c>
       <c r="C25" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="E25" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F25" t="n">
-        <v>2140.0772</v>
+        <v>60</v>
       </c>
       <c r="G25" t="n">
-        <v>98.09333333333332</v>
+        <v>119278.5352</v>
       </c>
       <c r="H25" t="n">
-        <v>98.22499999999999</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="C26" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>541</v>
+        <v>1057</v>
       </c>
       <c r="G26" t="n">
-        <v>98.03333333333332</v>
+        <v>119278.5352</v>
       </c>
       <c r="H26" t="n">
-        <v>98.27500000000001</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>97.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>97.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>97.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>97.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>294.807</v>
+        <v>2310</v>
       </c>
       <c r="G27" t="n">
-        <v>97.97999999999999</v>
+        <v>116968.5352</v>
       </c>
       <c r="H27" t="n">
-        <v>98.295</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>97.2</v>
+        <v>99.8</v>
       </c>
       <c r="C28" t="n">
-        <v>97.2</v>
+        <v>99.8</v>
       </c>
       <c r="D28" t="n">
-        <v>97.2</v>
+        <v>99.8</v>
       </c>
       <c r="E28" t="n">
-        <v>97.2</v>
+        <v>99.8</v>
       </c>
       <c r="F28" t="n">
-        <v>4028.672</v>
+        <v>23287</v>
       </c>
       <c r="G28" t="n">
-        <v>97.92666666666666</v>
+        <v>93681.53519999997</v>
       </c>
       <c r="H28" t="n">
-        <v>98.31166666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>97.2</v>
+        <v>99.8</v>
       </c>
       <c r="C29" t="n">
-        <v>96</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>97.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>96</v>
+        <v>99.8</v>
       </c>
       <c r="F29" t="n">
-        <v>12566.4512</v>
+        <v>10243.3958</v>
       </c>
       <c r="G29" t="n">
-        <v>97.72666666666666</v>
+        <v>103924.931</v>
       </c>
       <c r="H29" t="n">
-        <v>98.31166666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>95.8</v>
+        <v>99.8</v>
       </c>
       <c r="C30" t="n">
-        <v>95.5</v>
+        <v>99.8</v>
       </c>
       <c r="D30" t="n">
-        <v>95.8</v>
+        <v>99.8</v>
       </c>
       <c r="E30" t="n">
-        <v>95.5</v>
+        <v>99.8</v>
       </c>
       <c r="F30" t="n">
-        <v>1312.0298</v>
+        <v>17950</v>
       </c>
       <c r="G30" t="n">
-        <v>97.53999999999999</v>
+        <v>85974.93099999997</v>
       </c>
       <c r="H30" t="n">
-        <v>98.30333333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>95.5</v>
+        <v>99.8</v>
       </c>
       <c r="C31" t="n">
-        <v>95.5</v>
+        <v>99.8</v>
       </c>
       <c r="D31" t="n">
-        <v>95.5</v>
+        <v>99.8</v>
       </c>
       <c r="E31" t="n">
-        <v>95.5</v>
+        <v>99.8</v>
       </c>
       <c r="F31" t="n">
-        <v>4131.6634</v>
+        <v>10000</v>
       </c>
       <c r="G31" t="n">
-        <v>97.36666666666666</v>
+        <v>85974.93099999997</v>
       </c>
       <c r="H31" t="n">
-        <v>98.295</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,40 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="C32" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="D32" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="E32" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="F32" t="n">
-        <v>4345.6932</v>
+        <v>10850</v>
       </c>
       <c r="G32" t="n">
-        <v>97.18000000000001</v>
+        <v>85974.93099999997</v>
       </c>
       <c r="H32" t="n">
-        <v>98.295</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1620,44 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="C33" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="D33" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="E33" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="F33" t="n">
-        <v>2069.693</v>
+        <v>2145.4408</v>
       </c>
       <c r="G33" t="n">
-        <v>96.99333333333334</v>
+        <v>85974.93099999997</v>
       </c>
       <c r="H33" t="n">
-        <v>98.27333333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="L33" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1666,44 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>95.2</v>
+        <v>99.8</v>
       </c>
       <c r="C34" t="n">
-        <v>95</v>
+        <v>99.8</v>
       </c>
       <c r="D34" t="n">
-        <v>95.2</v>
+        <v>99.8</v>
       </c>
       <c r="E34" t="n">
-        <v>95</v>
+        <v>99.8</v>
       </c>
       <c r="F34" t="n">
-        <v>864.121</v>
+        <v>1049.8249</v>
       </c>
       <c r="G34" t="n">
-        <v>96.78666666666668</v>
+        <v>85974.93099999997</v>
       </c>
       <c r="H34" t="n">
-        <v>98.21333333333332</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="L34" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1712,44 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>97.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>97.8</v>
+        <v>100</v>
       </c>
       <c r="D35" t="n">
-        <v>97.8</v>
+        <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>97.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>1018.0643</v>
+        <v>24241.1278</v>
       </c>
       <c r="G35" t="n">
-        <v>96.76666666666668</v>
+        <v>110216.0588</v>
       </c>
       <c r="H35" t="n">
-        <v>98.20333333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>95</v>
-      </c>
-      <c r="L35" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1758,42 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C36" t="n">
-        <v>95.3</v>
+        <v>99</v>
       </c>
       <c r="D36" t="n">
-        <v>95.3</v>
+        <v>100</v>
       </c>
       <c r="E36" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F36" t="n">
-        <v>1061.6289</v>
+        <v>9142.77</v>
       </c>
       <c r="G36" t="n">
-        <v>96.62666666666668</v>
+        <v>101073.2888</v>
       </c>
       <c r="H36" t="n">
-        <v>98.16333333333334</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1802,42 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>95.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>95.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>95.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>95.7</v>
+        <v>98</v>
       </c>
       <c r="F37" t="n">
-        <v>475.768</v>
+        <v>2057</v>
       </c>
       <c r="G37" t="n">
-        <v>96.38666666666668</v>
+        <v>99016.28879999997</v>
       </c>
       <c r="H37" t="n">
-        <v>98.14833333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1846,42 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>96.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>96.3</v>
+        <v>101</v>
       </c>
       <c r="D38" t="n">
-        <v>96.3</v>
+        <v>101</v>
       </c>
       <c r="E38" t="n">
-        <v>96.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>9435.2479</v>
       </c>
       <c r="G38" t="n">
-        <v>96.33333333333334</v>
+        <v>108451.5367</v>
       </c>
       <c r="H38" t="n">
-        <v>98.14333333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1890,42 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>97.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C39" t="n">
-        <v>97.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D39" t="n">
-        <v>97.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E39" t="n">
-        <v>97.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F39" t="n">
-        <v>4231.811</v>
+        <v>601</v>
       </c>
       <c r="G39" t="n">
-        <v>96.36000000000003</v>
+        <v>107850.5367</v>
       </c>
       <c r="H39" t="n">
-        <v>98.18333333333332</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,42 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>98.2</v>
+        <v>99.2</v>
       </c>
       <c r="C40" t="n">
-        <v>98.5</v>
+        <v>99.2</v>
       </c>
       <c r="D40" t="n">
-        <v>98.5</v>
+        <v>99.2</v>
       </c>
       <c r="E40" t="n">
         <v>98.2</v>
       </c>
       <c r="F40" t="n">
-        <v>3000</v>
+        <v>10584.4583</v>
       </c>
       <c r="G40" t="n">
-        <v>96.46000000000002</v>
+        <v>97266.07839999997</v>
       </c>
       <c r="H40" t="n">
-        <v>98.24666666666666</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,42 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="C41" t="n">
-        <v>98.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="E41" t="n">
-        <v>98.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>2100</v>
+        <v>750</v>
       </c>
       <c r="G41" t="n">
-        <v>96.47333333333336</v>
+        <v>96516.07839999997</v>
       </c>
       <c r="H41" t="n">
-        <v>98.285</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2022,42 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="C42" t="n">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="D42" t="n">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="E42" t="n">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="F42" t="n">
-        <v>2900</v>
+        <v>991.7303000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>96.55333333333336</v>
+        <v>95524.34809999997</v>
       </c>
       <c r="H42" t="n">
-        <v>98.32499999999999</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2066,42 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>98.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="C43" t="n">
-        <v>98.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="D43" t="n">
-        <v>98.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="E43" t="n">
-        <v>98.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="F43" t="n">
-        <v>54.3642</v>
+        <v>1500</v>
       </c>
       <c r="G43" t="n">
-        <v>96.61333333333336</v>
+        <v>97024.34809999997</v>
       </c>
       <c r="H43" t="n">
-        <v>98.34833333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,42 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>99</v>
+        <v>98.3</v>
       </c>
       <c r="C44" t="n">
-        <v>99.5</v>
+        <v>98.3</v>
       </c>
       <c r="D44" t="n">
-        <v>99.5</v>
+        <v>98.3</v>
       </c>
       <c r="E44" t="n">
-        <v>99</v>
+        <v>98.3</v>
       </c>
       <c r="F44" t="n">
-        <v>5695.3993</v>
+        <v>56.3913</v>
       </c>
       <c r="G44" t="n">
-        <v>96.84666666666668</v>
+        <v>96967.95679999997</v>
       </c>
       <c r="H44" t="n">
-        <v>98.395</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2154,42 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>99.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>99.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>1948.2769</v>
+        <v>3661.9174</v>
       </c>
       <c r="G45" t="n">
-        <v>97.11333333333336</v>
+        <v>93306.03939999997</v>
       </c>
       <c r="H45" t="n">
-        <v>98.42333333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,42 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>99.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>99.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>99.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>99.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>1228</v>
+        <v>4602.639</v>
       </c>
       <c r="G46" t="n">
-        <v>97.40000000000002</v>
+        <v>93306.03939999997</v>
       </c>
       <c r="H46" t="n">
-        <v>98.44833333333332</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2242,42 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>99.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>99.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>99.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>99.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>8500.320299999999</v>
+        <v>489.7294</v>
       </c>
       <c r="G47" t="n">
-        <v>97.70666666666669</v>
+        <v>93306.03939999997</v>
       </c>
       <c r="H47" t="n">
-        <v>98.45666666666666</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,42 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F48" t="n">
-        <v>4577.05</v>
+        <v>3612.6388</v>
       </c>
       <c r="G48" t="n">
-        <v>98.02000000000002</v>
+        <v>93306.03939999997</v>
       </c>
       <c r="H48" t="n">
-        <v>98.46333333333332</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2330,42 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>101</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>101</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>2683.8675</v>
       </c>
       <c r="G49" t="n">
-        <v>98.42000000000003</v>
+        <v>93306.03939999997</v>
       </c>
       <c r="H49" t="n">
-        <v>98.48499999999999</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2374,42 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>100</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>100</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>3000</v>
+        <v>2682.858</v>
       </c>
       <c r="G50" t="n">
-        <v>98.56666666666669</v>
+        <v>90623.18139999997</v>
       </c>
       <c r="H50" t="n">
-        <v>98.48999999999999</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2418,42 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="C51" t="n">
-        <v>101</v>
+        <v>99.3</v>
       </c>
       <c r="D51" t="n">
-        <v>101</v>
+        <v>99.3</v>
       </c>
       <c r="E51" t="n">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="F51" t="n">
-        <v>1008.6738</v>
+        <v>3050</v>
       </c>
       <c r="G51" t="n">
-        <v>98.9466666666667</v>
+        <v>93673.18139999997</v>
       </c>
       <c r="H51" t="n">
-        <v>98.50666666666666</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2462,42 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>100</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>100</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>100</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>100</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>10600</v>
+        <v>260.676</v>
       </c>
       <c r="G52" t="n">
-        <v>99.23333333333336</v>
+        <v>93412.50539999997</v>
       </c>
       <c r="H52" t="n">
-        <v>98.50999999999999</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,42 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="C53" t="n">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="D53" t="n">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="E53" t="n">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="F53" t="n">
-        <v>5000</v>
+        <v>1639</v>
       </c>
       <c r="G53" t="n">
-        <v>99.48000000000003</v>
+        <v>95051.50539999997</v>
       </c>
       <c r="H53" t="n">
-        <v>98.50999999999999</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2550,42 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>99.2</v>
+        <v>97.2</v>
       </c>
       <c r="C54" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D54" t="n">
-        <v>99.2</v>
+        <v>97.2</v>
       </c>
       <c r="E54" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F54" t="n">
-        <v>8479.0695</v>
+        <v>2140.0772</v>
       </c>
       <c r="G54" t="n">
-        <v>99.55333333333336</v>
+        <v>92911.42819999997</v>
       </c>
       <c r="H54" t="n">
-        <v>98.49499999999999</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2594,42 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="C55" t="n">
-        <v>101</v>
+        <v>98.3</v>
       </c>
       <c r="D55" t="n">
-        <v>101</v>
+        <v>98.3</v>
       </c>
       <c r="E55" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="F55" t="n">
-        <v>1692.7501</v>
+        <v>541</v>
       </c>
       <c r="G55" t="n">
-        <v>99.72000000000003</v>
+        <v>93452.42819999997</v>
       </c>
       <c r="H55" t="n">
-        <v>98.51333333333334</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,42 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>101</v>
+        <v>97.3</v>
       </c>
       <c r="C56" t="n">
-        <v>101</v>
+        <v>97.3</v>
       </c>
       <c r="D56" t="n">
-        <v>101</v>
+        <v>97.3</v>
       </c>
       <c r="E56" t="n">
-        <v>101</v>
+        <v>97.3</v>
       </c>
       <c r="F56" t="n">
-        <v>2200</v>
+        <v>294.807</v>
       </c>
       <c r="G56" t="n">
-        <v>99.8866666666667</v>
+        <v>93157.62119999997</v>
       </c>
       <c r="H56" t="n">
-        <v>98.53</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2682,42 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="C57" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="D57" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="E57" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="F57" t="n">
-        <v>4650</v>
+        <v>4028.672</v>
       </c>
       <c r="G57" t="n">
-        <v>100.0533333333334</v>
+        <v>89128.94919999996</v>
       </c>
       <c r="H57" t="n">
-        <v>98.54666666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2726,42 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="C58" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D58" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="E58" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F58" t="n">
-        <v>1027.1346</v>
+        <v>12566.4512</v>
       </c>
       <c r="G58" t="n">
-        <v>100.2466666666667</v>
+        <v>76562.49799999996</v>
       </c>
       <c r="H58" t="n">
-        <v>98.56500000000001</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2770,42 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>101</v>
+        <v>95.8</v>
       </c>
       <c r="C59" t="n">
-        <v>101</v>
+        <v>95.5</v>
       </c>
       <c r="D59" t="n">
-        <v>101</v>
+        <v>95.8</v>
       </c>
       <c r="E59" t="n">
-        <v>101</v>
+        <v>95.5</v>
       </c>
       <c r="F59" t="n">
-        <v>800</v>
+        <v>1312.0298</v>
       </c>
       <c r="G59" t="n">
-        <v>100.3466666666667</v>
+        <v>75250.46819999996</v>
       </c>
       <c r="H59" t="n">
-        <v>98.58500000000001</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2814,42 +2463,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>101</v>
+        <v>95.5</v>
       </c>
       <c r="C60" t="n">
-        <v>102</v>
+        <v>95.5</v>
       </c>
       <c r="D60" t="n">
-        <v>102</v>
+        <v>95.5</v>
       </c>
       <c r="E60" t="n">
-        <v>101</v>
+        <v>95.5</v>
       </c>
       <c r="F60" t="n">
-        <v>786</v>
+        <v>4131.6634</v>
       </c>
       <c r="G60" t="n">
-        <v>100.5133333333334</v>
+        <v>75250.46819999996</v>
       </c>
       <c r="H60" t="n">
-        <v>98.62000000000002</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
         <v>95.5</v>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="K60" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2858,42 +2502,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>101</v>
+        <v>95.3</v>
       </c>
       <c r="C61" t="n">
-        <v>101</v>
+        <v>95.3</v>
       </c>
       <c r="D61" t="n">
-        <v>102</v>
+        <v>95.3</v>
       </c>
       <c r="E61" t="n">
-        <v>101</v>
+        <v>95.3</v>
       </c>
       <c r="F61" t="n">
-        <v>6355.9542</v>
+        <v>4345.6932</v>
       </c>
       <c r="G61" t="n">
-        <v>100.5933333333334</v>
+        <v>70904.77499999997</v>
       </c>
       <c r="H61" t="n">
-        <v>98.64000000000001</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
         <v>95.5</v>
       </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="K61" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2902,42 +2545,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>102</v>
+        <v>95.3</v>
       </c>
       <c r="C62" t="n">
-        <v>102</v>
+        <v>95.3</v>
       </c>
       <c r="D62" t="n">
-        <v>102</v>
+        <v>95.3</v>
       </c>
       <c r="E62" t="n">
-        <v>102</v>
+        <v>95.3</v>
       </c>
       <c r="F62" t="n">
-        <v>600</v>
+        <v>2069.693</v>
       </c>
       <c r="G62" t="n">
-        <v>100.7333333333334</v>
+        <v>70904.77499999997</v>
       </c>
       <c r="H62" t="n">
-        <v>98.67666666666668</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="K62" t="n">
         <v>95.5</v>
       </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,42 +2588,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>102</v>
+        <v>95.2</v>
       </c>
       <c r="C63" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D63" t="n">
-        <v>102</v>
+        <v>95.2</v>
       </c>
       <c r="E63" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F63" t="n">
-        <v>16350</v>
+        <v>864.121</v>
       </c>
       <c r="G63" t="n">
-        <v>100.8666666666667</v>
+        <v>70040.65399999997</v>
       </c>
       <c r="H63" t="n">
-        <v>98.71333333333334</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="K63" t="n">
         <v>95.5</v>
       </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2990,42 +2631,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>102</v>
+        <v>97.8</v>
       </c>
       <c r="C64" t="n">
-        <v>102</v>
+        <v>97.8</v>
       </c>
       <c r="D64" t="n">
-        <v>102</v>
+        <v>97.8</v>
       </c>
       <c r="E64" t="n">
-        <v>102</v>
+        <v>97.8</v>
       </c>
       <c r="F64" t="n">
-        <v>2278</v>
+        <v>1018.0643</v>
       </c>
       <c r="G64" t="n">
-        <v>100.9333333333334</v>
+        <v>71058.71829999996</v>
       </c>
       <c r="H64" t="n">
-        <v>98.75</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
+        <v>95</v>
+      </c>
+      <c r="K64" t="n">
         <v>95.5</v>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3034,42 +2674,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C65" t="n">
-        <v>103</v>
+        <v>95.3</v>
       </c>
       <c r="D65" t="n">
-        <v>103</v>
+        <v>95.3</v>
       </c>
       <c r="E65" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F65" t="n">
-        <v>41961.7025</v>
+        <v>1061.6289</v>
       </c>
       <c r="G65" t="n">
-        <v>101.1333333333334</v>
+        <v>69997.08939999997</v>
       </c>
       <c r="H65" t="n">
-        <v>98.80333333333333</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
         <v>95.5</v>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3078,42 +2715,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>102</v>
+        <v>95.7</v>
       </c>
       <c r="C66" t="n">
-        <v>102</v>
+        <v>95.7</v>
       </c>
       <c r="D66" t="n">
-        <v>102</v>
+        <v>95.7</v>
       </c>
       <c r="E66" t="n">
-        <v>102</v>
+        <v>95.7</v>
       </c>
       <c r="F66" t="n">
-        <v>21.945</v>
+        <v>475.768</v>
       </c>
       <c r="G66" t="n">
-        <v>101.2</v>
+        <v>70472.85739999996</v>
       </c>
       <c r="H66" t="n">
-        <v>98.83666666666666</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
         <v>95.5</v>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3122,42 +2756,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>102</v>
+        <v>96.3</v>
       </c>
       <c r="C67" t="n">
-        <v>102</v>
+        <v>96.3</v>
       </c>
       <c r="D67" t="n">
-        <v>102</v>
+        <v>96.3</v>
       </c>
       <c r="E67" t="n">
-        <v>102</v>
+        <v>96.3</v>
       </c>
       <c r="F67" t="n">
-        <v>8378.2983</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>101.3333333333334</v>
+        <v>70482.85739999996</v>
       </c>
       <c r="H67" t="n">
-        <v>98.88666666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
         <v>95.5</v>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3166,42 +2797,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>102</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>102</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>102</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>102</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>1418.9557</v>
+        <v>4231.811</v>
       </c>
       <c r="G68" t="n">
-        <v>101.4666666666667</v>
+        <v>74714.66839999997</v>
       </c>
       <c r="H68" t="n">
-        <v>98.95166666666665</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
         <v>95.5</v>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3210,42 +2838,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>102</v>
+        <v>98.2</v>
       </c>
       <c r="C69" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="D69" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="E69" t="n">
-        <v>102</v>
+        <v>98.2</v>
       </c>
       <c r="F69" t="n">
-        <v>1750</v>
+        <v>3000</v>
       </c>
       <c r="G69" t="n">
-        <v>101.7333333333334</v>
+        <v>77714.66839999997</v>
       </c>
       <c r="H69" t="n">
-        <v>98.98499999999999</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
         <v>95.5</v>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3254,42 +2879,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="C70" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="D70" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="E70" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="F70" t="n">
-        <v>4700</v>
+        <v>2100</v>
       </c>
       <c r="G70" t="n">
-        <v>101.8666666666667</v>
+        <v>77714.66839999997</v>
       </c>
       <c r="H70" t="n">
-        <v>99.035</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
         <v>95.5</v>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3298,42 +2920,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="C71" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="D71" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="E71" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="F71" t="n">
-        <v>18359.9999</v>
+        <v>2900</v>
       </c>
       <c r="G71" t="n">
-        <v>102</v>
+        <v>77714.66839999997</v>
       </c>
       <c r="H71" t="n">
-        <v>99.09833333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
         <v>95.5</v>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3342,42 +2961,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>103</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>104</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>104</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>103</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>10547</v>
+        <v>54.3642</v>
       </c>
       <c r="G72" t="n">
-        <v>102.2</v>
+        <v>77660.30419999997</v>
       </c>
       <c r="H72" t="n">
-        <v>99.19666666666666</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
         <v>95.5</v>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3386,43 +3002,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C73" t="n">
-        <v>104</v>
+        <v>99.5</v>
       </c>
       <c r="D73" t="n">
-        <v>104</v>
+        <v>99.5</v>
       </c>
       <c r="E73" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F73" t="n">
-        <v>28661.45835576923</v>
+        <v>5695.3993</v>
       </c>
       <c r="G73" t="n">
-        <v>102.4</v>
+        <v>83355.70349999997</v>
       </c>
       <c r="H73" t="n">
-        <v>99.29666666666665</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
         <v>95.5</v>
       </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>1.084005235602094</v>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3430,36 +3043,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>104</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>104</v>
+        <v>99.5</v>
       </c>
       <c r="D74" t="n">
-        <v>104</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>104</v>
+        <v>99.5</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>1948.2769</v>
       </c>
       <c r="G74" t="n">
-        <v>102.6</v>
+        <v>83355.70349999997</v>
       </c>
       <c r="H74" t="n">
-        <v>99.37999999999998</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3468,36 +3084,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>104</v>
+        <v>99.8</v>
       </c>
       <c r="C75" t="n">
-        <v>104</v>
+        <v>99.8</v>
       </c>
       <c r="D75" t="n">
-        <v>104</v>
+        <v>99.8</v>
       </c>
       <c r="E75" t="n">
-        <v>104</v>
+        <v>99.8</v>
       </c>
       <c r="F75" t="n">
-        <v>11156.2492</v>
+        <v>1228</v>
       </c>
       <c r="G75" t="n">
-        <v>102.7333333333334</v>
+        <v>84583.70349999997</v>
       </c>
       <c r="H75" t="n">
-        <v>99.47499999999998</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3506,36 +3125,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>2107.084244230769</v>
+        <v>8500.320299999999</v>
       </c>
       <c r="G76" t="n">
-        <v>102.9333333333334</v>
+        <v>93084.02379999997</v>
       </c>
       <c r="H76" t="n">
-        <v>99.57333333333331</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,36 +3166,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C77" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D77" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E77" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F77" t="n">
-        <v>3348.3612</v>
+        <v>4577.05</v>
       </c>
       <c r="G77" t="n">
-        <v>103.0666666666667</v>
+        <v>97661.07379999997</v>
       </c>
       <c r="H77" t="n">
-        <v>99.67166666666664</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3582,36 +3207,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C78" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D78" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E78" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F78" t="n">
-        <v>3660.763155769231</v>
+        <v>1500</v>
       </c>
       <c r="G78" t="n">
-        <v>103.2</v>
+        <v>99161.07379999997</v>
       </c>
       <c r="H78" t="n">
-        <v>99.76999999999997</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3620,36 +3248,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C79" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D79" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E79" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>3000</v>
       </c>
       <c r="G79" t="n">
-        <v>103.4</v>
+        <v>96161.07379999997</v>
       </c>
       <c r="H79" t="n">
-        <v>99.88499999999996</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,36 +3289,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C80" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D80" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E80" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F80" t="n">
-        <v>1201</v>
+        <v>1008.6738</v>
       </c>
       <c r="G80" t="n">
-        <v>103.4666666666667</v>
+        <v>97169.74759999997</v>
       </c>
       <c r="H80" t="n">
-        <v>99.98333333333329</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3696,36 +3330,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C81" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D81" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E81" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F81" t="n">
-        <v>1473</v>
+        <v>10600</v>
       </c>
       <c r="G81" t="n">
-        <v>103.6</v>
+        <v>86569.74759999997</v>
       </c>
       <c r="H81" t="n">
-        <v>100.0933333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3734,36 +3371,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C82" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D82" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E82" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F82" t="n">
-        <v>5701.5679</v>
+        <v>5000</v>
       </c>
       <c r="G82" t="n">
-        <v>103.7333333333334</v>
+        <v>86569.74759999997</v>
       </c>
       <c r="H82" t="n">
-        <v>100.1716666666666</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3772,36 +3412,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>104</v>
+        <v>99.2</v>
       </c>
       <c r="C83" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D83" t="n">
-        <v>104</v>
+        <v>99.2</v>
       </c>
       <c r="E83" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F83" t="n">
-        <v>7186.76923076923</v>
+        <v>8479.0695</v>
       </c>
       <c r="G83" t="n">
-        <v>103.8666666666667</v>
+        <v>78090.67809999998</v>
       </c>
       <c r="H83" t="n">
-        <v>100.2866666666666</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3810,36 +3453,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C84" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D84" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E84" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F84" t="n">
-        <v>8350</v>
+        <v>1692.7501</v>
       </c>
       <c r="G84" t="n">
-        <v>103.8666666666667</v>
+        <v>79783.42819999998</v>
       </c>
       <c r="H84" t="n">
-        <v>100.3783333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3848,36 +3494,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C85" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D85" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E85" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F85" t="n">
-        <v>8550.3078</v>
+        <v>2200</v>
       </c>
       <c r="G85" t="n">
-        <v>103.8666666666667</v>
+        <v>79783.42819999998</v>
       </c>
       <c r="H85" t="n">
-        <v>100.4783333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3886,36 +3535,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" t="n">
         <v>101</v>
       </c>
       <c r="D86" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E86" t="n">
         <v>101</v>
       </c>
       <c r="F86" t="n">
-        <v>10711</v>
+        <v>4650</v>
       </c>
       <c r="G86" t="n">
-        <v>103.7333333333334</v>
+        <v>79783.42819999998</v>
       </c>
       <c r="H86" t="n">
-        <v>100.5233333333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3924,36 +3576,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C87" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D87" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E87" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F87" t="n">
-        <v>10911.466</v>
+        <v>1027.1346</v>
       </c>
       <c r="G87" t="n">
-        <v>103.4666666666667</v>
+        <v>79783.42819999998</v>
       </c>
       <c r="H87" t="n">
-        <v>100.5683333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3974,24 +3629,27 @@
         <v>101</v>
       </c>
       <c r="F88" t="n">
-        <v>11487.5097</v>
+        <v>800</v>
       </c>
       <c r="G88" t="n">
-        <v>103.2666666666667</v>
+        <v>79783.42819999998</v>
       </c>
       <c r="H88" t="n">
-        <v>100.6316666666666</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,33 +3661,36 @@
         <v>101</v>
       </c>
       <c r="C89" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D89" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E89" t="n">
         <v>101</v>
       </c>
       <c r="F89" t="n">
-        <v>7276</v>
+        <v>786</v>
       </c>
       <c r="G89" t="n">
-        <v>103.0666666666667</v>
+        <v>80569.42819999998</v>
       </c>
       <c r="H89" t="n">
-        <v>100.7149999999999</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4044,30 +3705,33 @@
         <v>101</v>
       </c>
       <c r="D90" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E90" t="n">
         <v>101</v>
       </c>
       <c r="F90" t="n">
-        <v>8913.7001</v>
+        <v>6355.9542</v>
       </c>
       <c r="G90" t="n">
-        <v>102.8666666666667</v>
+        <v>74213.47399999999</v>
       </c>
       <c r="H90" t="n">
-        <v>100.8066666666666</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4076,36 +3740,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C91" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D91" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E91" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F91" t="n">
-        <v>964.9047</v>
+        <v>600</v>
       </c>
       <c r="G91" t="n">
-        <v>102.6666666666667</v>
+        <v>74813.47399999999</v>
       </c>
       <c r="H91" t="n">
-        <v>100.8983333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4114,36 +3781,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C92" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D92" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E92" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F92" t="n">
-        <v>192.3077</v>
+        <v>16350</v>
       </c>
       <c r="G92" t="n">
-        <v>102.4666666666667</v>
+        <v>74813.47399999999</v>
       </c>
       <c r="H92" t="n">
-        <v>100.9933333333333</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4152,36 +3822,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C93" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D93" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E93" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F93" t="n">
-        <v>1000</v>
+        <v>2278</v>
       </c>
       <c r="G93" t="n">
-        <v>102.2666666666667</v>
+        <v>74813.47399999999</v>
       </c>
       <c r="H93" t="n">
-        <v>101.0883333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4190,36 +3863,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C94" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D94" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E94" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F94" t="n">
-        <v>7201.6923</v>
+        <v>41961.7025</v>
       </c>
       <c r="G94" t="n">
-        <v>102</v>
+        <v>116775.1765</v>
       </c>
       <c r="H94" t="n">
-        <v>101.1883333333333</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,7 +3904,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C95" t="n">
         <v>102</v>
@@ -4237,27 +3913,30 @@
         <v>102</v>
       </c>
       <c r="E95" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F95" t="n">
-        <v>20553.9323</v>
+        <v>21.945</v>
       </c>
       <c r="G95" t="n">
-        <v>101.8666666666667</v>
+        <v>116753.2315</v>
       </c>
       <c r="H95" t="n">
-        <v>101.2583333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4266,36 +3945,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C96" t="n">
-        <v>99.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="D96" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E96" t="n">
-        <v>99.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="F96" t="n">
-        <v>322</v>
+        <v>8378.2983</v>
       </c>
       <c r="G96" t="n">
-        <v>101.54</v>
+        <v>116753.2315</v>
       </c>
       <c r="H96" t="n">
-        <v>101.3216666666666</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4304,36 +3986,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>99.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="C97" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D97" t="n">
-        <v>99.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="E97" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F97" t="n">
-        <v>5132.9819</v>
+        <v>1418.9557</v>
       </c>
       <c r="G97" t="n">
-        <v>101.2066666666667</v>
+        <v>116753.2315</v>
       </c>
       <c r="H97" t="n">
-        <v>101.3766666666666</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4342,36 +4027,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C98" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D98" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E98" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F98" t="n">
-        <v>3000</v>
+        <v>1750</v>
       </c>
       <c r="G98" t="n">
-        <v>100.8733333333334</v>
+        <v>118503.2315</v>
       </c>
       <c r="H98" t="n">
-        <v>101.4216666666666</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4380,36 +4068,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="C99" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D99" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="E99" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F99" t="n">
-        <v>1140.4981</v>
+        <v>4700</v>
       </c>
       <c r="G99" t="n">
-        <v>100.6066666666667</v>
+        <v>118503.2315</v>
       </c>
       <c r="H99" t="n">
-        <v>101.44</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,7 +4109,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C100" t="n">
         <v>103</v>
@@ -4427,27 +4118,30 @@
         <v>103</v>
       </c>
       <c r="E100" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F100" t="n">
-        <v>7528.215273786408</v>
+        <v>18359.9999</v>
       </c>
       <c r="G100" t="n">
-        <v>100.6066666666667</v>
+        <v>118503.2315</v>
       </c>
       <c r="H100" t="n">
-        <v>101.5149999999999</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,36 +4150,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C101" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D101" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E101" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F101" t="n">
-        <v>400.7287</v>
+        <v>10547</v>
       </c>
       <c r="G101" t="n">
-        <v>100.6066666666667</v>
+        <v>129050.2315</v>
       </c>
       <c r="H101" t="n">
-        <v>101.5566666666666</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4494,36 +4191,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C102" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D102" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E102" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F102" t="n">
-        <v>108.2713</v>
+        <v>28661.45835576923</v>
       </c>
       <c r="G102" t="n">
-        <v>100.6733333333334</v>
+        <v>129050.2315</v>
       </c>
       <c r="H102" t="n">
-        <v>101.5983333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4532,36 +4232,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C103" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D103" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E103" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F103" t="n">
-        <v>12060.2221</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>100.6066666666667</v>
+        <v>129050.2315</v>
       </c>
       <c r="H103" t="n">
-        <v>101.6299999999999</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4570,36 +4273,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C104" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D104" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E104" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F104" t="n">
-        <v>608</v>
+        <v>11156.2492</v>
       </c>
       <c r="G104" t="n">
-        <v>100.54</v>
+        <v>129050.2315</v>
       </c>
       <c r="H104" t="n">
-        <v>101.6383333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4608,37 +4314,40 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C105" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D105" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E105" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F105" t="n">
-        <v>8425.974899999999</v>
+        <v>2107.084244230769</v>
       </c>
       <c r="G105" t="n">
-        <v>100.4066666666667</v>
+        <v>129050.2315</v>
       </c>
       <c r="H105" t="n">
-        <v>101.6299999999999</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1.084005235602094</v>
       </c>
     </row>
     <row r="106">
@@ -4646,36 +4355,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>99.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="C106" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D106" t="n">
-        <v>99.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="E106" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F106" t="n">
-        <v>750</v>
+        <v>3348.3612</v>
       </c>
       <c r="G106" t="n">
-        <v>100.2733333333334</v>
+        <v>129050.2315</v>
       </c>
       <c r="H106" t="n">
-        <v>101.6166666666666</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4684,36 +4390,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>99.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="C107" t="n">
-        <v>99.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="D107" t="n">
-        <v>99.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="E107" t="n">
-        <v>99.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="F107" t="n">
-        <v>1995</v>
+        <v>3660.763155769231</v>
       </c>
       <c r="G107" t="n">
-        <v>100.1466666666667</v>
+        <v>129050.2315</v>
       </c>
       <c r="H107" t="n">
-        <v>101.6033333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4722,36 +4425,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>99.09999999999999</v>
+        <v>105</v>
       </c>
       <c r="C108" t="n">
-        <v>97.3</v>
+        <v>105</v>
       </c>
       <c r="D108" t="n">
-        <v>99.09999999999999</v>
+        <v>105</v>
       </c>
       <c r="E108" t="n">
-        <v>97.3</v>
+        <v>105</v>
       </c>
       <c r="F108" t="n">
-        <v>21643.5413</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>99.90000000000002</v>
+        <v>129060.2315</v>
       </c>
       <c r="H108" t="n">
-        <v>101.5583333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4760,36 +4460,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>97.3</v>
+        <v>104</v>
       </c>
       <c r="C109" t="n">
-        <v>96.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="D109" t="n">
-        <v>97.3</v>
+        <v>104</v>
       </c>
       <c r="E109" t="n">
-        <v>96.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="F109" t="n">
-        <v>12910.7505</v>
+        <v>1201</v>
       </c>
       <c r="G109" t="n">
-        <v>99.57333333333334</v>
+        <v>127859.2315</v>
       </c>
       <c r="H109" t="n">
-        <v>101.4766666666666</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4798,36 +4495,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C110" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D110" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E110" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F110" t="n">
-        <v>1894.642</v>
+        <v>1473</v>
       </c>
       <c r="G110" t="n">
-        <v>99.17333333333335</v>
+        <v>127859.2315</v>
       </c>
       <c r="H110" t="n">
-        <v>101.41</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4836,36 +4530,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>95.3</v>
+        <v>104</v>
       </c>
       <c r="C111" t="n">
-        <v>94.2</v>
+        <v>104</v>
       </c>
       <c r="D111" t="n">
-        <v>95.3</v>
+        <v>104</v>
       </c>
       <c r="E111" t="n">
-        <v>94.2</v>
+        <v>103</v>
       </c>
       <c r="F111" t="n">
-        <v>31353.7593</v>
+        <v>5701.5679</v>
       </c>
       <c r="G111" t="n">
-        <v>98.84666666666668</v>
+        <v>127859.2315</v>
       </c>
       <c r="H111" t="n">
-        <v>101.2966666666666</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,36 +4565,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>94.3</v>
+        <v>104</v>
       </c>
       <c r="C112" t="n">
-        <v>95.7</v>
+        <v>104</v>
       </c>
       <c r="D112" t="n">
-        <v>96.5</v>
+        <v>104</v>
       </c>
       <c r="E112" t="n">
-        <v>94.3</v>
+        <v>103</v>
       </c>
       <c r="F112" t="n">
-        <v>19514.4583</v>
+        <v>7186.76923076923</v>
       </c>
       <c r="G112" t="n">
-        <v>98.62666666666669</v>
+        <v>127859.2315</v>
       </c>
       <c r="H112" t="n">
-        <v>101.225</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4912,36 +4600,1058 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>94.8</v>
+        <v>103</v>
       </c>
       <c r="C113" t="n">
-        <v>94.8</v>
+        <v>103</v>
       </c>
       <c r="D113" t="n">
-        <v>94.8</v>
+        <v>103</v>
       </c>
       <c r="E113" t="n">
-        <v>94.8</v>
+        <v>103</v>
       </c>
       <c r="F113" t="n">
-        <v>1008</v>
+        <v>8350</v>
       </c>
       <c r="G113" t="n">
-        <v>98.34666666666668</v>
+        <v>119509.2315</v>
       </c>
       <c r="H113" t="n">
-        <v>101.1383333333333</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>103</v>
+      </c>
+      <c r="C114" t="n">
+        <v>103</v>
+      </c>
+      <c r="D114" t="n">
+        <v>103</v>
+      </c>
+      <c r="E114" t="n">
+        <v>103</v>
+      </c>
+      <c r="F114" t="n">
+        <v>8550.3078</v>
+      </c>
+      <c r="G114" t="n">
+        <v>119509.2315</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>102</v>
+      </c>
+      <c r="C115" t="n">
+        <v>101</v>
+      </c>
+      <c r="D115" t="n">
+        <v>102</v>
+      </c>
+      <c r="E115" t="n">
+        <v>101</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10711</v>
+      </c>
+      <c r="G115" t="n">
+        <v>108798.2315</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>100</v>
+      </c>
+      <c r="C116" t="n">
+        <v>100</v>
+      </c>
+      <c r="D116" t="n">
+        <v>100</v>
+      </c>
+      <c r="E116" t="n">
+        <v>100</v>
+      </c>
+      <c r="F116" t="n">
+        <v>10911.466</v>
+      </c>
+      <c r="G116" t="n">
+        <v>97886.76549999998</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>101</v>
+      </c>
+      <c r="C117" t="n">
+        <v>101</v>
+      </c>
+      <c r="D117" t="n">
+        <v>101</v>
+      </c>
+      <c r="E117" t="n">
+        <v>101</v>
+      </c>
+      <c r="F117" t="n">
+        <v>11487.5097</v>
+      </c>
+      <c r="G117" t="n">
+        <v>109374.2752</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>101</v>
+      </c>
+      <c r="C118" t="n">
+        <v>101</v>
+      </c>
+      <c r="D118" t="n">
+        <v>101</v>
+      </c>
+      <c r="E118" t="n">
+        <v>101</v>
+      </c>
+      <c r="F118" t="n">
+        <v>7276</v>
+      </c>
+      <c r="G118" t="n">
+        <v>109374.2752</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>101</v>
+      </c>
+      <c r="C119" t="n">
+        <v>101</v>
+      </c>
+      <c r="D119" t="n">
+        <v>101</v>
+      </c>
+      <c r="E119" t="n">
+        <v>101</v>
+      </c>
+      <c r="F119" t="n">
+        <v>8913.7001</v>
+      </c>
+      <c r="G119" t="n">
+        <v>109374.2752</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>101</v>
+      </c>
+      <c r="C120" t="n">
+        <v>101</v>
+      </c>
+      <c r="D120" t="n">
+        <v>101</v>
+      </c>
+      <c r="E120" t="n">
+        <v>101</v>
+      </c>
+      <c r="F120" t="n">
+        <v>964.9047</v>
+      </c>
+      <c r="G120" t="n">
+        <v>109374.2752</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>101</v>
+      </c>
+      <c r="C121" t="n">
+        <v>101</v>
+      </c>
+      <c r="D121" t="n">
+        <v>101</v>
+      </c>
+      <c r="E121" t="n">
+        <v>101</v>
+      </c>
+      <c r="F121" t="n">
+        <v>192.3077</v>
+      </c>
+      <c r="G121" t="n">
+        <v>109374.2752</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>101</v>
+      </c>
+      <c r="C122" t="n">
+        <v>101</v>
+      </c>
+      <c r="D122" t="n">
+        <v>101</v>
+      </c>
+      <c r="E122" t="n">
+        <v>101</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G122" t="n">
+        <v>109374.2752</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>101</v>
+      </c>
+      <c r="C123" t="n">
+        <v>101</v>
+      </c>
+      <c r="D123" t="n">
+        <v>101</v>
+      </c>
+      <c r="E123" t="n">
+        <v>101</v>
+      </c>
+      <c r="F123" t="n">
+        <v>7201.6923</v>
+      </c>
+      <c r="G123" t="n">
+        <v>109374.2752</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>100</v>
+      </c>
+      <c r="C124" t="n">
+        <v>102</v>
+      </c>
+      <c r="D124" t="n">
+        <v>102</v>
+      </c>
+      <c r="E124" t="n">
+        <v>100</v>
+      </c>
+      <c r="F124" t="n">
+        <v>20553.9323</v>
+      </c>
+      <c r="G124" t="n">
+        <v>129928.2075</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>100</v>
+      </c>
+      <c r="C125" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D125" t="n">
+        <v>100</v>
+      </c>
+      <c r="E125" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F125" t="n">
+        <v>322</v>
+      </c>
+      <c r="G125" t="n">
+        <v>129606.2075</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C126" t="n">
+        <v>99</v>
+      </c>
+      <c r="D126" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E126" t="n">
+        <v>99</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5132.9819</v>
+      </c>
+      <c r="G126" t="n">
+        <v>124473.2256</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>99</v>
+      </c>
+      <c r="C127" t="n">
+        <v>99</v>
+      </c>
+      <c r="D127" t="n">
+        <v>99</v>
+      </c>
+      <c r="E127" t="n">
+        <v>99</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>124473.2256</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C128" t="n">
+        <v>99</v>
+      </c>
+      <c r="D128" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E128" t="n">
+        <v>99</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1140.4981</v>
+      </c>
+      <c r="G128" t="n">
+        <v>124473.2256</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>101</v>
+      </c>
+      <c r="C129" t="n">
+        <v>103</v>
+      </c>
+      <c r="D129" t="n">
+        <v>103</v>
+      </c>
+      <c r="E129" t="n">
+        <v>101</v>
+      </c>
+      <c r="F129" t="n">
+        <v>7528.215273786408</v>
+      </c>
+      <c r="G129" t="n">
+        <v>132001.4408737864</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>101</v>
+      </c>
+      <c r="C130" t="n">
+        <v>101</v>
+      </c>
+      <c r="D130" t="n">
+        <v>101</v>
+      </c>
+      <c r="E130" t="n">
+        <v>101</v>
+      </c>
+      <c r="F130" t="n">
+        <v>400.7287</v>
+      </c>
+      <c r="G130" t="n">
+        <v>131600.7121737864</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>101</v>
+      </c>
+      <c r="C131" t="n">
+        <v>101</v>
+      </c>
+      <c r="D131" t="n">
+        <v>101</v>
+      </c>
+      <c r="E131" t="n">
+        <v>101</v>
+      </c>
+      <c r="F131" t="n">
+        <v>108.2713</v>
+      </c>
+      <c r="G131" t="n">
+        <v>131600.7121737864</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>100</v>
+      </c>
+      <c r="C132" t="n">
+        <v>100</v>
+      </c>
+      <c r="D132" t="n">
+        <v>100</v>
+      </c>
+      <c r="E132" t="n">
+        <v>100</v>
+      </c>
+      <c r="F132" t="n">
+        <v>12060.2221</v>
+      </c>
+      <c r="G132" t="n">
+        <v>119540.4900737864</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>100</v>
+      </c>
+      <c r="C133" t="n">
+        <v>100</v>
+      </c>
+      <c r="D133" t="n">
+        <v>100</v>
+      </c>
+      <c r="E133" t="n">
+        <v>100</v>
+      </c>
+      <c r="F133" t="n">
+        <v>608</v>
+      </c>
+      <c r="G133" t="n">
+        <v>119540.4900737864</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>100</v>
+      </c>
+      <c r="C134" t="n">
+        <v>99</v>
+      </c>
+      <c r="D134" t="n">
+        <v>100</v>
+      </c>
+      <c r="E134" t="n">
+        <v>99</v>
+      </c>
+      <c r="F134" t="n">
+        <v>8425.974899999999</v>
+      </c>
+      <c r="G134" t="n">
+        <v>111114.5151737864</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>99</v>
+      </c>
+      <c r="D135" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>99</v>
+      </c>
+      <c r="F135" t="n">
+        <v>750</v>
+      </c>
+      <c r="G135" t="n">
+        <v>111114.5151737864</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D136" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E136" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1995</v>
+      </c>
+      <c r="G136" t="n">
+        <v>113109.5151737864</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C137" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="D137" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E137" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>21643.5413</v>
+      </c>
+      <c r="G137" t="n">
+        <v>91465.97387378637</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="D138" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F138" t="n">
+        <v>12910.7505</v>
+      </c>
+      <c r="G138" t="n">
+        <v>78555.22337378637</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>96</v>
+      </c>
+      <c r="C139" t="n">
+        <v>96</v>
+      </c>
+      <c r="D139" t="n">
+        <v>96</v>
+      </c>
+      <c r="E139" t="n">
+        <v>96</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1894.642</v>
+      </c>
+      <c r="G139" t="n">
+        <v>76660.58137378636</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="C140" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="E140" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>31353.7593</v>
+      </c>
+      <c r="G140" t="n">
+        <v>45306.82207378636</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="C141" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="D141" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>19514.4583</v>
+      </c>
+      <c r="G141" t="n">
+        <v>64821.28037378636</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="K141" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1008</v>
+      </c>
+      <c r="G142" t="n">
+        <v>63813.28037378636</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest ELF.xlsx
+++ b/BackTest/2019-10-26 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>12556.2809</v>
       </c>
       <c r="G2" t="n">
-        <v>109556.568</v>
+        <v>95.97999999999993</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>228</v>
       </c>
       <c r="G3" t="n">
-        <v>109784.568</v>
+        <v>96.49999999999993</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>1604.9725</v>
       </c>
       <c r="G4" t="n">
-        <v>108179.5955</v>
+        <v>96.97999999999993</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>366.457</v>
       </c>
       <c r="G5" t="n">
-        <v>107813.1385</v>
+        <v>97.31999999999994</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>1647.9947</v>
       </c>
       <c r="G6" t="n">
-        <v>106165.1438</v>
+        <v>97.57999999999994</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>2033.9999</v>
       </c>
       <c r="G7" t="n">
-        <v>106165.1438</v>
+        <v>97.57999999999993</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>2259.0377</v>
       </c>
       <c r="G8" t="n">
-        <v>103906.1061</v>
+        <v>96.95999999999992</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>750</v>
       </c>
       <c r="G9" t="n">
-        <v>103156.1061</v>
+        <v>96.21999999999994</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>150</v>
       </c>
       <c r="G10" t="n">
-        <v>103306.1061</v>
+        <v>95.91999999999994</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>955</v>
       </c>
       <c r="G11" t="n">
-        <v>102351.1061</v>
+        <v>95.81999999999994</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>564.0952</v>
       </c>
       <c r="G12" t="n">
-        <v>102915.2013</v>
+        <v>95.83999999999995</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>522.7718</v>
       </c>
       <c r="G13" t="n">
-        <v>102915.2013</v>
+        <v>96.07999999999996</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>9385.9193</v>
       </c>
       <c r="G14" t="n">
-        <v>112301.1206</v>
+        <v>96.69999999999995</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>1200</v>
       </c>
       <c r="G15" t="n">
-        <v>113501.1206</v>
+        <v>97.11999999999995</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>44</v>
       </c>
       <c r="G16" t="n">
-        <v>113545.1206</v>
+        <v>97.77999999999994</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>3669.6398</v>
       </c>
       <c r="G17" t="n">
-        <v>117214.7604</v>
+        <v>98.35999999999996</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>23026.8717</v>
       </c>
       <c r="G18" t="n">
-        <v>140241.6321</v>
+        <v>98.95999999999995</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>72297.3826</v>
       </c>
       <c r="G19" t="n">
-        <v>140241.6321</v>
+        <v>99.33999999999995</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,7 +1101,7 @@
         <v>58708.2353</v>
       </c>
       <c r="G20" t="n">
-        <v>198949.8674</v>
+        <v>99.67999999999996</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>79302.9371</v>
       </c>
       <c r="G21" t="n">
-        <v>119646.9303</v>
+        <v>99.75999999999996</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>12658.6015</v>
       </c>
       <c r="G22" t="n">
-        <v>132305.5318</v>
+        <v>99.83999999999996</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>13086.9966</v>
       </c>
       <c r="G23" t="n">
-        <v>119218.5352</v>
+        <v>99.87999999999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>2083.1828</v>
       </c>
       <c r="G24" t="n">
-        <v>119218.5352</v>
+        <v>99.91999999999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>60</v>
       </c>
       <c r="G25" t="n">
-        <v>119278.5352</v>
+        <v>99.91999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>1057</v>
       </c>
       <c r="G26" t="n">
-        <v>119278.5352</v>
+        <v>99.95999999999998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>2310</v>
       </c>
       <c r="G27" t="n">
-        <v>116968.5352</v>
+        <v>99.93999999999998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>23287</v>
       </c>
       <c r="G28" t="n">
-        <v>93681.53519999997</v>
+        <v>99.91999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,7 +1425,7 @@
         <v>10243.3958</v>
       </c>
       <c r="G29" t="n">
-        <v>103924.931</v>
+        <v>99.91999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,7 +1461,7 @@
         <v>17950</v>
       </c>
       <c r="G30" t="n">
-        <v>85974.93099999997</v>
+        <v>99.87999999999997</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,7 +1497,7 @@
         <v>10000</v>
       </c>
       <c r="G31" t="n">
-        <v>85974.93099999997</v>
+        <v>99.83999999999996</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,7 +1533,7 @@
         <v>10850</v>
       </c>
       <c r="G32" t="n">
-        <v>85974.93099999997</v>
+        <v>99.81999999999996</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,7 +1569,7 @@
         <v>2145.4408</v>
       </c>
       <c r="G33" t="n">
-        <v>85974.93099999997</v>
+        <v>99.81999999999995</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,7 +1605,7 @@
         <v>1049.8249</v>
       </c>
       <c r="G34" t="n">
-        <v>85974.93099999997</v>
+        <v>99.79999999999995</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,7 +1641,7 @@
         <v>24241.1278</v>
       </c>
       <c r="G35" t="n">
-        <v>110216.0588</v>
+        <v>99.83999999999995</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,7 +1677,7 @@
         <v>9142.77</v>
       </c>
       <c r="G36" t="n">
-        <v>101073.2888</v>
+        <v>99.67999999999996</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1673,7 +1713,7 @@
         <v>2057</v>
       </c>
       <c r="G37" t="n">
-        <v>99016.28879999997</v>
+        <v>99.33999999999995</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,7 +1749,7 @@
         <v>9435.2479</v>
       </c>
       <c r="G38" t="n">
-        <v>108451.5367</v>
+        <v>99.57999999999996</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1743,7 +1785,7 @@
         <v>601</v>
       </c>
       <c r="G39" t="n">
-        <v>107850.5367</v>
+        <v>99.61999999999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,7 +1821,7 @@
         <v>10584.4583</v>
       </c>
       <c r="G40" t="n">
-        <v>97266.07839999997</v>
+        <v>99.45999999999997</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1813,7 +1857,7 @@
         <v>750</v>
       </c>
       <c r="G41" t="n">
-        <v>96516.07839999997</v>
+        <v>99.27999999999997</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1848,7 +1893,7 @@
         <v>991.7303000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>95524.34809999997</v>
+        <v>99.25999999999996</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1883,7 +1929,7 @@
         <v>1500</v>
       </c>
       <c r="G43" t="n">
-        <v>97024.34809999997</v>
+        <v>98.85999999999997</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1918,7 +1965,7 @@
         <v>56.3913</v>
       </c>
       <c r="G44" t="n">
-        <v>96967.95679999997</v>
+        <v>98.51999999999995</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1953,7 +2001,7 @@
         <v>3661.9174</v>
       </c>
       <c r="G45" t="n">
-        <v>93306.03939999997</v>
+        <v>98.29999999999997</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1988,7 +2037,7 @@
         <v>4602.639</v>
       </c>
       <c r="G46" t="n">
-        <v>93306.03939999997</v>
+        <v>98.29999999999995</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2023,7 +2073,7 @@
         <v>489.7294</v>
       </c>
       <c r="G47" t="n">
-        <v>93306.03939999997</v>
+        <v>98.31999999999996</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2058,7 +2109,7 @@
         <v>3612.6388</v>
       </c>
       <c r="G48" t="n">
-        <v>93306.03939999997</v>
+        <v>98.13999999999996</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2093,7 +2145,7 @@
         <v>2683.8675</v>
       </c>
       <c r="G49" t="n">
-        <v>93306.03939999997</v>
+        <v>98.09999999999997</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2128,7 +2181,7 @@
         <v>2682.858</v>
       </c>
       <c r="G50" t="n">
-        <v>90623.18139999997</v>
+        <v>97.95999999999997</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2163,7 +2217,7 @@
         <v>3050</v>
       </c>
       <c r="G51" t="n">
-        <v>93673.18139999997</v>
+        <v>98.19999999999996</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2198,7 +2253,7 @@
         <v>260.676</v>
       </c>
       <c r="G52" t="n">
-        <v>93412.50539999997</v>
+        <v>97.99999999999996</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2233,7 +2289,7 @@
         <v>1639</v>
       </c>
       <c r="G53" t="n">
-        <v>95051.50539999997</v>
+        <v>97.87999999999995</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2268,7 +2325,7 @@
         <v>2140.0772</v>
       </c>
       <c r="G54" t="n">
-        <v>92911.42819999997</v>
+        <v>97.65999999999994</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2303,7 +2361,7 @@
         <v>541</v>
       </c>
       <c r="G55" t="n">
-        <v>93452.42819999997</v>
+        <v>97.83999999999995</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2338,7 +2397,7 @@
         <v>294.807</v>
       </c>
       <c r="G56" t="n">
-        <v>93157.62119999997</v>
+        <v>97.43999999999993</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2373,7 +2433,7 @@
         <v>4028.672</v>
       </c>
       <c r="G57" t="n">
-        <v>89128.94919999996</v>
+        <v>97.45999999999992</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2408,7 +2469,7 @@
         <v>12566.4512</v>
       </c>
       <c r="G58" t="n">
-        <v>76562.49799999996</v>
+        <v>97.15999999999993</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2443,7 +2505,7 @@
         <v>1312.0298</v>
       </c>
       <c r="G59" t="n">
-        <v>75250.46819999996</v>
+        <v>96.85999999999993</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2478,7 +2541,7 @@
         <v>4131.6634</v>
       </c>
       <c r="G60" t="n">
-        <v>75250.46819999996</v>
+        <v>96.29999999999993</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -2496,6 +2559,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2517,7 +2581,7 @@
         <v>4345.6932</v>
       </c>
       <c r="G61" t="n">
-        <v>70904.77499999997</v>
+        <v>95.89999999999992</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -2539,6 +2603,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2560,7 +2625,7 @@
         <v>2069.693</v>
       </c>
       <c r="G62" t="n">
-        <v>70904.77499999997</v>
+        <v>95.51999999999992</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -2582,6 +2647,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2603,7 +2669,7 @@
         <v>864.121</v>
       </c>
       <c r="G63" t="n">
-        <v>70040.65399999997</v>
+        <v>95.31999999999994</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -2625,6 +2691,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2646,7 +2713,7 @@
         <v>1018.0643</v>
       </c>
       <c r="G64" t="n">
-        <v>71058.71829999996</v>
+        <v>95.77999999999993</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -2668,6 +2735,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2689,7 +2757,7 @@
         <v>1061.6289</v>
       </c>
       <c r="G65" t="n">
-        <v>69997.08939999997</v>
+        <v>95.73999999999992</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2709,6 +2777,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2730,7 +2799,7 @@
         <v>475.768</v>
       </c>
       <c r="G66" t="n">
-        <v>70472.85739999996</v>
+        <v>95.81999999999992</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2750,6 +2819,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2771,7 +2841,7 @@
         <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>70482.85739999996</v>
+        <v>96.01999999999992</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2791,6 +2861,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2812,7 +2883,7 @@
         <v>4231.811</v>
       </c>
       <c r="G68" t="n">
-        <v>74714.66839999997</v>
+        <v>96.59999999999994</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2832,6 +2903,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2853,7 +2925,7 @@
         <v>3000</v>
       </c>
       <c r="G69" t="n">
-        <v>77714.66839999997</v>
+        <v>96.73999999999992</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2873,6 +2945,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2894,7 +2967,7 @@
         <v>2100</v>
       </c>
       <c r="G70" t="n">
-        <v>77714.66839999997</v>
+        <v>97.37999999999991</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2914,6 +2987,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2935,7 +3009,7 @@
         <v>2900</v>
       </c>
       <c r="G71" t="n">
-        <v>77714.66839999997</v>
+        <v>97.93999999999993</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2955,6 +3029,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,7 +3051,7 @@
         <v>54.3642</v>
       </c>
       <c r="G72" t="n">
-        <v>77660.30419999997</v>
+        <v>98.29999999999993</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2996,6 +3071,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3017,7 +3093,7 @@
         <v>5695.3993</v>
       </c>
       <c r="G73" t="n">
-        <v>83355.70349999997</v>
+        <v>98.61999999999992</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3037,6 +3113,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3058,7 +3135,7 @@
         <v>1948.2769</v>
       </c>
       <c r="G74" t="n">
-        <v>83355.70349999997</v>
+        <v>98.81999999999991</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3078,6 +3155,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3099,7 +3177,7 @@
         <v>1228</v>
       </c>
       <c r="G75" t="n">
-        <v>84583.70349999997</v>
+        <v>99.0799999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3119,6 +3197,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3140,7 +3219,7 @@
         <v>8500.320299999999</v>
       </c>
       <c r="G76" t="n">
-        <v>93084.02379999997</v>
+        <v>99.3599999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3160,6 +3239,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3181,7 +3261,7 @@
         <v>4577.05</v>
       </c>
       <c r="G77" t="n">
-        <v>97661.07379999997</v>
+        <v>99.7399999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3201,6 +3281,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3222,7 +3303,7 @@
         <v>1500</v>
       </c>
       <c r="G78" t="n">
-        <v>99161.07379999997</v>
+        <v>100.0399999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3242,6 +3323,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3263,7 +3345,7 @@
         <v>3000</v>
       </c>
       <c r="G79" t="n">
-        <v>96161.07379999997</v>
+        <v>100.1399999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3283,6 +3365,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3304,7 +3387,7 @@
         <v>1008.6738</v>
       </c>
       <c r="G80" t="n">
-        <v>97169.74759999997</v>
+        <v>100.3799999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3324,6 +3407,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3345,7 +3429,7 @@
         <v>10600</v>
       </c>
       <c r="G81" t="n">
-        <v>86569.74759999997</v>
+        <v>100.3999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3365,6 +3449,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3386,7 +3471,7 @@
         <v>5000</v>
       </c>
       <c r="G82" t="n">
-        <v>86569.74759999997</v>
+        <v>100.3999999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3406,6 +3491,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3427,7 +3513,7 @@
         <v>8479.0695</v>
       </c>
       <c r="G83" t="n">
-        <v>78090.67809999998</v>
+        <v>99.99999999999989</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3447,6 +3533,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3468,7 +3555,7 @@
         <v>1692.7501</v>
       </c>
       <c r="G84" t="n">
-        <v>79783.42819999998</v>
+        <v>100.1999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3488,6 +3575,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3509,7 +3597,7 @@
         <v>2200</v>
       </c>
       <c r="G85" t="n">
-        <v>79783.42819999998</v>
+        <v>100.1999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3529,6 +3617,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3550,7 +3639,7 @@
         <v>4650</v>
       </c>
       <c r="G86" t="n">
-        <v>79783.42819999998</v>
+        <v>100.3999999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3570,6 +3659,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3591,7 +3681,7 @@
         <v>1027.1346</v>
       </c>
       <c r="G87" t="n">
-        <v>79783.42819999998</v>
+        <v>100.5999999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3611,6 +3701,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3632,7 +3723,7 @@
         <v>800</v>
       </c>
       <c r="G88" t="n">
-        <v>79783.42819999998</v>
+        <v>100.9999999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3652,6 +3743,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3673,7 +3765,7 @@
         <v>786</v>
       </c>
       <c r="G89" t="n">
-        <v>80569.42819999998</v>
+        <v>101.1999999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3693,6 +3785,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3714,7 +3807,7 @@
         <v>6355.9542</v>
       </c>
       <c r="G90" t="n">
-        <v>74213.47399999999</v>
+        <v>101.1999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3734,6 +3827,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3755,7 +3849,7 @@
         <v>600</v>
       </c>
       <c r="G91" t="n">
-        <v>74813.47399999999</v>
+        <v>101.3999999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3775,6 +3869,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3796,7 +3891,7 @@
         <v>16350</v>
       </c>
       <c r="G92" t="n">
-        <v>74813.47399999999</v>
+        <v>101.5999999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3816,6 +3911,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3837,7 +3933,7 @@
         <v>2278</v>
       </c>
       <c r="G93" t="n">
-        <v>74813.47399999999</v>
+        <v>101.7999999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3857,6 +3953,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3878,7 +3975,7 @@
         <v>41961.7025</v>
       </c>
       <c r="G94" t="n">
-        <v>116775.1765</v>
+        <v>101.9999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3898,6 +3995,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3919,7 +4017,7 @@
         <v>21.945</v>
       </c>
       <c r="G95" t="n">
-        <v>116753.2315</v>
+        <v>102.1999999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3939,6 +4037,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3960,7 +4059,7 @@
         <v>8378.2983</v>
       </c>
       <c r="G96" t="n">
-        <v>116753.2315</v>
+        <v>102.1999999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3980,6 +4079,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4001,7 +4101,7 @@
         <v>1418.9557</v>
       </c>
       <c r="G97" t="n">
-        <v>116753.2315</v>
+        <v>102.1999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4021,6 +4121,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4042,7 +4143,7 @@
         <v>1750</v>
       </c>
       <c r="G98" t="n">
-        <v>118503.2315</v>
+        <v>102.3999999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4062,6 +4163,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4083,7 +4185,7 @@
         <v>4700</v>
       </c>
       <c r="G99" t="n">
-        <v>118503.2315</v>
+        <v>102.3999999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4103,6 +4205,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4124,7 +4227,7 @@
         <v>18359.9999</v>
       </c>
       <c r="G100" t="n">
-        <v>118503.2315</v>
+        <v>102.5999999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4144,6 +4247,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4165,7 +4269,7 @@
         <v>10547</v>
       </c>
       <c r="G101" t="n">
-        <v>129050.2315</v>
+        <v>102.9999999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4185,6 +4289,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4206,7 +4311,7 @@
         <v>28661.45835576923</v>
       </c>
       <c r="G102" t="n">
-        <v>129050.2315</v>
+        <v>103.3999999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4226,6 +4331,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4247,13 +4353,13 @@
         <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>129050.2315</v>
+        <v>103.5999999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
@@ -4261,11 +4367,14 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>1.084005235602094</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1.066525871172122</v>
       </c>
     </row>
     <row r="104">
@@ -4288,26 +4397,21 @@
         <v>11156.2492</v>
       </c>
       <c r="G104" t="n">
-        <v>129050.2315</v>
+        <v>103.7999999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4329,7 +4433,7 @@
         <v>2107.084244230769</v>
       </c>
       <c r="G105" t="n">
-        <v>129050.2315</v>
+        <v>103.9999999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4338,17 +4442,12 @@
         <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>1.084005235602094</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4370,7 +4469,7 @@
         <v>3348.3612</v>
       </c>
       <c r="G106" t="n">
-        <v>129050.2315</v>
+        <v>103.9999999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4384,6 +4483,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4405,7 +4505,7 @@
         <v>3660.763155769231</v>
       </c>
       <c r="G107" t="n">
-        <v>129050.2315</v>
+        <v>103.9999999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4419,6 +4519,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4440,13 +4541,13 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>129060.2315</v>
+        <v>104.1999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4454,6 +4555,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4475,7 +4577,7 @@
         <v>1201</v>
       </c>
       <c r="G109" t="n">
-        <v>127859.2315</v>
+        <v>104.1999999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4489,6 +4591,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4510,7 +4613,7 @@
         <v>1473</v>
       </c>
       <c r="G110" t="n">
-        <v>127859.2315</v>
+        <v>104.1999999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4524,6 +4627,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4545,13 +4649,13 @@
         <v>5701.5679</v>
       </c>
       <c r="G111" t="n">
-        <v>127859.2315</v>
+        <v>104.1999999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4559,6 +4663,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4580,13 +4685,13 @@
         <v>7186.76923076923</v>
       </c>
       <c r="G112" t="n">
-        <v>127859.2315</v>
+        <v>104.1999999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4594,6 +4699,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4615,13 +4721,13 @@
         <v>8350</v>
       </c>
       <c r="G113" t="n">
-        <v>119509.2315</v>
+        <v>103.7999999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4629,6 +4735,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4650,13 +4757,13 @@
         <v>8550.3078</v>
       </c>
       <c r="G114" t="n">
-        <v>119509.2315</v>
+        <v>103.5999999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4664,6 +4771,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4685,13 +4793,13 @@
         <v>10711</v>
       </c>
       <c r="G115" t="n">
-        <v>108798.2315</v>
+        <v>102.9999999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4699,6 +4807,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4720,7 +4829,7 @@
         <v>10911.466</v>
       </c>
       <c r="G116" t="n">
-        <v>97886.76549999998</v>
+        <v>102.1999999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4734,6 +4843,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4755,7 +4865,7 @@
         <v>11487.5097</v>
       </c>
       <c r="G117" t="n">
-        <v>109374.2752</v>
+        <v>101.5999999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4769,6 +4879,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4790,7 +4901,7 @@
         <v>7276</v>
       </c>
       <c r="G118" t="n">
-        <v>109374.2752</v>
+        <v>101.1999999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4804,6 +4915,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4825,7 +4937,7 @@
         <v>8913.7001</v>
       </c>
       <c r="G119" t="n">
-        <v>109374.2752</v>
+        <v>100.7999999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4839,6 +4951,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4860,7 +4973,7 @@
         <v>964.9047</v>
       </c>
       <c r="G120" t="n">
-        <v>109374.2752</v>
+        <v>100.7999999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4874,6 +4987,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4895,7 +5009,7 @@
         <v>192.3077</v>
       </c>
       <c r="G121" t="n">
-        <v>109374.2752</v>
+        <v>100.9999999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4909,6 +5023,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4930,7 +5045,7 @@
         <v>1000</v>
       </c>
       <c r="G122" t="n">
-        <v>109374.2752</v>
+        <v>100.9999999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4944,6 +5059,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4965,7 +5081,7 @@
         <v>7201.6923</v>
       </c>
       <c r="G123" t="n">
-        <v>109374.2752</v>
+        <v>100.9999999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4979,6 +5095,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5000,7 +5117,7 @@
         <v>20553.9323</v>
       </c>
       <c r="G124" t="n">
-        <v>129928.2075</v>
+        <v>101.1999999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5014,6 +5131,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5035,7 +5153,7 @@
         <v>322</v>
       </c>
       <c r="G125" t="n">
-        <v>129606.2075</v>
+        <v>100.8199999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5049,6 +5167,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5070,7 +5189,7 @@
         <v>5132.9819</v>
       </c>
       <c r="G126" t="n">
-        <v>124473.2256</v>
+        <v>100.4199999999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5084,6 +5203,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5105,7 +5225,7 @@
         <v>3000</v>
       </c>
       <c r="G127" t="n">
-        <v>124473.2256</v>
+        <v>100.0199999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5119,6 +5239,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5140,7 +5261,7 @@
         <v>1140.4981</v>
       </c>
       <c r="G128" t="n">
-        <v>124473.2256</v>
+        <v>99.61999999999989</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5154,6 +5275,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5175,7 +5297,7 @@
         <v>7528.215273786408</v>
       </c>
       <c r="G129" t="n">
-        <v>132001.4408737864</v>
+        <v>99.81999999999989</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5189,6 +5311,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5210,7 +5333,7 @@
         <v>400.7287</v>
       </c>
       <c r="G130" t="n">
-        <v>131600.7121737864</v>
+        <v>100.1999999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5224,6 +5347,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5245,7 +5369,7 @@
         <v>108.2713</v>
       </c>
       <c r="G131" t="n">
-        <v>131600.7121737864</v>
+        <v>100.5999999999999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5259,6 +5383,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5280,7 +5405,7 @@
         <v>12060.2221</v>
       </c>
       <c r="G132" t="n">
-        <v>119540.4900737864</v>
+        <v>100.7999999999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5294,6 +5419,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5315,7 +5441,7 @@
         <v>608</v>
       </c>
       <c r="G133" t="n">
-        <v>119540.4900737864</v>
+        <v>100.9999999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5329,6 +5455,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5350,7 +5477,7 @@
         <v>8425.974899999999</v>
       </c>
       <c r="G134" t="n">
-        <v>111114.5151737864</v>
+        <v>100.1999999999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5364,6 +5491,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5385,7 +5513,7 @@
         <v>750</v>
       </c>
       <c r="G135" t="n">
-        <v>111114.5151737864</v>
+        <v>99.79999999999988</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5399,6 +5527,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5420,7 +5549,7 @@
         <v>1995</v>
       </c>
       <c r="G136" t="n">
-        <v>113109.5151737864</v>
+        <v>99.41999999999989</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5434,6 +5563,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5455,7 +5585,7 @@
         <v>21643.5413</v>
       </c>
       <c r="G137" t="n">
-        <v>91465.97387378637</v>
+        <v>98.87999999999988</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5469,6 +5599,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5490,7 +5621,7 @@
         <v>12910.7505</v>
       </c>
       <c r="G138" t="n">
-        <v>78555.22337378637</v>
+        <v>98.09999999999988</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5504,6 +5635,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5525,7 +5657,7 @@
         <v>1894.642</v>
       </c>
       <c r="G139" t="n">
-        <v>76660.58137378636</v>
+        <v>97.49999999999989</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5539,6 +5671,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5560,7 +5693,7 @@
         <v>31353.7593</v>
       </c>
       <c r="G140" t="n">
-        <v>45306.82207378636</v>
+        <v>96.53999999999989</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5574,6 +5707,7 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5595,7 +5729,7 @@
         <v>19514.4583</v>
       </c>
       <c r="G141" t="n">
-        <v>64821.28037378636</v>
+        <v>95.8599999999999</v>
       </c>
       <c r="H141" t="n">
         <v>1</v>
@@ -5613,6 +5747,7 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5634,7 +5769,7 @@
         <v>1008</v>
       </c>
       <c r="G142" t="n">
-        <v>63813.28037378636</v>
+        <v>95.35999999999989</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5654,6 +5789,7 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest ELF.xlsx
+++ b/BackTest/2019-10-26 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="C2" t="n">
-        <v>96.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D2" t="n">
         <v>96.8</v>
       </c>
       <c r="E2" t="n">
-        <v>96.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>12556.2809</v>
+        <v>3739.6403</v>
       </c>
       <c r="G2" t="n">
-        <v>95.97999999999993</v>
+        <v>89700.70239999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>97</v>
+        <v>95.7</v>
       </c>
       <c r="C3" t="n">
-        <v>98.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="D3" t="n">
-        <v>98.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="E3" t="n">
-        <v>97</v>
+        <v>95.7</v>
       </c>
       <c r="F3" t="n">
-        <v>228</v>
+        <v>6253.666</v>
       </c>
       <c r="G3" t="n">
-        <v>96.49999999999993</v>
+        <v>95954.36839999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>98.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="C4" t="n">
-        <v>98.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="D4" t="n">
-        <v>98.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="E4" t="n">
-        <v>98.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1604.9725</v>
+        <v>2764.2733</v>
       </c>
       <c r="G4" t="n">
-        <v>96.97999999999993</v>
+        <v>95954.36839999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>97.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>97.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>97.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>97.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>366.457</v>
+        <v>29800.7531</v>
       </c>
       <c r="G5" t="n">
-        <v>97.31999999999994</v>
+        <v>66153.61529999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,31 +602,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>98.2</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>96.59999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>98.2</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>96.59999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>1647.9947</v>
+        <v>33.0235</v>
       </c>
       <c r="G6" t="n">
-        <v>97.57999999999994</v>
+        <v>66153.61529999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>95.59999999999999</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,32 +642,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="C7" t="n">
-        <v>96.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="D7" t="n">
-        <v>96.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="E7" t="n">
-        <v>96.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="F7" t="n">
-        <v>2033.9999</v>
+        <v>736.3991</v>
       </c>
       <c r="G7" t="n">
-        <v>97.57999999999993</v>
+        <v>66890.01439999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="K7" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +686,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="C8" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="D8" t="n">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="E8" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>2259.0377</v>
+        <v>10055.9273</v>
       </c>
       <c r="G8" t="n">
-        <v>96.95999999999992</v>
+        <v>56834.08709999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>97</v>
+      </c>
+      <c r="K8" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,31 +730,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>95</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>94.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>750</v>
+        <v>335.8951</v>
       </c>
       <c r="G9" t="n">
-        <v>96.21999999999994</v>
+        <v>56498.19199999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>96.5</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -726,32 +770,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96.2</v>
+        <v>95</v>
       </c>
       <c r="C10" t="n">
-        <v>96.2</v>
+        <v>94.2</v>
       </c>
       <c r="D10" t="n">
-        <v>96.2</v>
+        <v>95</v>
       </c>
       <c r="E10" t="n">
-        <v>96.2</v>
+        <v>94.2</v>
       </c>
       <c r="F10" t="n">
-        <v>150</v>
+        <v>1250.7635</v>
       </c>
       <c r="G10" t="n">
-        <v>95.91999999999994</v>
+        <v>55247.42849999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="K10" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +814,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>96.09999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>96.09999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>96.09999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>96.09999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>955</v>
+        <v>9114</v>
       </c>
       <c r="G11" t="n">
-        <v>95.81999999999994</v>
+        <v>64361.42849999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +858,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96.7</v>
+        <v>95.2</v>
       </c>
       <c r="C12" t="n">
-        <v>96.7</v>
+        <v>95.2</v>
       </c>
       <c r="D12" t="n">
-        <v>96.7</v>
+        <v>95.2</v>
       </c>
       <c r="E12" t="n">
-        <v>96.7</v>
+        <v>95.2</v>
       </c>
       <c r="F12" t="n">
-        <v>564.0952</v>
+        <v>10044.8319</v>
       </c>
       <c r="G12" t="n">
-        <v>95.83999999999995</v>
+        <v>74406.26039999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="K12" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +902,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>96.7</v>
+        <v>94.5</v>
       </c>
       <c r="C13" t="n">
-        <v>96.7</v>
+        <v>94.5</v>
       </c>
       <c r="D13" t="n">
-        <v>96.7</v>
+        <v>94.5</v>
       </c>
       <c r="E13" t="n">
-        <v>96.7</v>
+        <v>94.5</v>
       </c>
       <c r="F13" t="n">
-        <v>522.7718</v>
+        <v>301.285</v>
       </c>
       <c r="G13" t="n">
-        <v>96.07999999999996</v>
+        <v>74104.97539999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +946,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>97.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>97.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>97.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>97.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>9385.9193</v>
+        <v>810.2021999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>96.69999999999995</v>
+        <v>74915.17759999998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +990,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>98.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>98.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>98.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>98.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>1200</v>
+        <v>48327.7959</v>
       </c>
       <c r="G15" t="n">
-        <v>97.11999999999995</v>
+        <v>74915.17759999998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="K15" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1034,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>99.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>99.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>99.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>99.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>44</v>
+        <v>5760.036</v>
       </c>
       <c r="G16" t="n">
-        <v>97.77999999999994</v>
+        <v>74915.17759999998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="K16" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1078,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>99.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>99.59999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>99.59999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>99.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>3669.6398</v>
+        <v>15912.168</v>
       </c>
       <c r="G17" t="n">
-        <v>98.35999999999996</v>
+        <v>74915.17759999998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="K17" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,32 +1122,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>99.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>99.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>99.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>99.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>23026.8717</v>
+        <v>0.0001</v>
       </c>
       <c r="G18" t="n">
-        <v>98.95999999999995</v>
+        <v>74915.17759999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="K18" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1166,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>99.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>99.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>99.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>99.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>72297.3826</v>
+        <v>9631.0939</v>
       </c>
       <c r="G19" t="n">
-        <v>99.33999999999995</v>
+        <v>84546.27149999997</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1190,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1208,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>99.7</v>
+        <v>95.2</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>95.2</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>95.2</v>
       </c>
       <c r="E20" t="n">
-        <v>99.7</v>
+        <v>95.2</v>
       </c>
       <c r="F20" t="n">
-        <v>58708.2353</v>
+        <v>776.0073</v>
       </c>
       <c r="G20" t="n">
-        <v>99.67999999999996</v>
+        <v>85322.27879999997</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1232,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1250,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>99.90000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>99.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>99.90000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>99.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>79302.9371</v>
+        <v>368.3048</v>
       </c>
       <c r="G21" t="n">
-        <v>99.75999999999996</v>
+        <v>85690.58359999997</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1274,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1292,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>99.8</v>
+        <v>96</v>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E22" t="n">
-        <v>99.8</v>
+        <v>96</v>
       </c>
       <c r="F22" t="n">
-        <v>12658.6015</v>
+        <v>53.302</v>
       </c>
       <c r="G22" t="n">
-        <v>99.83999999999996</v>
+        <v>85743.88559999997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1316,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1334,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C23" t="n">
-        <v>99.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E23" t="n">
-        <v>99.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="F23" t="n">
-        <v>13086.9966</v>
+        <v>53.302</v>
       </c>
       <c r="G23" t="n">
-        <v>99.87999999999997</v>
+        <v>85743.88559999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1358,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1376,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>99.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="C24" t="n">
-        <v>99.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="D24" t="n">
-        <v>99.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="E24" t="n">
-        <v>99.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="F24" t="n">
-        <v>2083.1828</v>
+        <v>323.622</v>
       </c>
       <c r="G24" t="n">
-        <v>99.91999999999997</v>
+        <v>85420.26359999996</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1400,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1418,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>99</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>99</v>
+        <v>95.3</v>
       </c>
       <c r="F25" t="n">
-        <v>60</v>
+        <v>2510.5823</v>
       </c>
       <c r="G25" t="n">
-        <v>99.91999999999999</v>
+        <v>87930.84589999996</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1442,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1460,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>100</v>
+        <v>95.2</v>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
+        <v>96.2</v>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>96.2</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
+        <v>95.2</v>
       </c>
       <c r="F26" t="n">
-        <v>1057</v>
+        <v>9675.0162</v>
       </c>
       <c r="G26" t="n">
-        <v>99.95999999999998</v>
+        <v>97605.86209999995</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1484,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1502,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>99.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="C27" t="n">
-        <v>99.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="D27" t="n">
-        <v>99.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="E27" t="n">
-        <v>99.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="F27" t="n">
-        <v>2310</v>
+        <v>280</v>
       </c>
       <c r="G27" t="n">
-        <v>99.93999999999998</v>
+        <v>97325.86209999995</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1526,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1544,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>99.8</v>
+        <v>96</v>
       </c>
       <c r="C28" t="n">
-        <v>99.8</v>
+        <v>96</v>
       </c>
       <c r="D28" t="n">
-        <v>99.8</v>
+        <v>96</v>
       </c>
       <c r="E28" t="n">
-        <v>99.8</v>
+        <v>96</v>
       </c>
       <c r="F28" t="n">
-        <v>23287</v>
+        <v>103</v>
       </c>
       <c r="G28" t="n">
-        <v>99.91999999999999</v>
+        <v>97325.86209999995</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1568,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1586,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>99.8</v>
+        <v>96</v>
       </c>
       <c r="C29" t="n">
-        <v>99.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="D29" t="n">
-        <v>99.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="E29" t="n">
-        <v>99.8</v>
+        <v>96</v>
       </c>
       <c r="F29" t="n">
-        <v>10243.3958</v>
+        <v>103</v>
       </c>
       <c r="G29" t="n">
-        <v>99.91999999999999</v>
+        <v>97325.86209999995</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1610,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1628,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>99.8</v>
+        <v>95.3</v>
       </c>
       <c r="C30" t="n">
-        <v>99.8</v>
+        <v>95.3</v>
       </c>
       <c r="D30" t="n">
-        <v>99.8</v>
+        <v>95.3</v>
       </c>
       <c r="E30" t="n">
-        <v>99.8</v>
+        <v>95.3</v>
       </c>
       <c r="F30" t="n">
-        <v>17950</v>
+        <v>325.575</v>
       </c>
       <c r="G30" t="n">
-        <v>99.87999999999997</v>
+        <v>97000.28709999996</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1652,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1670,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>99.8</v>
+        <v>96.7</v>
       </c>
       <c r="C31" t="n">
-        <v>99.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>99.8</v>
+        <v>96.8</v>
       </c>
       <c r="E31" t="n">
-        <v>99.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>10000</v>
+        <v>12556.2809</v>
       </c>
       <c r="G31" t="n">
-        <v>99.83999999999996</v>
+        <v>109556.568</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1694,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1712,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>99.8</v>
+        <v>97</v>
       </c>
       <c r="C32" t="n">
-        <v>99.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>99.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>99.8</v>
+        <v>97</v>
       </c>
       <c r="F32" t="n">
-        <v>10850</v>
+        <v>228</v>
       </c>
       <c r="G32" t="n">
-        <v>99.81999999999996</v>
+        <v>109784.568</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1736,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1754,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>99.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>99.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>99.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>99.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>2145.4408</v>
+        <v>1604.9725</v>
       </c>
       <c r="G33" t="n">
-        <v>99.81999999999995</v>
+        <v>108179.5955</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1778,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1796,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>99.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>99.8</v>
+        <v>97.7</v>
       </c>
       <c r="D34" t="n">
-        <v>99.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>99.8</v>
+        <v>97.7</v>
       </c>
       <c r="F34" t="n">
-        <v>1049.8249</v>
+        <v>366.457</v>
       </c>
       <c r="G34" t="n">
-        <v>99.79999999999995</v>
+        <v>107813.1385</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1820,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1838,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>99.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C35" t="n">
-        <v>100</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="E35" t="n">
-        <v>99.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>24241.1278</v>
+        <v>1647.9947</v>
       </c>
       <c r="G35" t="n">
-        <v>99.83999999999995</v>
+        <v>106165.1438</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1862,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1880,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>100</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>99</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>100</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>99</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>9142.77</v>
+        <v>2033.9999</v>
       </c>
       <c r="G36" t="n">
-        <v>99.67999999999996</v>
+        <v>106165.1438</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1904,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1922,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>99.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>98.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="D37" t="n">
-        <v>99.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>98</v>
+        <v>95.5</v>
       </c>
       <c r="F37" t="n">
-        <v>2057</v>
+        <v>2259.0377</v>
       </c>
       <c r="G37" t="n">
-        <v>99.33999999999995</v>
+        <v>103906.1061</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1946,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1964,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>99.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="C38" t="n">
-        <v>101</v>
+        <v>94.7</v>
       </c>
       <c r="D38" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E38" t="n">
-        <v>99.90000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="F38" t="n">
-        <v>9435.2479</v>
+        <v>750</v>
       </c>
       <c r="G38" t="n">
-        <v>99.57999999999996</v>
+        <v>103156.1061</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1988,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +2006,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>100</v>
+        <v>96.2</v>
       </c>
       <c r="C39" t="n">
-        <v>100</v>
+        <v>96.2</v>
       </c>
       <c r="D39" t="n">
-        <v>100</v>
+        <v>96.2</v>
       </c>
       <c r="E39" t="n">
-        <v>100</v>
+        <v>96.2</v>
       </c>
       <c r="F39" t="n">
-        <v>601</v>
+        <v>150</v>
       </c>
       <c r="G39" t="n">
-        <v>99.61999999999998</v>
+        <v>103306.1061</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +2030,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +2048,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>99.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>99.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>99.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>98.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>10584.4583</v>
+        <v>955</v>
       </c>
       <c r="G40" t="n">
-        <v>99.45999999999997</v>
+        <v>102351.1061</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2072,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2090,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>98.2</v>
+        <v>96.7</v>
       </c>
       <c r="C41" t="n">
-        <v>98.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="D41" t="n">
-        <v>98.2</v>
+        <v>96.7</v>
       </c>
       <c r="E41" t="n">
-        <v>98.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="F41" t="n">
-        <v>750</v>
+        <v>564.0952</v>
       </c>
       <c r="G41" t="n">
-        <v>99.27999999999997</v>
+        <v>102915.2013</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2114,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2132,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>98</v>
+        <v>96.7</v>
       </c>
       <c r="C42" t="n">
-        <v>98</v>
+        <v>96.7</v>
       </c>
       <c r="D42" t="n">
-        <v>98</v>
+        <v>96.7</v>
       </c>
       <c r="E42" t="n">
-        <v>98</v>
+        <v>96.7</v>
       </c>
       <c r="F42" t="n">
-        <v>991.7303000000001</v>
+        <v>522.7718</v>
       </c>
       <c r="G42" t="n">
-        <v>99.25999999999996</v>
+        <v>102915.2013</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1902,8 +2156,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2174,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>99</v>
+        <v>97.7</v>
       </c>
       <c r="C43" t="n">
-        <v>99</v>
+        <v>97.8</v>
       </c>
       <c r="D43" t="n">
-        <v>99</v>
+        <v>97.8</v>
       </c>
       <c r="E43" t="n">
-        <v>99</v>
+        <v>97.7</v>
       </c>
       <c r="F43" t="n">
-        <v>1500</v>
+        <v>9385.9193</v>
       </c>
       <c r="G43" t="n">
-        <v>98.85999999999997</v>
+        <v>112301.1206</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1938,8 +2198,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1962,10 +2228,10 @@
         <v>98.3</v>
       </c>
       <c r="F44" t="n">
-        <v>56.3913</v>
+        <v>1200</v>
       </c>
       <c r="G44" t="n">
-        <v>98.51999999999995</v>
+        <v>113501.1206</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,8 +2240,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2258,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>98.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>98.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>98.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>98.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>3661.9174</v>
+        <v>44</v>
       </c>
       <c r="G45" t="n">
-        <v>98.29999999999997</v>
+        <v>113545.1206</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2010,8 +2282,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2300,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>98.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>98.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>4602.639</v>
+        <v>3669.6398</v>
       </c>
       <c r="G46" t="n">
-        <v>98.29999999999995</v>
+        <v>117214.7604</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2046,8 +2324,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2342,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="C47" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="D47" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="E47" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="F47" t="n">
-        <v>489.7294</v>
+        <v>23026.8717</v>
       </c>
       <c r="G47" t="n">
-        <v>98.31999999999996</v>
+        <v>140241.6321</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,8 +2366,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2384,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>98</v>
+        <v>99.7</v>
       </c>
       <c r="C48" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="D48" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="E48" t="n">
-        <v>98</v>
+        <v>99.7</v>
       </c>
       <c r="F48" t="n">
-        <v>3612.6388</v>
+        <v>72297.3826</v>
       </c>
       <c r="G48" t="n">
-        <v>98.13999999999996</v>
+        <v>140241.6321</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,8 +2408,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2426,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="C49" t="n">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="D49" t="n">
-        <v>98.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="E49" t="n">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="F49" t="n">
-        <v>2683.8675</v>
+        <v>58708.2353</v>
       </c>
       <c r="G49" t="n">
-        <v>98.09999999999997</v>
+        <v>198949.8674</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2154,8 +2450,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2468,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>98.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>97.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D50" t="n">
-        <v>98.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>97.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="F50" t="n">
-        <v>2682.858</v>
+        <v>79302.9371</v>
       </c>
       <c r="G50" t="n">
-        <v>97.95999999999997</v>
+        <v>119646.9303</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2190,8 +2492,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2510,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>98.7</v>
+        <v>99.8</v>
       </c>
       <c r="C51" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="D51" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="E51" t="n">
-        <v>98.7</v>
+        <v>99.8</v>
       </c>
       <c r="F51" t="n">
-        <v>3050</v>
+        <v>12658.6015</v>
       </c>
       <c r="G51" t="n">
-        <v>98.19999999999996</v>
+        <v>132305.5318</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2226,8 +2534,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2552,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>97.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="C52" t="n">
-        <v>97.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>97.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="E52" t="n">
-        <v>97.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>260.676</v>
+        <v>13086.9966</v>
       </c>
       <c r="G52" t="n">
-        <v>97.99999999999996</v>
+        <v>119218.5352</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2262,8 +2576,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2594,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>97.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>97.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>97.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>97.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>1639</v>
+        <v>2083.1828</v>
       </c>
       <c r="G53" t="n">
-        <v>97.87999999999995</v>
+        <v>119218.5352</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2298,8 +2618,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2636,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>97.2</v>
+        <v>99</v>
       </c>
       <c r="C54" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D54" t="n">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="E54" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F54" t="n">
-        <v>2140.0772</v>
+        <v>60</v>
       </c>
       <c r="G54" t="n">
-        <v>97.65999999999994</v>
+        <v>119278.5352</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2334,8 +2660,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2678,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="C55" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="D55" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="E55" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="F55" t="n">
-        <v>541</v>
+        <v>1057</v>
       </c>
       <c r="G55" t="n">
-        <v>97.83999999999995</v>
+        <v>119278.5352</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2370,8 +2702,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2720,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>97.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>97.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>97.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>97.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>294.807</v>
+        <v>2310</v>
       </c>
       <c r="G56" t="n">
-        <v>97.43999999999993</v>
+        <v>116968.5352</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2406,8 +2744,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,22 +2762,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>97.2</v>
+        <v>99.8</v>
       </c>
       <c r="C57" t="n">
-        <v>97.2</v>
+        <v>99.8</v>
       </c>
       <c r="D57" t="n">
-        <v>97.2</v>
+        <v>99.8</v>
       </c>
       <c r="E57" t="n">
-        <v>97.2</v>
+        <v>99.8</v>
       </c>
       <c r="F57" t="n">
-        <v>4028.672</v>
+        <v>23287</v>
       </c>
       <c r="G57" t="n">
-        <v>97.45999999999992</v>
+        <v>93681.53519999997</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2442,8 +2786,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,22 +2804,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>97.2</v>
+        <v>99.8</v>
       </c>
       <c r="C58" t="n">
-        <v>96</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>97.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>96</v>
+        <v>99.8</v>
       </c>
       <c r="F58" t="n">
-        <v>12566.4512</v>
+        <v>10243.3958</v>
       </c>
       <c r="G58" t="n">
-        <v>97.15999999999993</v>
+        <v>103924.931</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2478,8 +2828,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2846,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>95.8</v>
+        <v>99.8</v>
       </c>
       <c r="C59" t="n">
-        <v>95.5</v>
+        <v>99.8</v>
       </c>
       <c r="D59" t="n">
-        <v>95.8</v>
+        <v>99.8</v>
       </c>
       <c r="E59" t="n">
-        <v>95.5</v>
+        <v>99.8</v>
       </c>
       <c r="F59" t="n">
-        <v>1312.0298</v>
+        <v>17950</v>
       </c>
       <c r="G59" t="n">
-        <v>96.85999999999993</v>
+        <v>85974.93099999997</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2514,8 +2870,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,36 +2888,38 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>95.5</v>
+        <v>99.8</v>
       </c>
       <c r="C60" t="n">
-        <v>95.5</v>
+        <v>99.8</v>
       </c>
       <c r="D60" t="n">
-        <v>95.5</v>
+        <v>99.8</v>
       </c>
       <c r="E60" t="n">
-        <v>95.5</v>
+        <v>99.8</v>
       </c>
       <c r="F60" t="n">
-        <v>4131.6634</v>
+        <v>10000</v>
       </c>
       <c r="G60" t="n">
-        <v>96.29999999999993</v>
+        <v>85974.93099999997</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>95.5</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="L60" t="inlineStr"/>
+        <v>96.5</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2566,38 +2930,36 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="C61" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="D61" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="E61" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="F61" t="n">
-        <v>4345.6932</v>
+        <v>10850</v>
       </c>
       <c r="G61" t="n">
-        <v>95.89999999999992</v>
+        <v>85974.93099999997</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>95.5</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2610,38 +2972,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="C62" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="D62" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="E62" t="n">
-        <v>95.3</v>
+        <v>99.8</v>
       </c>
       <c r="F62" t="n">
-        <v>2069.693</v>
+        <v>2145.4408</v>
       </c>
       <c r="G62" t="n">
-        <v>95.51999999999992</v>
+        <v>85974.93099999997</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>95.3</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -2654,38 +3014,36 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>95.2</v>
+        <v>99.8</v>
       </c>
       <c r="C63" t="n">
-        <v>95</v>
+        <v>99.8</v>
       </c>
       <c r="D63" t="n">
-        <v>95.2</v>
+        <v>99.8</v>
       </c>
       <c r="E63" t="n">
-        <v>95</v>
+        <v>99.8</v>
       </c>
       <c r="F63" t="n">
-        <v>864.121</v>
+        <v>1049.8249</v>
       </c>
       <c r="G63" t="n">
-        <v>95.31999999999994</v>
+        <v>85974.93099999997</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>95.3</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -2698,34 +3056,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>97.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>97.8</v>
+        <v>100</v>
       </c>
       <c r="D64" t="n">
-        <v>97.8</v>
+        <v>100</v>
       </c>
       <c r="E64" t="n">
-        <v>97.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>1018.0643</v>
+        <v>24241.1278</v>
       </c>
       <c r="G64" t="n">
-        <v>95.77999999999993</v>
+        <v>110216.0588</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>95</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2742,22 +3098,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C65" t="n">
-        <v>95.3</v>
+        <v>99</v>
       </c>
       <c r="D65" t="n">
-        <v>95.3</v>
+        <v>100</v>
       </c>
       <c r="E65" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F65" t="n">
-        <v>1061.6289</v>
+        <v>9142.77</v>
       </c>
       <c r="G65" t="n">
-        <v>95.73999999999992</v>
+        <v>101073.2888</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2767,7 +3123,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2784,22 +3140,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>95.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>95.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>95.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>95.7</v>
+        <v>98</v>
       </c>
       <c r="F66" t="n">
-        <v>475.768</v>
+        <v>2057</v>
       </c>
       <c r="G66" t="n">
-        <v>95.81999999999992</v>
+        <v>99016.28879999997</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2809,7 +3165,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2826,22 +3182,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>96.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>96.3</v>
+        <v>101</v>
       </c>
       <c r="D67" t="n">
-        <v>96.3</v>
+        <v>101</v>
       </c>
       <c r="E67" t="n">
-        <v>96.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>9435.2479</v>
       </c>
       <c r="G67" t="n">
-        <v>96.01999999999992</v>
+        <v>108451.5367</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2851,7 +3207,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2868,22 +3224,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>97.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C68" t="n">
-        <v>97.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D68" t="n">
-        <v>97.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E68" t="n">
-        <v>97.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F68" t="n">
-        <v>4231.811</v>
+        <v>601</v>
       </c>
       <c r="G68" t="n">
-        <v>96.59999999999994</v>
+        <v>107850.5367</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2893,7 +3249,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2910,22 +3266,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>98.2</v>
+        <v>99.2</v>
       </c>
       <c r="C69" t="n">
-        <v>98.5</v>
+        <v>99.2</v>
       </c>
       <c r="D69" t="n">
-        <v>98.5</v>
+        <v>99.2</v>
       </c>
       <c r="E69" t="n">
         <v>98.2</v>
       </c>
       <c r="F69" t="n">
-        <v>3000</v>
+        <v>10584.4583</v>
       </c>
       <c r="G69" t="n">
-        <v>96.73999999999992</v>
+        <v>97266.07839999997</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2935,7 +3291,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -2952,22 +3308,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="C70" t="n">
-        <v>98.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="E70" t="n">
-        <v>98.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>2100</v>
+        <v>750</v>
       </c>
       <c r="G70" t="n">
-        <v>97.37999999999991</v>
+        <v>96516.07839999997</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2977,7 +3333,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -2994,22 +3350,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="C71" t="n">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="D71" t="n">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="E71" t="n">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="F71" t="n">
-        <v>2900</v>
+        <v>991.7303000000001</v>
       </c>
       <c r="G71" t="n">
-        <v>97.93999999999993</v>
+        <v>95524.34809999997</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3019,7 +3375,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3036,22 +3392,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>98.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="C72" t="n">
-        <v>98.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="D72" t="n">
-        <v>98.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="E72" t="n">
-        <v>98.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="F72" t="n">
-        <v>54.3642</v>
+        <v>1500</v>
       </c>
       <c r="G72" t="n">
-        <v>98.29999999999993</v>
+        <v>97024.34809999997</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3061,7 +3417,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3078,22 +3434,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>99</v>
+        <v>98.3</v>
       </c>
       <c r="C73" t="n">
-        <v>99.5</v>
+        <v>98.3</v>
       </c>
       <c r="D73" t="n">
-        <v>99.5</v>
+        <v>98.3</v>
       </c>
       <c r="E73" t="n">
-        <v>99</v>
+        <v>98.3</v>
       </c>
       <c r="F73" t="n">
-        <v>5695.3993</v>
+        <v>56.3913</v>
       </c>
       <c r="G73" t="n">
-        <v>98.61999999999992</v>
+        <v>96967.95679999997</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3103,7 +3459,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3120,22 +3476,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>99.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>99.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>1948.2769</v>
+        <v>3661.9174</v>
       </c>
       <c r="G74" t="n">
-        <v>98.81999999999991</v>
+        <v>93306.03939999997</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3145,7 +3501,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3162,22 +3518,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>99.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>99.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>99.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>99.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>1228</v>
+        <v>4602.639</v>
       </c>
       <c r="G75" t="n">
-        <v>99.0799999999999</v>
+        <v>93306.03939999997</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3187,7 +3543,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3204,22 +3560,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>99.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>99.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>99.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>99.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>8500.320299999999</v>
+        <v>489.7294</v>
       </c>
       <c r="G76" t="n">
-        <v>99.3599999999999</v>
+        <v>93306.03939999997</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3229,7 +3585,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3246,22 +3602,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C77" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F77" t="n">
-        <v>4577.05</v>
+        <v>3612.6388</v>
       </c>
       <c r="G77" t="n">
-        <v>99.7399999999999</v>
+        <v>93306.03939999997</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3271,7 +3627,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3288,22 +3644,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>101</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>101</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>1500</v>
+        <v>2683.8675</v>
       </c>
       <c r="G78" t="n">
-        <v>100.0399999999999</v>
+        <v>93306.03939999997</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3313,7 +3669,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3330,22 +3686,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>100</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>100</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>3000</v>
+        <v>2682.858</v>
       </c>
       <c r="G79" t="n">
-        <v>100.1399999999999</v>
+        <v>90623.18139999997</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3355,7 +3711,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3372,22 +3728,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="C80" t="n">
-        <v>101</v>
+        <v>99.3</v>
       </c>
       <c r="D80" t="n">
-        <v>101</v>
+        <v>99.3</v>
       </c>
       <c r="E80" t="n">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="F80" t="n">
-        <v>1008.6738</v>
+        <v>3050</v>
       </c>
       <c r="G80" t="n">
-        <v>100.3799999999999</v>
+        <v>93673.18139999997</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3397,7 +3753,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3414,22 +3770,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>100</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>100</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>100</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>100</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>10600</v>
+        <v>260.676</v>
       </c>
       <c r="G81" t="n">
-        <v>100.3999999999999</v>
+        <v>93412.50539999997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3439,7 +3795,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3456,22 +3812,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="C82" t="n">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="D82" t="n">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="E82" t="n">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="F82" t="n">
-        <v>5000</v>
+        <v>1639</v>
       </c>
       <c r="G82" t="n">
-        <v>100.3999999999999</v>
+        <v>95051.50539999997</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3481,7 +3837,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3498,22 +3854,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>99.2</v>
+        <v>97.2</v>
       </c>
       <c r="C83" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D83" t="n">
-        <v>99.2</v>
+        <v>97.2</v>
       </c>
       <c r="E83" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F83" t="n">
-        <v>8479.0695</v>
+        <v>2140.0772</v>
       </c>
       <c r="G83" t="n">
-        <v>99.99999999999989</v>
+        <v>92911.42819999997</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3523,7 +3879,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3540,22 +3896,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="C84" t="n">
-        <v>101</v>
+        <v>98.3</v>
       </c>
       <c r="D84" t="n">
-        <v>101</v>
+        <v>98.3</v>
       </c>
       <c r="E84" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="F84" t="n">
-        <v>1692.7501</v>
+        <v>541</v>
       </c>
       <c r="G84" t="n">
-        <v>100.1999999999999</v>
+        <v>93452.42819999997</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3565,7 +3921,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3582,22 +3938,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>101</v>
+        <v>97.3</v>
       </c>
       <c r="C85" t="n">
-        <v>101</v>
+        <v>97.3</v>
       </c>
       <c r="D85" t="n">
-        <v>101</v>
+        <v>97.3</v>
       </c>
       <c r="E85" t="n">
-        <v>101</v>
+        <v>97.3</v>
       </c>
       <c r="F85" t="n">
-        <v>2200</v>
+        <v>294.807</v>
       </c>
       <c r="G85" t="n">
-        <v>100.1999999999999</v>
+        <v>93157.62119999997</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3607,7 +3963,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3624,22 +3980,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="C86" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="D86" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="E86" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="F86" t="n">
-        <v>4650</v>
+        <v>4028.672</v>
       </c>
       <c r="G86" t="n">
-        <v>100.3999999999999</v>
+        <v>89128.94919999996</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3649,7 +4005,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3666,22 +4022,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="C87" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D87" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="E87" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F87" t="n">
-        <v>1027.1346</v>
+        <v>12566.4512</v>
       </c>
       <c r="G87" t="n">
-        <v>100.5999999999999</v>
+        <v>76562.49799999996</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3691,7 +4047,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3708,22 +4064,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>101</v>
+        <v>95.8</v>
       </c>
       <c r="C88" t="n">
-        <v>101</v>
+        <v>95.5</v>
       </c>
       <c r="D88" t="n">
-        <v>101</v>
+        <v>95.8</v>
       </c>
       <c r="E88" t="n">
-        <v>101</v>
+        <v>95.5</v>
       </c>
       <c r="F88" t="n">
-        <v>800</v>
+        <v>1312.0298</v>
       </c>
       <c r="G88" t="n">
-        <v>100.9999999999999</v>
+        <v>75250.46819999996</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3733,7 +4089,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3750,22 +4106,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>101</v>
+        <v>95.5</v>
       </c>
       <c r="C89" t="n">
-        <v>102</v>
+        <v>95.5</v>
       </c>
       <c r="D89" t="n">
-        <v>102</v>
+        <v>95.5</v>
       </c>
       <c r="E89" t="n">
-        <v>101</v>
+        <v>95.5</v>
       </c>
       <c r="F89" t="n">
-        <v>786</v>
+        <v>4131.6634</v>
       </c>
       <c r="G89" t="n">
-        <v>101.1999999999999</v>
+        <v>75250.46819999996</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3775,7 +4131,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3792,22 +4148,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>101</v>
+        <v>95.3</v>
       </c>
       <c r="C90" t="n">
-        <v>101</v>
+        <v>95.3</v>
       </c>
       <c r="D90" t="n">
-        <v>102</v>
+        <v>95.3</v>
       </c>
       <c r="E90" t="n">
-        <v>101</v>
+        <v>95.3</v>
       </c>
       <c r="F90" t="n">
-        <v>6355.9542</v>
+        <v>4345.6932</v>
       </c>
       <c r="G90" t="n">
-        <v>101.1999999999999</v>
+        <v>70904.77499999997</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3817,7 +4173,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3834,22 +4190,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>102</v>
+        <v>95.3</v>
       </c>
       <c r="C91" t="n">
-        <v>102</v>
+        <v>95.3</v>
       </c>
       <c r="D91" t="n">
-        <v>102</v>
+        <v>95.3</v>
       </c>
       <c r="E91" t="n">
-        <v>102</v>
+        <v>95.3</v>
       </c>
       <c r="F91" t="n">
-        <v>600</v>
+        <v>2069.693</v>
       </c>
       <c r="G91" t="n">
-        <v>101.3999999999999</v>
+        <v>70904.77499999997</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3859,7 +4215,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3876,22 +4232,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>102</v>
+        <v>95.2</v>
       </c>
       <c r="C92" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D92" t="n">
-        <v>102</v>
+        <v>95.2</v>
       </c>
       <c r="E92" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F92" t="n">
-        <v>16350</v>
+        <v>864.121</v>
       </c>
       <c r="G92" t="n">
-        <v>101.5999999999999</v>
+        <v>70040.65399999997</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3901,7 +4257,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3918,22 +4274,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>102</v>
+        <v>97.8</v>
       </c>
       <c r="C93" t="n">
-        <v>102</v>
+        <v>97.8</v>
       </c>
       <c r="D93" t="n">
-        <v>102</v>
+        <v>97.8</v>
       </c>
       <c r="E93" t="n">
-        <v>102</v>
+        <v>97.8</v>
       </c>
       <c r="F93" t="n">
-        <v>2278</v>
+        <v>1018.0643</v>
       </c>
       <c r="G93" t="n">
-        <v>101.7999999999999</v>
+        <v>71058.71829999996</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3943,7 +4299,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3960,22 +4316,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C94" t="n">
-        <v>103</v>
+        <v>95.3</v>
       </c>
       <c r="D94" t="n">
-        <v>103</v>
+        <v>95.3</v>
       </c>
       <c r="E94" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F94" t="n">
-        <v>41961.7025</v>
+        <v>1061.6289</v>
       </c>
       <c r="G94" t="n">
-        <v>101.9999999999999</v>
+        <v>69997.08939999997</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3985,7 +4341,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4002,22 +4358,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>102</v>
+        <v>95.7</v>
       </c>
       <c r="C95" t="n">
-        <v>102</v>
+        <v>95.7</v>
       </c>
       <c r="D95" t="n">
-        <v>102</v>
+        <v>95.7</v>
       </c>
       <c r="E95" t="n">
-        <v>102</v>
+        <v>95.7</v>
       </c>
       <c r="F95" t="n">
-        <v>21.945</v>
+        <v>475.768</v>
       </c>
       <c r="G95" t="n">
-        <v>102.1999999999999</v>
+        <v>70472.85739999996</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4027,7 +4383,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4044,22 +4400,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>102</v>
+        <v>96.3</v>
       </c>
       <c r="C96" t="n">
-        <v>102</v>
+        <v>96.3</v>
       </c>
       <c r="D96" t="n">
-        <v>102</v>
+        <v>96.3</v>
       </c>
       <c r="E96" t="n">
-        <v>102</v>
+        <v>96.3</v>
       </c>
       <c r="F96" t="n">
-        <v>8378.2983</v>
+        <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>102.1999999999999</v>
+        <v>70482.85739999996</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4069,7 +4425,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4086,22 +4442,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>102</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>102</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>102</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>102</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>1418.9557</v>
+        <v>4231.811</v>
       </c>
       <c r="G97" t="n">
-        <v>102.1999999999999</v>
+        <v>74714.66839999997</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4111,7 +4467,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4128,22 +4484,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>102</v>
+        <v>98.2</v>
       </c>
       <c r="C98" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="D98" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="E98" t="n">
-        <v>102</v>
+        <v>98.2</v>
       </c>
       <c r="F98" t="n">
-        <v>1750</v>
+        <v>3000</v>
       </c>
       <c r="G98" t="n">
-        <v>102.3999999999999</v>
+        <v>77714.66839999997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4153,7 +4509,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4170,22 +4526,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="C99" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="D99" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="E99" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="F99" t="n">
-        <v>4700</v>
+        <v>2100</v>
       </c>
       <c r="G99" t="n">
-        <v>102.3999999999999</v>
+        <v>77714.66839999997</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4195,7 +4551,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4212,22 +4568,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="C100" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="D100" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="E100" t="n">
-        <v>103</v>
+        <v>98.5</v>
       </c>
       <c r="F100" t="n">
-        <v>18359.9999</v>
+        <v>2900</v>
       </c>
       <c r="G100" t="n">
-        <v>102.5999999999999</v>
+        <v>77714.66839999997</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4237,7 +4593,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4254,22 +4610,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>103</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>104</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>104</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>103</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>10547</v>
+        <v>54.3642</v>
       </c>
       <c r="G101" t="n">
-        <v>102.9999999999999</v>
+        <v>77660.30419999997</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4279,7 +4635,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4296,22 +4652,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C102" t="n">
-        <v>104</v>
+        <v>99.5</v>
       </c>
       <c r="D102" t="n">
-        <v>104</v>
+        <v>99.5</v>
       </c>
       <c r="E102" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F102" t="n">
-        <v>28661.45835576923</v>
+        <v>5695.3993</v>
       </c>
       <c r="G102" t="n">
-        <v>103.3999999999999</v>
+        <v>83355.70349999997</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4321,7 +4677,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4338,76 +4694,80 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>104</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>104</v>
+        <v>99.5</v>
       </c>
       <c r="D103" t="n">
-        <v>104</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>104</v>
+        <v>99.5</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>1948.2769</v>
       </c>
       <c r="G103" t="n">
-        <v>103.5999999999999</v>
+        <v>83355.70349999997</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>1.084005235602094</v>
-      </c>
-      <c r="N103" t="n">
-        <v>1.066525871172122</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>104</v>
+        <v>99.8</v>
       </c>
       <c r="C104" t="n">
-        <v>104</v>
+        <v>99.8</v>
       </c>
       <c r="D104" t="n">
-        <v>104</v>
+        <v>99.8</v>
       </c>
       <c r="E104" t="n">
-        <v>104</v>
+        <v>99.8</v>
       </c>
       <c r="F104" t="n">
-        <v>11156.2492</v>
+        <v>1228</v>
       </c>
       <c r="G104" t="n">
-        <v>103.7999999999999</v>
+        <v>84583.70349999997</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4418,32 +4778,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>2107.084244230769</v>
+        <v>8500.320299999999</v>
       </c>
       <c r="G105" t="n">
-        <v>103.9999999999999</v>
+        <v>93084.02379999997</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4454,32 +4820,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C106" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D106" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E106" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F106" t="n">
-        <v>3348.3612</v>
+        <v>4577.05</v>
       </c>
       <c r="G106" t="n">
-        <v>103.9999999999999</v>
+        <v>97661.07379999997</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4490,32 +4862,38 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C107" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D107" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E107" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F107" t="n">
-        <v>3660.763155769231</v>
+        <v>1500</v>
       </c>
       <c r="G107" t="n">
-        <v>103.9999999999999</v>
+        <v>99161.07379999997</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4526,32 +4904,38 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C108" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D108" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E108" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>3000</v>
       </c>
       <c r="G108" t="n">
-        <v>104.1999999999999</v>
+        <v>96161.07379999997</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4562,32 +4946,38 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C109" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D109" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E109" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F109" t="n">
-        <v>1201</v>
+        <v>1008.6738</v>
       </c>
       <c r="G109" t="n">
-        <v>104.1999999999999</v>
+        <v>97169.74759999997</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4598,32 +4988,38 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C110" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D110" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E110" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F110" t="n">
-        <v>1473</v>
+        <v>10600</v>
       </c>
       <c r="G110" t="n">
-        <v>104.1999999999999</v>
+        <v>86569.74759999997</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4634,32 +5030,38 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C111" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D111" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E111" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F111" t="n">
-        <v>5701.5679</v>
+        <v>5000</v>
       </c>
       <c r="G111" t="n">
-        <v>104.1999999999999</v>
+        <v>86569.74759999997</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4670,32 +5072,38 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>104</v>
+        <v>99.2</v>
       </c>
       <c r="C112" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D112" t="n">
-        <v>104</v>
+        <v>99.2</v>
       </c>
       <c r="E112" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F112" t="n">
-        <v>7186.76923076923</v>
+        <v>8479.0695</v>
       </c>
       <c r="G112" t="n">
-        <v>104.1999999999999</v>
+        <v>78090.67809999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4706,32 +5114,38 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C113" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D113" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E113" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F113" t="n">
-        <v>8350</v>
+        <v>1692.7501</v>
       </c>
       <c r="G113" t="n">
-        <v>103.7999999999999</v>
+        <v>79783.42819999998</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4742,32 +5156,38 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C114" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D114" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E114" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F114" t="n">
-        <v>8550.3078</v>
+        <v>2200</v>
       </c>
       <c r="G114" t="n">
-        <v>103.5999999999999</v>
+        <v>79783.42819999998</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4778,32 +5198,38 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C115" t="n">
         <v>101</v>
       </c>
       <c r="D115" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E115" t="n">
         <v>101</v>
       </c>
       <c r="F115" t="n">
-        <v>10711</v>
+        <v>4650</v>
       </c>
       <c r="G115" t="n">
-        <v>102.9999999999999</v>
+        <v>79783.42819999998</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4814,22 +5240,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C116" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D116" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E116" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F116" t="n">
-        <v>10911.466</v>
+        <v>1027.1346</v>
       </c>
       <c r="G116" t="n">
-        <v>102.1999999999999</v>
+        <v>79783.42819999998</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4838,8 +5264,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4862,10 +5294,10 @@
         <v>101</v>
       </c>
       <c r="F117" t="n">
-        <v>11487.5097</v>
+        <v>800</v>
       </c>
       <c r="G117" t="n">
-        <v>101.5999999999999</v>
+        <v>79783.42819999998</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4874,8 +5306,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4889,19 +5327,19 @@
         <v>101</v>
       </c>
       <c r="C118" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D118" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E118" t="n">
         <v>101</v>
       </c>
       <c r="F118" t="n">
-        <v>7276</v>
+        <v>786</v>
       </c>
       <c r="G118" t="n">
-        <v>101.1999999999999</v>
+        <v>80569.42819999998</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4910,8 +5348,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4928,16 +5372,16 @@
         <v>101</v>
       </c>
       <c r="D119" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E119" t="n">
         <v>101</v>
       </c>
       <c r="F119" t="n">
-        <v>8913.7001</v>
+        <v>6355.9542</v>
       </c>
       <c r="G119" t="n">
-        <v>100.7999999999999</v>
+        <v>74213.47399999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4946,8 +5390,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4958,22 +5408,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C120" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D120" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E120" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F120" t="n">
-        <v>964.9047</v>
+        <v>600</v>
       </c>
       <c r="G120" t="n">
-        <v>100.7999999999999</v>
+        <v>74813.47399999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4982,8 +5432,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4994,22 +5450,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C121" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D121" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E121" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F121" t="n">
-        <v>192.3077</v>
+        <v>16350</v>
       </c>
       <c r="G121" t="n">
-        <v>100.9999999999999</v>
+        <v>74813.47399999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5018,8 +5474,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5030,22 +5492,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C122" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D122" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E122" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F122" t="n">
-        <v>1000</v>
+        <v>2278</v>
       </c>
       <c r="G122" t="n">
-        <v>100.9999999999999</v>
+        <v>74813.47399999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5054,8 +5516,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5066,22 +5534,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C123" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D123" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E123" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F123" t="n">
-        <v>7201.6923</v>
+        <v>41961.7025</v>
       </c>
       <c r="G123" t="n">
-        <v>100.9999999999999</v>
+        <v>116775.1765</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5090,8 +5558,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5102,7 +5576,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C124" t="n">
         <v>102</v>
@@ -5111,13 +5585,13 @@
         <v>102</v>
       </c>
       <c r="E124" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F124" t="n">
-        <v>20553.9323</v>
+        <v>21.945</v>
       </c>
       <c r="G124" t="n">
-        <v>101.1999999999999</v>
+        <v>116753.2315</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5126,8 +5600,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5138,22 +5618,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C125" t="n">
-        <v>99.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="D125" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E125" t="n">
-        <v>99.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="F125" t="n">
-        <v>322</v>
+        <v>8378.2983</v>
       </c>
       <c r="G125" t="n">
-        <v>100.8199999999999</v>
+        <v>116753.2315</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5162,8 +5642,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5174,22 +5660,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>99.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="C126" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D126" t="n">
-        <v>99.09999999999999</v>
+        <v>102</v>
       </c>
       <c r="E126" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F126" t="n">
-        <v>5132.9819</v>
+        <v>1418.9557</v>
       </c>
       <c r="G126" t="n">
-        <v>100.4199999999999</v>
+        <v>116753.2315</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5198,8 +5684,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5210,22 +5702,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C127" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D127" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E127" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F127" t="n">
-        <v>3000</v>
+        <v>1750</v>
       </c>
       <c r="G127" t="n">
-        <v>100.0199999999999</v>
+        <v>118503.2315</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5234,8 +5726,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5246,22 +5744,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="C128" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D128" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="E128" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F128" t="n">
-        <v>1140.4981</v>
+        <v>4700</v>
       </c>
       <c r="G128" t="n">
-        <v>99.61999999999989</v>
+        <v>118503.2315</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5270,8 +5768,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5282,7 +5786,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C129" t="n">
         <v>103</v>
@@ -5291,13 +5795,13 @@
         <v>103</v>
       </c>
       <c r="E129" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F129" t="n">
-        <v>7528.215273786408</v>
+        <v>18359.9999</v>
       </c>
       <c r="G129" t="n">
-        <v>99.81999999999989</v>
+        <v>118503.2315</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5306,8 +5810,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5318,22 +5828,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C130" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D130" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E130" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F130" t="n">
-        <v>400.7287</v>
+        <v>10547</v>
       </c>
       <c r="G130" t="n">
-        <v>100.1999999999999</v>
+        <v>129050.2315</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5342,8 +5852,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5354,64 +5870,72 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C131" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D131" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E131" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F131" t="n">
-        <v>108.2713</v>
+        <v>28661.45835576923</v>
       </c>
       <c r="G131" t="n">
-        <v>100.5999999999999</v>
+        <v>129050.2315</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>1.072720207253886</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1.033013844515442</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C132" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D132" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E132" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F132" t="n">
-        <v>12060.2221</v>
+        <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>100.7999999999999</v>
+        <v>129050.2315</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5426,28 +5950,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C133" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D133" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E133" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F133" t="n">
-        <v>608</v>
+        <v>11156.2492</v>
       </c>
       <c r="G133" t="n">
-        <v>100.9999999999999</v>
+        <v>129050.2315</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5462,28 +5986,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C134" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D134" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E134" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F134" t="n">
-        <v>8425.974899999999</v>
+        <v>2107.084244230769</v>
       </c>
       <c r="G134" t="n">
-        <v>100.1999999999999</v>
+        <v>129050.2315</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5498,28 +6022,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>99.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="C135" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D135" t="n">
-        <v>99.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="E135" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F135" t="n">
-        <v>750</v>
+        <v>3348.3612</v>
       </c>
       <c r="G135" t="n">
-        <v>99.79999999999988</v>
+        <v>129050.2315</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5534,28 +6058,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>99.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="C136" t="n">
-        <v>99.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="D136" t="n">
-        <v>99.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="E136" t="n">
-        <v>99.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="F136" t="n">
-        <v>1995</v>
+        <v>3660.763155769231</v>
       </c>
       <c r="G136" t="n">
-        <v>99.41999999999989</v>
+        <v>129050.2315</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5570,28 +6094,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>99.09999999999999</v>
+        <v>105</v>
       </c>
       <c r="C137" t="n">
-        <v>97.3</v>
+        <v>105</v>
       </c>
       <c r="D137" t="n">
-        <v>99.09999999999999</v>
+        <v>105</v>
       </c>
       <c r="E137" t="n">
-        <v>97.3</v>
+        <v>105</v>
       </c>
       <c r="F137" t="n">
-        <v>21643.5413</v>
+        <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>98.87999999999988</v>
+        <v>129060.2315</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5606,28 +6130,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>97.3</v>
+        <v>104</v>
       </c>
       <c r="C138" t="n">
-        <v>96.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="D138" t="n">
-        <v>97.3</v>
+        <v>104</v>
       </c>
       <c r="E138" t="n">
-        <v>96.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="F138" t="n">
-        <v>12910.7505</v>
+        <v>1201</v>
       </c>
       <c r="G138" t="n">
-        <v>98.09999999999988</v>
+        <v>127859.2315</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5642,28 +6166,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C139" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D139" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E139" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F139" t="n">
-        <v>1894.642</v>
+        <v>1473</v>
       </c>
       <c r="G139" t="n">
-        <v>97.49999999999989</v>
+        <v>127859.2315</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5678,28 +6202,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>95.3</v>
+        <v>104</v>
       </c>
       <c r="C140" t="n">
-        <v>94.2</v>
+        <v>104</v>
       </c>
       <c r="D140" t="n">
-        <v>95.3</v>
+        <v>104</v>
       </c>
       <c r="E140" t="n">
-        <v>94.2</v>
+        <v>103</v>
       </c>
       <c r="F140" t="n">
-        <v>31353.7593</v>
+        <v>5701.5679</v>
       </c>
       <c r="G140" t="n">
-        <v>96.53999999999989</v>
+        <v>127859.2315</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5714,35 +6238,31 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>94.3</v>
+        <v>104</v>
       </c>
       <c r="C141" t="n">
-        <v>95.7</v>
+        <v>104</v>
       </c>
       <c r="D141" t="n">
-        <v>96.5</v>
+        <v>104</v>
       </c>
       <c r="E141" t="n">
-        <v>94.3</v>
+        <v>103</v>
       </c>
       <c r="F141" t="n">
-        <v>19514.4583</v>
+        <v>7186.76923076923</v>
       </c>
       <c r="G141" t="n">
-        <v>95.8599999999999</v>
+        <v>127859.2315</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="K141" t="n">
-        <v>94.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
@@ -5754,42 +6274,1080 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>103</v>
+      </c>
+      <c r="C142" t="n">
+        <v>103</v>
+      </c>
+      <c r="D142" t="n">
+        <v>103</v>
+      </c>
+      <c r="E142" t="n">
+        <v>103</v>
+      </c>
+      <c r="F142" t="n">
+        <v>8350</v>
+      </c>
+      <c r="G142" t="n">
+        <v>119509.2315</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>103</v>
+      </c>
+      <c r="C143" t="n">
+        <v>103</v>
+      </c>
+      <c r="D143" t="n">
+        <v>103</v>
+      </c>
+      <c r="E143" t="n">
+        <v>103</v>
+      </c>
+      <c r="F143" t="n">
+        <v>8550.3078</v>
+      </c>
+      <c r="G143" t="n">
+        <v>119509.2315</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>102</v>
+      </c>
+      <c r="C144" t="n">
+        <v>101</v>
+      </c>
+      <c r="D144" t="n">
+        <v>102</v>
+      </c>
+      <c r="E144" t="n">
+        <v>101</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10711</v>
+      </c>
+      <c r="G144" t="n">
+        <v>108798.2315</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>100</v>
+      </c>
+      <c r="C145" t="n">
+        <v>100</v>
+      </c>
+      <c r="D145" t="n">
+        <v>100</v>
+      </c>
+      <c r="E145" t="n">
+        <v>100</v>
+      </c>
+      <c r="F145" t="n">
+        <v>10911.466</v>
+      </c>
+      <c r="G145" t="n">
+        <v>97886.76549999998</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>101</v>
+      </c>
+      <c r="C146" t="n">
+        <v>101</v>
+      </c>
+      <c r="D146" t="n">
+        <v>101</v>
+      </c>
+      <c r="E146" t="n">
+        <v>101</v>
+      </c>
+      <c r="F146" t="n">
+        <v>11487.5097</v>
+      </c>
+      <c r="G146" t="n">
+        <v>109374.2752</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>101</v>
+      </c>
+      <c r="C147" t="n">
+        <v>101</v>
+      </c>
+      <c r="D147" t="n">
+        <v>101</v>
+      </c>
+      <c r="E147" t="n">
+        <v>101</v>
+      </c>
+      <c r="F147" t="n">
+        <v>7276</v>
+      </c>
+      <c r="G147" t="n">
+        <v>109374.2752</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>101</v>
+      </c>
+      <c r="C148" t="n">
+        <v>101</v>
+      </c>
+      <c r="D148" t="n">
+        <v>101</v>
+      </c>
+      <c r="E148" t="n">
+        <v>101</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8913.7001</v>
+      </c>
+      <c r="G148" t="n">
+        <v>109374.2752</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>101</v>
+      </c>
+      <c r="C149" t="n">
+        <v>101</v>
+      </c>
+      <c r="D149" t="n">
+        <v>101</v>
+      </c>
+      <c r="E149" t="n">
+        <v>101</v>
+      </c>
+      <c r="F149" t="n">
+        <v>964.9047</v>
+      </c>
+      <c r="G149" t="n">
+        <v>109374.2752</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>101</v>
+      </c>
+      <c r="C150" t="n">
+        <v>101</v>
+      </c>
+      <c r="D150" t="n">
+        <v>101</v>
+      </c>
+      <c r="E150" t="n">
+        <v>101</v>
+      </c>
+      <c r="F150" t="n">
+        <v>192.3077</v>
+      </c>
+      <c r="G150" t="n">
+        <v>109374.2752</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>101</v>
+      </c>
+      <c r="C151" t="n">
+        <v>101</v>
+      </c>
+      <c r="D151" t="n">
+        <v>101</v>
+      </c>
+      <c r="E151" t="n">
+        <v>101</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G151" t="n">
+        <v>109374.2752</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>101</v>
+      </c>
+      <c r="C152" t="n">
+        <v>101</v>
+      </c>
+      <c r="D152" t="n">
+        <v>101</v>
+      </c>
+      <c r="E152" t="n">
+        <v>101</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7201.6923</v>
+      </c>
+      <c r="G152" t="n">
+        <v>109374.2752</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>100</v>
+      </c>
+      <c r="C153" t="n">
+        <v>102</v>
+      </c>
+      <c r="D153" t="n">
+        <v>102</v>
+      </c>
+      <c r="E153" t="n">
+        <v>100</v>
+      </c>
+      <c r="F153" t="n">
+        <v>20553.9323</v>
+      </c>
+      <c r="G153" t="n">
+        <v>129928.2075</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>100</v>
+      </c>
+      <c r="C154" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D154" t="n">
+        <v>100</v>
+      </c>
+      <c r="E154" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F154" t="n">
+        <v>322</v>
+      </c>
+      <c r="G154" t="n">
+        <v>129606.2075</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>99</v>
+      </c>
+      <c r="D155" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E155" t="n">
+        <v>99</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5132.9819</v>
+      </c>
+      <c r="G155" t="n">
+        <v>124473.2256</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>99</v>
+      </c>
+      <c r="C156" t="n">
+        <v>99</v>
+      </c>
+      <c r="D156" t="n">
+        <v>99</v>
+      </c>
+      <c r="E156" t="n">
+        <v>99</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>124473.2256</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C157" t="n">
+        <v>99</v>
+      </c>
+      <c r="D157" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E157" t="n">
+        <v>99</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1140.4981</v>
+      </c>
+      <c r="G157" t="n">
+        <v>124473.2256</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>101</v>
+      </c>
+      <c r="C158" t="n">
+        <v>103</v>
+      </c>
+      <c r="D158" t="n">
+        <v>103</v>
+      </c>
+      <c r="E158" t="n">
+        <v>101</v>
+      </c>
+      <c r="F158" t="n">
+        <v>7528.215273786408</v>
+      </c>
+      <c r="G158" t="n">
+        <v>132001.4408737864</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>101</v>
+      </c>
+      <c r="C159" t="n">
+        <v>101</v>
+      </c>
+      <c r="D159" t="n">
+        <v>101</v>
+      </c>
+      <c r="E159" t="n">
+        <v>101</v>
+      </c>
+      <c r="F159" t="n">
+        <v>400.7287</v>
+      </c>
+      <c r="G159" t="n">
+        <v>131600.7121737864</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>101</v>
+      </c>
+      <c r="C160" t="n">
+        <v>101</v>
+      </c>
+      <c r="D160" t="n">
+        <v>101</v>
+      </c>
+      <c r="E160" t="n">
+        <v>101</v>
+      </c>
+      <c r="F160" t="n">
+        <v>108.2713</v>
+      </c>
+      <c r="G160" t="n">
+        <v>131600.7121737864</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>100</v>
+      </c>
+      <c r="C161" t="n">
+        <v>100</v>
+      </c>
+      <c r="D161" t="n">
+        <v>100</v>
+      </c>
+      <c r="E161" t="n">
+        <v>100</v>
+      </c>
+      <c r="F161" t="n">
+        <v>12060.2221</v>
+      </c>
+      <c r="G161" t="n">
+        <v>119540.4900737864</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>100</v>
+      </c>
+      <c r="C162" t="n">
+        <v>100</v>
+      </c>
+      <c r="D162" t="n">
+        <v>100</v>
+      </c>
+      <c r="E162" t="n">
+        <v>100</v>
+      </c>
+      <c r="F162" t="n">
+        <v>608</v>
+      </c>
+      <c r="G162" t="n">
+        <v>119540.4900737864</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>100</v>
+      </c>
+      <c r="C163" t="n">
+        <v>99</v>
+      </c>
+      <c r="D163" t="n">
+        <v>100</v>
+      </c>
+      <c r="E163" t="n">
+        <v>99</v>
+      </c>
+      <c r="F163" t="n">
+        <v>8425.974899999999</v>
+      </c>
+      <c r="G163" t="n">
+        <v>111114.5151737864</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C164" t="n">
+        <v>99</v>
+      </c>
+      <c r="D164" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E164" t="n">
+        <v>99</v>
+      </c>
+      <c r="F164" t="n">
+        <v>750</v>
+      </c>
+      <c r="G164" t="n">
+        <v>111114.5151737864</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C165" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D165" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E165" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1995</v>
+      </c>
+      <c r="G165" t="n">
+        <v>113109.5151737864</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C166" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="D166" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E166" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="F166" t="n">
+        <v>21643.5413</v>
+      </c>
+      <c r="G166" t="n">
+        <v>91465.97387378637</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="C167" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="D167" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="E167" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>12910.7505</v>
+      </c>
+      <c r="G167" t="n">
+        <v>78555.22337378637</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>96</v>
+      </c>
+      <c r="C168" t="n">
+        <v>96</v>
+      </c>
+      <c r="D168" t="n">
+        <v>96</v>
+      </c>
+      <c r="E168" t="n">
+        <v>96</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1894.642</v>
+      </c>
+      <c r="G168" t="n">
+        <v>76660.58137378636</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="C169" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="E169" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>31353.7593</v>
+      </c>
+      <c r="G169" t="n">
+        <v>45306.82207378636</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="C170" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="D170" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="F170" t="n">
+        <v>19514.4583</v>
+      </c>
+      <c r="G170" t="n">
+        <v>64821.28037378636</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
         <v>94.8</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C171" t="n">
         <v>94.8</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D171" t="n">
         <v>94.8</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E171" t="n">
         <v>94.8</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F171" t="n">
         <v>1008</v>
       </c>
-      <c r="G142" t="n">
-        <v>95.35999999999989</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>63813.28037378636</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest ELF.xlsx
+++ b/BackTest/2019-10-26 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>89700.70239999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>95954.36839999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J3" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K3" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>95954.36839999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>95.7</v>
       </c>
       <c r="J4" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="K4" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>66153.61529999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>95.7</v>
       </c>
       <c r="J5" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="K5" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>66153.61529999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="J6" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="K6" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>66890.01439999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="J7" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="K7" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +681,21 @@
         <v>56834.08709999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>97</v>
-      </c>
-      <c r="K8" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,22 +720,19 @@
         <v>56498.19199999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="J9" t="n">
         <v>96.5</v>
       </c>
-      <c r="K9" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,26 +757,23 @@
         <v>55247.42849999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>96.5</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -832,26 +798,23 @@
         <v>64361.42849999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>94.2</v>
       </c>
       <c r="J11" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>96.5</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -876,26 +839,23 @@
         <v>74406.26039999998</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="K12" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>96.5</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -920,26 +880,23 @@
         <v>74104.97539999998</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>95.2</v>
       </c>
       <c r="J13" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>96.5</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -964,26 +921,23 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J14" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>96.5</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1008,26 +962,21 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>96.5</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1052,26 +1001,21 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="K16" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>96.5</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1096,26 +1040,21 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="K17" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>96.5</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1140,26 +1079,21 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>96.5</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1186,22 +1120,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1226,24 +1157,23 @@
         <v>85322.27879999997</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>94.90000000000001</v>
+      </c>
+      <c r="J20" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1270,22 +1200,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1312,22 +1239,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1354,22 +1278,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1394,24 +1315,23 @@
         <v>85420.26359999996</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>96</v>
+      </c>
+      <c r="J24" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1438,22 +1358,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1480,22 +1397,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1522,22 +1436,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1564,22 +1475,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1606,22 +1514,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1648,22 +1553,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1690,22 +1592,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1730,24 +1629,23 @@
         <v>109784.568</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>96.59999999999999</v>
+      </c>
+      <c r="J32" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1774,22 +1672,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1816,22 +1711,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1858,22 +1750,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1900,22 +1789,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1942,22 +1828,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1984,22 +1867,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2026,22 +1906,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2068,22 +1945,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2110,22 +1984,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2152,22 +2023,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2194,22 +2062,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2236,22 +2101,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2278,22 +2140,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2320,22 +2179,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2362,22 +2218,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2404,22 +2257,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2444,24 +2294,21 @@
         <v>198949.8674</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2486,24 +2333,21 @@
         <v>119646.9303</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2530,22 +2374,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2572,22 +2413,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2612,24 +2450,21 @@
         <v>119218.5352</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2656,22 +2491,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2698,22 +2530,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2740,22 +2569,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2782,22 +2608,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2824,22 +2647,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2866,22 +2686,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2908,22 +2725,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2948,24 +2762,21 @@
         <v>85974.93099999997</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2992,22 +2803,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3034,22 +2842,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3076,22 +2881,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3118,22 +2920,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3160,22 +2959,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3202,22 +2998,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3244,22 +3037,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3286,22 +3076,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3326,24 +3113,21 @@
         <v>96516.07839999997</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3370,22 +3154,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3410,24 +3191,21 @@
         <v>97024.34809999997</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3452,24 +3230,21 @@
         <v>96967.95679999997</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3496,22 +3271,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3538,22 +3310,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3578,24 +3347,21 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3620,24 +3386,21 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3662,24 +3425,21 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3706,22 +3466,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3746,24 +3503,21 @@
         <v>93673.18139999997</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3788,24 +3542,21 @@
         <v>93412.50539999997</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3832,22 +3583,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3874,22 +3622,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3914,24 +3659,21 @@
         <v>93452.42819999997</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3958,22 +3700,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4000,22 +3739,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4042,22 +3778,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4084,22 +3817,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4126,22 +3856,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4168,22 +3895,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4210,22 +3934,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4250,24 +3971,21 @@
         <v>70040.65399999997</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4294,22 +4012,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4336,22 +4051,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4378,22 +4090,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4420,22 +4129,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4462,22 +4168,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4504,22 +4207,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4546,22 +4246,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4588,22 +4285,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4630,22 +4324,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4672,22 +4363,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4714,22 +4402,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4756,22 +4441,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4798,22 +4480,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4840,22 +4519,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4882,22 +4558,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4924,22 +4597,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4966,22 +4636,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5008,22 +4675,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5050,22 +4714,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5092,22 +4753,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5134,22 +4792,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5176,22 +4831,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5218,22 +4870,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5260,22 +4909,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5302,22 +4948,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5342,24 +4985,23 @@
         <v>80569.42819999998</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.05199481865285</v>
       </c>
       <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>1.033013844515442</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5386,22 +5028,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5428,22 +5061,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5468,24 +5092,15 @@
         <v>74813.47399999999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5512,22 +5127,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5552,24 +5158,15 @@
         <v>116775.1765</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5596,22 +5193,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5636,24 +5224,15 @@
         <v>116753.2315</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5678,24 +5257,15 @@
         <v>116753.2315</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5720,24 +5290,15 @@
         <v>118503.2315</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5764,22 +5325,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5806,22 +5358,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5848,22 +5391,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5890,24 +5424,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1.072720207253886</v>
-      </c>
-      <c r="N131" t="n">
-        <v>1.033013844515442</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5934,16 +5457,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5970,16 +5490,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6006,16 +5523,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6042,16 +5556,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6078,16 +5589,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6114,16 +5622,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6150,16 +5655,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6186,16 +5688,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6222,16 +5721,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6258,16 +5754,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6294,16 +5787,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6330,16 +5820,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6366,16 +5853,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6402,16 +5886,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6438,16 +5919,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6474,16 +5952,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6510,16 +5985,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6546,16 +6018,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6582,16 +6051,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6618,16 +6084,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6654,16 +6117,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6690,16 +6150,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6726,16 +6183,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6762,16 +6216,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6798,16 +6249,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6834,16 +6282,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6870,16 +6315,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6906,16 +6348,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6942,16 +6381,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6978,16 +6414,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7014,16 +6447,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7050,16 +6480,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7086,16 +6513,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7122,16 +6546,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7156,18 +6577,15 @@
         <v>91465.97387378637</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7194,16 +6612,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7228,18 +6643,15 @@
         <v>76660.58137378636</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7266,16 +6678,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7300,18 +6709,15 @@
         <v>64821.28037378636</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7338,18 +6744,15 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ELF.xlsx
+++ b/BackTest/2019-10-26 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>89700.70239999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>95954.36839999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>93.90000000000001</v>
@@ -521,7 +521,7 @@
         <v>95954.36839999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>95.7</v>
@@ -562,7 +562,7 @@
         <v>66153.61529999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>95.7</v>
@@ -603,7 +603,7 @@
         <v>66153.61529999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>95.59999999999999</v>
@@ -640,7 +640,7 @@
         <v>66890.01439999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>95.59999999999999</v>
@@ -681,9 +681,11 @@
         <v>56834.08709999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>97</v>
+      </c>
       <c r="J8" t="n">
         <v>95.59999999999999</v>
       </c>
@@ -720,7 +722,7 @@
         <v>56498.19199999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>96.5</v>
@@ -757,7 +759,7 @@
         <v>55247.42849999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>95.59999999999999</v>
@@ -798,7 +800,7 @@
         <v>64361.42849999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>94.2</v>
@@ -839,7 +841,7 @@
         <v>74406.26039999998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>95.09999999999999</v>
@@ -880,7 +882,7 @@
         <v>74104.97539999998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>95.2</v>
@@ -921,7 +923,7 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>94.5</v>
@@ -962,9 +964,11 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>94.59999999999999</v>
+      </c>
       <c r="J15" t="n">
         <v>96.5</v>
       </c>
@@ -1001,9 +1005,11 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>94.59999999999999</v>
+      </c>
       <c r="J16" t="n">
         <v>96.5</v>
       </c>
@@ -1040,9 +1046,11 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>94.59999999999999</v>
+      </c>
       <c r="J17" t="n">
         <v>96.5</v>
       </c>
@@ -1079,9 +1087,11 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>94.59999999999999</v>
+      </c>
       <c r="J18" t="n">
         <v>96.5</v>
       </c>
@@ -1118,9 +1128,11 @@
         <v>84546.27149999997</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>94.59999999999999</v>
+      </c>
       <c r="J19" t="n">
         <v>96.5</v>
       </c>
@@ -1157,7 +1169,7 @@
         <v>85322.27879999997</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>94.90000000000001</v>
@@ -1276,9 +1288,11 @@
         <v>85743.88559999997</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>96</v>
+      </c>
       <c r="J23" t="n">
         <v>96.5</v>
       </c>
@@ -1315,7 +1329,7 @@
         <v>85420.26359999996</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>96</v>
@@ -1395,9 +1409,11 @@
         <v>97605.86209999995</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>96.09999999999999</v>
+      </c>
       <c r="J26" t="n">
         <v>96.5</v>
       </c>
@@ -1629,11 +1645,9 @@
         <v>109784.568</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>96.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>96.5</v>
       </c>
@@ -2294,7 +2308,7 @@
         <v>198949.8674</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
@@ -2333,7 +2347,7 @@
         <v>119646.9303</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
@@ -2450,7 +2464,7 @@
         <v>119218.5352</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
@@ -2762,7 +2776,7 @@
         <v>85974.93099999997</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
@@ -3113,7 +3127,7 @@
         <v>96516.07839999997</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
@@ -3191,7 +3205,7 @@
         <v>97024.34809999997</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
@@ -3230,7 +3244,7 @@
         <v>96967.95679999997</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
@@ -3347,7 +3361,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
@@ -3386,7 +3400,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
@@ -3425,7 +3439,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
@@ -3503,7 +3517,7 @@
         <v>93673.18139999997</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
@@ -3542,7 +3556,7 @@
         <v>93412.50539999997</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
@@ -3659,7 +3673,7 @@
         <v>93452.42819999997</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
@@ -3971,7 +3985,7 @@
         <v>70040.65399999997</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
@@ -4985,7 +4999,7 @@
         <v>80569.42819999998</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
@@ -4993,15 +5007,13 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.05199481865285</v>
-      </c>
-      <c r="M118" t="n">
-        <v>1.033013844515442</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5029,8 +5041,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5062,8 +5080,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5092,11 +5116,17 @@
         <v>74813.47399999999</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5128,8 +5158,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5158,11 +5194,17 @@
         <v>116775.1765</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5194,8 +5236,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5224,11 +5272,17 @@
         <v>116753.2315</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5257,11 +5311,17 @@
         <v>116753.2315</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5290,11 +5350,17 @@
         <v>118503.2315</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5326,8 +5392,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5359,8 +5431,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5392,8 +5470,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5425,8 +5509,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5458,8 +5548,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5491,8 +5587,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5524,8 +5626,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5557,8 +5665,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5590,8 +5704,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5623,8 +5743,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5653,15 +5779,23 @@
         <v>127859.2315</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>1.072720207253886</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1.033013844515442</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5686,7 +5820,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5719,7 +5853,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5752,7 +5886,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5785,7 +5919,7 @@
         <v>119509.2315</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5818,7 +5952,7 @@
         <v>119509.2315</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5851,7 +5985,7 @@
         <v>108798.2315</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5884,7 +6018,7 @@
         <v>97886.76549999998</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5917,7 +6051,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5950,7 +6084,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5983,7 +6117,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6016,7 +6150,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6049,7 +6183,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6082,7 +6216,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6115,7 +6249,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6148,7 +6282,7 @@
         <v>129928.2075</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6181,7 +6315,7 @@
         <v>129606.2075</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6214,7 +6348,7 @@
         <v>124473.2256</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6247,7 +6381,7 @@
         <v>124473.2256</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6280,7 +6414,7 @@
         <v>124473.2256</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6313,7 +6447,7 @@
         <v>132001.4408737864</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6346,7 +6480,7 @@
         <v>131600.7121737864</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6379,7 +6513,7 @@
         <v>131600.7121737864</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6412,7 +6546,7 @@
         <v>119540.4900737864</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6445,7 +6579,7 @@
         <v>119540.4900737864</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6478,7 +6612,7 @@
         <v>111114.5151737864</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6511,7 +6645,7 @@
         <v>111114.5151737864</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6544,7 +6678,7 @@
         <v>113109.5151737864</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6577,7 +6711,7 @@
         <v>91465.97387378637</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6610,7 +6744,7 @@
         <v>78555.22337378637</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6643,7 +6777,7 @@
         <v>76660.58137378636</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6709,7 +6843,7 @@
         <v>64821.28037378636</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6753,6 +6887,6 @@
       <c r="M171" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ELF.xlsx
+++ b/BackTest/2019-10-26 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>89700.70239999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>95954.36839999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>93.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>95954.36839999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>66153.61529999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>66153.61529999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="J6" t="n">
-        <v>95.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -648,11 +624,7 @@
       <c r="J7" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,11 +653,9 @@
         <v>56834.08709999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>95.59999999999999</v>
       </c>
@@ -722,15 +692,17 @@
         <v>56498.19199999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>96.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>95.59999999999999</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -759,19 +731,11 @@
         <v>55247.42849999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +764,11 @@
         <v>64361.42849999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,19 +797,11 @@
         <v>74406.26039999998</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="J12" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -882,19 +830,11 @@
         <v>74104.97539999998</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -929,13 +869,9 @@
         <v>94.5</v>
       </c>
       <c r="J14" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>94.5</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -970,11 +906,11 @@
         <v>94.59999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>96.5</v>
+        <v>94.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1005,17 +941,15 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>94.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>96.5</v>
+        <v>94.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1052,13 +986,9 @@
         <v>94.59999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>94.59999999999999</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1093,11 +1023,11 @@
         <v>94.59999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>96.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1134,11 +1064,11 @@
         <v>94.59999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>96.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1169,19 +1099,11 @@
         <v>85322.27879999997</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="J20" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1213,14 +1135,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1252,14 +1168,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1288,19 +1198,11 @@
         <v>85743.88559999997</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>96</v>
-      </c>
-      <c r="J23" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1329,19 +1231,11 @@
         <v>85420.26359999996</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>96</v>
-      </c>
-      <c r="J24" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1373,14 +1267,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1409,19 +1297,11 @@
         <v>97605.86209999995</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="J26" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1453,14 +1333,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1492,14 +1366,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1531,14 +1399,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1570,14 +1432,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1609,14 +1465,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1648,14 +1498,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1687,14 +1531,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1726,14 +1564,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1765,14 +1597,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1804,14 +1630,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1843,14 +1663,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1882,14 +1696,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1921,14 +1729,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1960,14 +1762,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1999,14 +1795,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2038,14 +1828,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2077,14 +1861,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2116,14 +1894,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2155,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2194,14 +1960,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2233,14 +1993,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2272,14 +2026,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2311,14 +2059,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2350,14 +2092,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2386,17 +2122,11 @@
         <v>132305.5318</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2425,17 +2155,11 @@
         <v>119218.5352</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2464,17 +2188,11 @@
         <v>119218.5352</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2503,17 +2221,11 @@
         <v>119278.5352</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2545,14 +2257,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2581,17 +2287,11 @@
         <v>116968.5352</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2620,17 +2320,11 @@
         <v>93681.53519999997</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2659,17 +2353,11 @@
         <v>103924.931</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2698,17 +2386,11 @@
         <v>85974.93099999997</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2740,14 +2422,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2779,14 +2455,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2815,17 +2485,11 @@
         <v>85974.93099999997</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2854,17 +2518,11 @@
         <v>85974.93099999997</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2893,17 +2551,11 @@
         <v>110216.0588</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2932,17 +2584,11 @@
         <v>101073.2888</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2971,17 +2617,11 @@
         <v>99016.28879999997</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3010,17 +2650,11 @@
         <v>108451.5367</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3049,17 +2683,11 @@
         <v>107850.5367</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3088,17 +2716,11 @@
         <v>97266.07839999997</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3127,17 +2749,11 @@
         <v>96516.07839999997</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3166,17 +2782,11 @@
         <v>95524.34809999997</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3205,17 +2815,11 @@
         <v>97024.34809999997</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3244,17 +2848,11 @@
         <v>96967.95679999997</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3283,17 +2881,11 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3322,17 +2914,11 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3361,17 +2947,11 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3400,17 +2980,11 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3439,17 +3013,11 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3478,17 +3046,11 @@
         <v>90623.18139999997</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3520,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3559,14 +3115,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3598,14 +3148,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3637,14 +3181,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3676,14 +3214,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3715,14 +3247,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3754,14 +3280,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3793,14 +3313,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3832,14 +3346,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3871,14 +3379,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3910,14 +3412,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3949,14 +3445,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3988,14 +3478,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4027,14 +3511,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4066,14 +3544,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4105,14 +3577,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4144,14 +3610,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4183,14 +3643,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4222,14 +3676,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4261,14 +3709,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4300,14 +3742,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4339,14 +3775,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4378,14 +3808,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4417,14 +3841,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4456,14 +3874,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4495,14 +3907,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4534,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4573,14 +3973,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4612,14 +4006,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4651,14 +4039,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4690,14 +4072,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4729,14 +4105,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4768,14 +4138,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4807,14 +4171,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4846,14 +4204,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4885,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4924,14 +4270,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4963,14 +4303,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5002,14 +4336,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5041,14 +4369,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5080,14 +4402,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5119,14 +4435,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5158,14 +4468,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5197,14 +4501,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5236,14 +4534,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5275,14 +4567,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5314,14 +4600,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5353,14 +4633,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5392,14 +4666,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5431,14 +4699,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5470,14 +4732,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5509,14 +4765,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5548,14 +4798,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5587,14 +4831,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5626,14 +4864,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5665,14 +4897,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5704,14 +4930,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5743,14 +4963,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5779,23 +4993,15 @@
         <v>127859.2315</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>1.072720207253886</v>
-      </c>
-      <c r="M138" t="n">
-        <v>1.033013844515442</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5820,7 +5026,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5853,7 +5059,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5886,7 +5092,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5919,7 +5125,7 @@
         <v>119509.2315</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5952,7 +5158,7 @@
         <v>119509.2315</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5985,7 +5191,7 @@
         <v>108798.2315</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6018,7 +5224,7 @@
         <v>97886.76549999998</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6051,7 +5257,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6084,7 +5290,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6117,7 +5323,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6150,7 +5356,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6183,7 +5389,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6216,7 +5422,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6249,7 +5455,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6282,7 +5488,7 @@
         <v>129928.2075</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6315,7 +5521,7 @@
         <v>129606.2075</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6348,7 +5554,7 @@
         <v>124473.2256</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6381,7 +5587,7 @@
         <v>124473.2256</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6414,7 +5620,7 @@
         <v>124473.2256</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6447,7 +5653,7 @@
         <v>132001.4408737864</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6480,7 +5686,7 @@
         <v>131600.7121737864</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6513,7 +5719,7 @@
         <v>131600.7121737864</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6546,7 +5752,7 @@
         <v>119540.4900737864</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6579,7 +5785,7 @@
         <v>119540.4900737864</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6612,7 +5818,7 @@
         <v>111114.5151737864</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6645,7 +5851,7 @@
         <v>111114.5151737864</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6678,7 +5884,7 @@
         <v>113109.5151737864</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6711,7 +5917,7 @@
         <v>91465.97387378637</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6744,7 +5950,7 @@
         <v>78555.22337378637</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6777,7 +5983,7 @@
         <v>76660.58137378636</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6887,6 +6093,6 @@
       <c r="M171" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ELF.xlsx
+++ b/BackTest/2019-10-26 BackTest ELF.xlsx
@@ -451,7 +451,7 @@
         <v>89700.70239999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>95954.36839999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>95954.36839999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>66153.61529999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>66153.61529999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>95.59999999999999</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -624,7 +648,11 @@
       <c r="J7" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,9 +681,11 @@
         <v>56834.08709999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>97</v>
+      </c>
       <c r="J8" t="n">
         <v>95.59999999999999</v>
       </c>
@@ -695,14 +725,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -764,10 +788,14 @@
         <v>64361.42849999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>94.2</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -797,11 +825,19 @@
         <v>74406.26039999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="J12" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -833,8 +869,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -863,14 +905,10 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>94.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -900,19 +938,11 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="J15" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -944,14 +974,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -980,14 +1004,10 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="J17" t="n">
-        <v>94.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -1017,19 +1037,11 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="J18" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1058,19 +1070,11 @@
         <v>84546.27149999997</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="J19" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -2122,7 +2126,7 @@
         <v>132305.5318</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2155,7 +2159,7 @@
         <v>119218.5352</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2188,7 +2192,7 @@
         <v>119218.5352</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2221,7 +2225,7 @@
         <v>119278.5352</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2287,7 +2291,7 @@
         <v>116968.5352</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2320,7 +2324,7 @@
         <v>93681.53519999997</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2353,7 +2357,7 @@
         <v>103924.931</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2386,7 +2390,7 @@
         <v>85974.93099999997</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2485,7 +2489,7 @@
         <v>85974.93099999997</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2518,7 +2522,7 @@
         <v>85974.93099999997</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2551,7 +2555,7 @@
         <v>110216.0588</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2584,7 +2588,7 @@
         <v>101073.2888</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2617,7 +2621,7 @@
         <v>99016.28879999997</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2650,7 +2654,7 @@
         <v>108451.5367</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2683,7 +2687,7 @@
         <v>107850.5367</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2716,7 +2720,7 @@
         <v>97266.07839999997</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2749,7 +2753,7 @@
         <v>96516.07839999997</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2782,7 +2786,7 @@
         <v>95524.34809999997</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2815,7 +2819,7 @@
         <v>97024.34809999997</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2848,7 +2852,7 @@
         <v>96967.95679999997</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2881,7 +2885,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2914,7 +2918,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2947,7 +2951,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2980,7 +2984,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3013,7 +3017,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3046,7 +3050,7 @@
         <v>90623.18139999997</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -4795,7 +4799,7 @@
         <v>129050.2315</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4828,7 +4832,7 @@
         <v>129050.2315</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4861,7 +4865,7 @@
         <v>129050.2315</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4894,7 +4898,7 @@
         <v>129050.2315</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4927,7 +4931,7 @@
         <v>129050.2315</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4960,7 +4964,7 @@
         <v>129060.2315</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4993,7 +4997,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5026,7 +5030,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5059,7 +5063,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5092,7 +5096,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5125,7 +5129,7 @@
         <v>119509.2315</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5158,7 +5162,7 @@
         <v>119509.2315</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5191,7 +5195,7 @@
         <v>108798.2315</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5224,7 +5228,7 @@
         <v>97886.76549999998</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5422,7 +5426,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5455,7 +5459,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5719,7 +5723,7 @@
         <v>131600.7121737864</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>

--- a/BackTest/2019-10-26 BackTest ELF.xlsx
+++ b/BackTest/2019-10-26 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3739.6403</v>
       </c>
       <c r="G2" t="n">
-        <v>89700.70239999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>6253.666</v>
       </c>
       <c r="G3" t="n">
-        <v>95954.36839999999</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="I3" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="J3" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>2764.2733</v>
       </c>
       <c r="G4" t="n">
-        <v>95954.36839999999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>95.7</v>
       </c>
       <c r="I4" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="J4" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>29800.7531</v>
       </c>
       <c r="G5" t="n">
-        <v>66153.61529999999</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>95.7</v>
       </c>
       <c r="I5" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="J5" t="n">
         <v>93.90000000000001</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,19 @@
         <v>33.0235</v>
       </c>
       <c r="G6" t="n">
-        <v>66153.61529999999</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="J6" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +617,23 @@
         <v>736.3991</v>
       </c>
       <c r="G7" t="n">
-        <v>66890.01439999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="J7" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +655,23 @@
         <v>10055.9273</v>
       </c>
       <c r="G8" t="n">
-        <v>56834.08709999999</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="I8" t="n">
-        <v>97</v>
-      </c>
-      <c r="J8" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,18 +693,15 @@
         <v>335.8951</v>
       </c>
       <c r="G9" t="n">
-        <v>56498.19199999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -752,18 +723,21 @@
         <v>1250.7635</v>
       </c>
       <c r="G10" t="n">
-        <v>55247.42849999999</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -785,22 +759,21 @@
         <v>9114</v>
       </c>
       <c r="G11" t="n">
-        <v>64361.42849999999</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
         <v>94.2</v>
       </c>
-      <c r="J11" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -822,26 +795,21 @@
         <v>10044.8319</v>
       </c>
       <c r="G12" t="n">
-        <v>74406.26039999998</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
         <v>95.09999999999999</v>
       </c>
-      <c r="J12" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -863,24 +831,21 @@
         <v>301.285</v>
       </c>
       <c r="G13" t="n">
-        <v>74104.97539999998</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>95.2</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -902,18 +867,21 @@
         <v>810.2021999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>74915.17759999998</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -935,18 +903,21 @@
         <v>48327.7959</v>
       </c>
       <c r="G15" t="n">
-        <v>74915.17759999998</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -968,18 +939,19 @@
         <v>5760.036</v>
       </c>
       <c r="G16" t="n">
-        <v>74915.17759999998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1001,18 +973,19 @@
         <v>15912.168</v>
       </c>
       <c r="G17" t="n">
-        <v>74915.17759999998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,18 +1007,19 @@
         <v>0.0001</v>
       </c>
       <c r="G18" t="n">
-        <v>74915.17759999998</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1067,18 +1041,19 @@
         <v>9631.0939</v>
       </c>
       <c r="G19" t="n">
-        <v>84546.27149999997</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1100,18 +1075,19 @@
         <v>776.0073</v>
       </c>
       <c r="G20" t="n">
-        <v>85322.27879999997</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1133,18 +1109,19 @@
         <v>368.3048</v>
       </c>
       <c r="G21" t="n">
-        <v>85690.58359999997</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1166,18 +1143,19 @@
         <v>53.302</v>
       </c>
       <c r="G22" t="n">
-        <v>85743.88559999997</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1199,18 +1177,19 @@
         <v>53.302</v>
       </c>
       <c r="G23" t="n">
-        <v>85743.88559999997</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,18 +1211,19 @@
         <v>323.622</v>
       </c>
       <c r="G24" t="n">
-        <v>85420.26359999996</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1265,18 +1245,19 @@
         <v>2510.5823</v>
       </c>
       <c r="G25" t="n">
-        <v>87930.84589999996</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1298,18 +1279,19 @@
         <v>9675.0162</v>
       </c>
       <c r="G26" t="n">
-        <v>97605.86209999995</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1331,18 +1313,19 @@
         <v>280</v>
       </c>
       <c r="G27" t="n">
-        <v>97325.86209999995</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1364,18 +1347,19 @@
         <v>103</v>
       </c>
       <c r="G28" t="n">
-        <v>97325.86209999995</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1397,18 +1381,19 @@
         <v>103</v>
       </c>
       <c r="G29" t="n">
-        <v>97325.86209999995</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1430,18 +1415,19 @@
         <v>325.575</v>
       </c>
       <c r="G30" t="n">
-        <v>97000.28709999996</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,18 +1449,19 @@
         <v>12556.2809</v>
       </c>
       <c r="G31" t="n">
-        <v>109556.568</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1496,18 +1483,19 @@
         <v>228</v>
       </c>
       <c r="G32" t="n">
-        <v>109784.568</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1529,18 +1517,19 @@
         <v>1604.9725</v>
       </c>
       <c r="G33" t="n">
-        <v>108179.5955</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1562,18 +1551,19 @@
         <v>366.457</v>
       </c>
       <c r="G34" t="n">
-        <v>107813.1385</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1595,18 +1585,19 @@
         <v>1647.9947</v>
       </c>
       <c r="G35" t="n">
-        <v>106165.1438</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1628,18 +1619,19 @@
         <v>2033.9999</v>
       </c>
       <c r="G36" t="n">
-        <v>106165.1438</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1661,18 +1653,19 @@
         <v>2259.0377</v>
       </c>
       <c r="G37" t="n">
-        <v>103906.1061</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1694,18 +1687,19 @@
         <v>750</v>
       </c>
       <c r="G38" t="n">
-        <v>103156.1061</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1727,18 +1721,19 @@
         <v>150</v>
       </c>
       <c r="G39" t="n">
-        <v>103306.1061</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1760,18 +1755,19 @@
         <v>955</v>
       </c>
       <c r="G40" t="n">
-        <v>102351.1061</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1793,18 +1789,19 @@
         <v>564.0952</v>
       </c>
       <c r="G41" t="n">
-        <v>102915.2013</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1826,18 +1823,19 @@
         <v>522.7718</v>
       </c>
       <c r="G42" t="n">
-        <v>102915.2013</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1859,18 +1857,19 @@
         <v>9385.9193</v>
       </c>
       <c r="G43" t="n">
-        <v>112301.1206</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1892,18 +1891,19 @@
         <v>1200</v>
       </c>
       <c r="G44" t="n">
-        <v>113501.1206</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1925,18 +1925,19 @@
         <v>44</v>
       </c>
       <c r="G45" t="n">
-        <v>113545.1206</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1958,18 +1959,19 @@
         <v>3669.6398</v>
       </c>
       <c r="G46" t="n">
-        <v>117214.7604</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1991,18 +1993,19 @@
         <v>23026.8717</v>
       </c>
       <c r="G47" t="n">
-        <v>140241.6321</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2024,18 +2027,19 @@
         <v>72297.3826</v>
       </c>
       <c r="G48" t="n">
-        <v>140241.6321</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2057,18 +2061,19 @@
         <v>58708.2353</v>
       </c>
       <c r="G49" t="n">
-        <v>198949.8674</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2090,18 +2095,19 @@
         <v>79302.9371</v>
       </c>
       <c r="G50" t="n">
-        <v>119646.9303</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2123,18 +2129,19 @@
         <v>12658.6015</v>
       </c>
       <c r="G51" t="n">
-        <v>132305.5318</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2156,18 +2163,19 @@
         <v>13086.9966</v>
       </c>
       <c r="G52" t="n">
-        <v>119218.5352</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2189,18 +2197,19 @@
         <v>2083.1828</v>
       </c>
       <c r="G53" t="n">
-        <v>119218.5352</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2222,18 +2231,19 @@
         <v>60</v>
       </c>
       <c r="G54" t="n">
-        <v>119278.5352</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2255,18 +2265,19 @@
         <v>1057</v>
       </c>
       <c r="G55" t="n">
-        <v>119278.5352</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2288,18 +2299,19 @@
         <v>2310</v>
       </c>
       <c r="G56" t="n">
-        <v>116968.5352</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2321,18 +2333,19 @@
         <v>23287</v>
       </c>
       <c r="G57" t="n">
-        <v>93681.53519999997</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2354,18 +2367,19 @@
         <v>10243.3958</v>
       </c>
       <c r="G58" t="n">
-        <v>103924.931</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2387,18 +2401,19 @@
         <v>17950</v>
       </c>
       <c r="G59" t="n">
-        <v>85974.93099999997</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2420,18 +2435,19 @@
         <v>10000</v>
       </c>
       <c r="G60" t="n">
-        <v>85974.93099999997</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2453,18 +2469,19 @@
         <v>10850</v>
       </c>
       <c r="G61" t="n">
-        <v>85974.93099999997</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2486,18 +2503,19 @@
         <v>2145.4408</v>
       </c>
       <c r="G62" t="n">
-        <v>85974.93099999997</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2519,18 +2537,19 @@
         <v>1049.8249</v>
       </c>
       <c r="G63" t="n">
-        <v>85974.93099999997</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2552,18 +2571,19 @@
         <v>24241.1278</v>
       </c>
       <c r="G64" t="n">
-        <v>110216.0588</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2585,18 +2605,19 @@
         <v>9142.77</v>
       </c>
       <c r="G65" t="n">
-        <v>101073.2888</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2618,18 +2639,19 @@
         <v>2057</v>
       </c>
       <c r="G66" t="n">
-        <v>99016.28879999997</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2651,18 +2673,19 @@
         <v>9435.2479</v>
       </c>
       <c r="G67" t="n">
-        <v>108451.5367</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2684,18 +2707,19 @@
         <v>601</v>
       </c>
       <c r="G68" t="n">
-        <v>107850.5367</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2717,18 +2741,19 @@
         <v>10584.4583</v>
       </c>
       <c r="G69" t="n">
-        <v>97266.07839999997</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2750,18 +2775,19 @@
         <v>750</v>
       </c>
       <c r="G70" t="n">
-        <v>96516.07839999997</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2783,18 +2809,19 @@
         <v>991.7303000000001</v>
       </c>
       <c r="G71" t="n">
-        <v>95524.34809999997</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2816,18 +2843,19 @@
         <v>1500</v>
       </c>
       <c r="G72" t="n">
-        <v>97024.34809999997</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2849,18 +2877,19 @@
         <v>56.3913</v>
       </c>
       <c r="G73" t="n">
-        <v>96967.95679999997</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2882,18 +2911,19 @@
         <v>3661.9174</v>
       </c>
       <c r="G74" t="n">
-        <v>93306.03939999997</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2915,18 +2945,19 @@
         <v>4602.639</v>
       </c>
       <c r="G75" t="n">
-        <v>93306.03939999997</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2948,18 +2979,19 @@
         <v>489.7294</v>
       </c>
       <c r="G76" t="n">
-        <v>93306.03939999997</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2981,18 +3013,19 @@
         <v>3612.6388</v>
       </c>
       <c r="G77" t="n">
-        <v>93306.03939999997</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3014,18 +3047,19 @@
         <v>2683.8675</v>
       </c>
       <c r="G78" t="n">
-        <v>93306.03939999997</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3047,18 +3081,19 @@
         <v>2682.858</v>
       </c>
       <c r="G79" t="n">
-        <v>90623.18139999997</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3080,18 +3115,19 @@
         <v>3050</v>
       </c>
       <c r="G80" t="n">
-        <v>93673.18139999997</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3113,18 +3149,19 @@
         <v>260.676</v>
       </c>
       <c r="G81" t="n">
-        <v>93412.50539999997</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3146,18 +3183,19 @@
         <v>1639</v>
       </c>
       <c r="G82" t="n">
-        <v>95051.50539999997</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3179,18 +3217,21 @@
         <v>2140.0772</v>
       </c>
       <c r="G83" t="n">
-        <v>92911.42819999997</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3212,18 +3253,21 @@
         <v>541</v>
       </c>
       <c r="G84" t="n">
-        <v>93452.42819999997</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3245,18 +3289,19 @@
         <v>294.807</v>
       </c>
       <c r="G85" t="n">
-        <v>93157.62119999997</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3278,18 +3323,19 @@
         <v>4028.672</v>
       </c>
       <c r="G86" t="n">
-        <v>89128.94919999996</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3311,18 +3357,19 @@
         <v>12566.4512</v>
       </c>
       <c r="G87" t="n">
-        <v>76562.49799999996</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3344,18 +3391,19 @@
         <v>1312.0298</v>
       </c>
       <c r="G88" t="n">
-        <v>75250.46819999996</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3377,18 +3425,21 @@
         <v>4131.6634</v>
       </c>
       <c r="G89" t="n">
-        <v>75250.46819999996</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>95.5</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3410,18 +3461,21 @@
         <v>4345.6932</v>
       </c>
       <c r="G90" t="n">
-        <v>70904.77499999997</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>95.5</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3443,18 +3497,21 @@
         <v>2069.693</v>
       </c>
       <c r="G91" t="n">
-        <v>70904.77499999997</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>95.3</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3476,18 +3533,21 @@
         <v>864.121</v>
       </c>
       <c r="G92" t="n">
-        <v>70040.65399999997</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>95.3</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3509,18 +3569,21 @@
         <v>1018.0643</v>
       </c>
       <c r="G93" t="n">
-        <v>71058.71829999996</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3542,18 +3605,19 @@
         <v>1061.6289</v>
       </c>
       <c r="G94" t="n">
-        <v>69997.08939999997</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3575,18 +3639,19 @@
         <v>475.768</v>
       </c>
       <c r="G95" t="n">
-        <v>70472.85739999996</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3608,18 +3673,21 @@
         <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>70482.85739999996</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>95.7</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3641,18 +3709,21 @@
         <v>4231.811</v>
       </c>
       <c r="G97" t="n">
-        <v>74714.66839999997</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3674,18 +3745,19 @@
         <v>3000</v>
       </c>
       <c r="G98" t="n">
-        <v>77714.66839999997</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3707,18 +3779,19 @@
         <v>2100</v>
       </c>
       <c r="G99" t="n">
-        <v>77714.66839999997</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3740,18 +3813,19 @@
         <v>2900</v>
       </c>
       <c r="G100" t="n">
-        <v>77714.66839999997</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3773,18 +3847,19 @@
         <v>54.3642</v>
       </c>
       <c r="G101" t="n">
-        <v>77660.30419999997</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3806,18 +3881,19 @@
         <v>5695.3993</v>
       </c>
       <c r="G102" t="n">
-        <v>83355.70349999997</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3839,18 +3915,19 @@
         <v>1948.2769</v>
       </c>
       <c r="G103" t="n">
-        <v>83355.70349999997</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3872,18 +3949,19 @@
         <v>1228</v>
       </c>
       <c r="G104" t="n">
-        <v>84583.70349999997</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3905,18 +3983,19 @@
         <v>8500.320299999999</v>
       </c>
       <c r="G105" t="n">
-        <v>93084.02379999997</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3938,18 +4017,19 @@
         <v>4577.05</v>
       </c>
       <c r="G106" t="n">
-        <v>97661.07379999997</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3971,18 +4051,19 @@
         <v>1500</v>
       </c>
       <c r="G107" t="n">
-        <v>99161.07379999997</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4004,18 +4085,19 @@
         <v>3000</v>
       </c>
       <c r="G108" t="n">
-        <v>96161.07379999997</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4037,18 +4119,19 @@
         <v>1008.6738</v>
       </c>
       <c r="G109" t="n">
-        <v>97169.74759999997</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4070,18 +4153,19 @@
         <v>10600</v>
       </c>
       <c r="G110" t="n">
-        <v>86569.74759999997</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4103,18 +4187,19 @@
         <v>5000</v>
       </c>
       <c r="G111" t="n">
-        <v>86569.74759999997</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4136,18 +4221,19 @@
         <v>8479.0695</v>
       </c>
       <c r="G112" t="n">
-        <v>78090.67809999998</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4169,18 +4255,19 @@
         <v>1692.7501</v>
       </c>
       <c r="G113" t="n">
-        <v>79783.42819999998</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4202,18 +4289,19 @@
         <v>2200</v>
       </c>
       <c r="G114" t="n">
-        <v>79783.42819999998</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4235,18 +4323,19 @@
         <v>4650</v>
       </c>
       <c r="G115" t="n">
-        <v>79783.42819999998</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4268,18 +4357,19 @@
         <v>1027.1346</v>
       </c>
       <c r="G116" t="n">
-        <v>79783.42819999998</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4301,18 +4391,19 @@
         <v>800</v>
       </c>
       <c r="G117" t="n">
-        <v>79783.42819999998</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4334,18 +4425,19 @@
         <v>786</v>
       </c>
       <c r="G118" t="n">
-        <v>80569.42819999998</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4367,18 +4459,19 @@
         <v>6355.9542</v>
       </c>
       <c r="G119" t="n">
-        <v>74213.47399999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4400,18 +4493,19 @@
         <v>600</v>
       </c>
       <c r="G120" t="n">
-        <v>74813.47399999999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4433,18 +4527,19 @@
         <v>16350</v>
       </c>
       <c r="G121" t="n">
-        <v>74813.47399999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4466,18 +4561,19 @@
         <v>2278</v>
       </c>
       <c r="G122" t="n">
-        <v>74813.47399999999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4499,18 +4595,19 @@
         <v>41961.7025</v>
       </c>
       <c r="G123" t="n">
-        <v>116775.1765</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4532,18 +4629,19 @@
         <v>21.945</v>
       </c>
       <c r="G124" t="n">
-        <v>116753.2315</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4565,18 +4663,19 @@
         <v>8378.2983</v>
       </c>
       <c r="G125" t="n">
-        <v>116753.2315</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4598,18 +4697,19 @@
         <v>1418.9557</v>
       </c>
       <c r="G126" t="n">
-        <v>116753.2315</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4631,18 +4731,19 @@
         <v>1750</v>
       </c>
       <c r="G127" t="n">
-        <v>118503.2315</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4664,18 +4765,19 @@
         <v>4700</v>
       </c>
       <c r="G128" t="n">
-        <v>118503.2315</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4697,18 +4799,19 @@
         <v>18359.9999</v>
       </c>
       <c r="G129" t="n">
-        <v>118503.2315</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4730,18 +4833,19 @@
         <v>10547</v>
       </c>
       <c r="G130" t="n">
-        <v>129050.2315</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4763,18 +4867,19 @@
         <v>28661.45835576923</v>
       </c>
       <c r="G131" t="n">
-        <v>129050.2315</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4796,18 +4901,19 @@
         <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>129050.2315</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4829,18 +4935,19 @@
         <v>11156.2492</v>
       </c>
       <c r="G133" t="n">
-        <v>129050.2315</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4862,18 +4969,19 @@
         <v>2107.084244230769</v>
       </c>
       <c r="G134" t="n">
-        <v>129050.2315</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4895,18 +5003,17 @@
         <v>3348.3612</v>
       </c>
       <c r="G135" t="n">
-        <v>129050.2315</v>
-      </c>
-      <c r="H135" t="n">
         <v>2</v>
       </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4928,18 +5035,15 @@
         <v>3660.763155769231</v>
       </c>
       <c r="G136" t="n">
-        <v>129050.2315</v>
-      </c>
-      <c r="H136" t="n">
         <v>2</v>
       </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4961,18 +5065,15 @@
         <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>129060.2315</v>
-      </c>
-      <c r="H137" t="n">
         <v>2</v>
       </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4994,18 +5095,15 @@
         <v>1201</v>
       </c>
       <c r="G138" t="n">
-        <v>127859.2315</v>
-      </c>
-      <c r="H138" t="n">
         <v>2</v>
       </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5027,18 +5125,15 @@
         <v>1473</v>
       </c>
       <c r="G139" t="n">
-        <v>127859.2315</v>
-      </c>
-      <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5060,18 +5155,15 @@
         <v>5701.5679</v>
       </c>
       <c r="G140" t="n">
-        <v>127859.2315</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5093,18 +5185,15 @@
         <v>7186.76923076923</v>
       </c>
       <c r="G141" t="n">
-        <v>127859.2315</v>
-      </c>
-      <c r="H141" t="n">
         <v>2</v>
       </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5126,18 +5215,15 @@
         <v>8350</v>
       </c>
       <c r="G142" t="n">
-        <v>119509.2315</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5159,18 +5245,15 @@
         <v>8550.3078</v>
       </c>
       <c r="G143" t="n">
-        <v>119509.2315</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5192,18 +5275,15 @@
         <v>10711</v>
       </c>
       <c r="G144" t="n">
-        <v>108798.2315</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5225,18 +5305,15 @@
         <v>10911.466</v>
       </c>
       <c r="G145" t="n">
-        <v>97886.76549999998</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5258,18 +5335,15 @@
         <v>11487.5097</v>
       </c>
       <c r="G146" t="n">
-        <v>109374.2752</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5291,18 +5365,15 @@
         <v>7276</v>
       </c>
       <c r="G147" t="n">
-        <v>109374.2752</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5324,18 +5395,15 @@
         <v>8913.7001</v>
       </c>
       <c r="G148" t="n">
-        <v>109374.2752</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5357,18 +5425,15 @@
         <v>964.9047</v>
       </c>
       <c r="G149" t="n">
-        <v>109374.2752</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5390,18 +5455,15 @@
         <v>192.3077</v>
       </c>
       <c r="G150" t="n">
-        <v>109374.2752</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5423,18 +5485,15 @@
         <v>1000</v>
       </c>
       <c r="G151" t="n">
-        <v>109374.2752</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5456,18 +5515,15 @@
         <v>7201.6923</v>
       </c>
       <c r="G152" t="n">
-        <v>109374.2752</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5489,18 +5545,15 @@
         <v>20553.9323</v>
       </c>
       <c r="G153" t="n">
-        <v>129928.2075</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5522,18 +5575,15 @@
         <v>322</v>
       </c>
       <c r="G154" t="n">
-        <v>129606.2075</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5555,18 +5605,15 @@
         <v>5132.9819</v>
       </c>
       <c r="G155" t="n">
-        <v>124473.2256</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5588,18 +5635,15 @@
         <v>3000</v>
       </c>
       <c r="G156" t="n">
-        <v>124473.2256</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5621,18 +5665,15 @@
         <v>1140.4981</v>
       </c>
       <c r="G157" t="n">
-        <v>124473.2256</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5654,18 +5695,15 @@
         <v>7528.215273786408</v>
       </c>
       <c r="G158" t="n">
-        <v>132001.4408737864</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5687,18 +5725,15 @@
         <v>400.7287</v>
       </c>
       <c r="G159" t="n">
-        <v>131600.7121737864</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5720,18 +5755,15 @@
         <v>108.2713</v>
       </c>
       <c r="G160" t="n">
-        <v>131600.7121737864</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5753,18 +5785,15 @@
         <v>12060.2221</v>
       </c>
       <c r="G161" t="n">
-        <v>119540.4900737864</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5786,18 +5815,15 @@
         <v>608</v>
       </c>
       <c r="G162" t="n">
-        <v>119540.4900737864</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5819,18 +5845,15 @@
         <v>8425.974899999999</v>
       </c>
       <c r="G163" t="n">
-        <v>111114.5151737864</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5852,18 +5875,15 @@
         <v>750</v>
       </c>
       <c r="G164" t="n">
-        <v>111114.5151737864</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5885,18 +5905,15 @@
         <v>1995</v>
       </c>
       <c r="G165" t="n">
-        <v>113109.5151737864</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5918,18 +5935,15 @@
         <v>21643.5413</v>
       </c>
       <c r="G166" t="n">
-        <v>91465.97387378637</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5951,18 +5965,15 @@
         <v>12910.7505</v>
       </c>
       <c r="G167" t="n">
-        <v>78555.22337378637</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5984,18 +5995,15 @@
         <v>1894.642</v>
       </c>
       <c r="G168" t="n">
-        <v>76660.58137378636</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6017,18 +6025,15 @@
         <v>31353.7593</v>
       </c>
       <c r="G169" t="n">
-        <v>45306.82207378636</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6050,18 +6055,15 @@
         <v>19514.4583</v>
       </c>
       <c r="G170" t="n">
-        <v>64821.28037378636</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6083,18 +6085,15 @@
         <v>1008</v>
       </c>
       <c r="G171" t="n">
-        <v>63813.28037378636</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
